--- a/app/src/main/assets/Diary.xlsx
+++ b/app/src/main/assets/Diary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FC31A-BCD2-C84F-91D3-4DA04A44DA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB925DE-038C-374F-AB20-6F6D839BD5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="460" windowWidth="22540" windowHeight="17540" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
+    <workbookView xWindow="6260" yWindow="460" windowWidth="22540" windowHeight="17540" activeTab="1" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
   <sheets>
     <sheet name="Thực phẩm" sheetId="1" r:id="rId1"/>
@@ -2451,381 +2451,6 @@
     <t>Kem vinamilk vani</t>
   </si>
   <si>
-    <t>N4001</t>
-  </si>
-  <si>
-    <t>N4002</t>
-  </si>
-  <si>
-    <t>N4003</t>
-  </si>
-  <si>
-    <t>N4004</t>
-  </si>
-  <si>
-    <t>N4005</t>
-  </si>
-  <si>
-    <t>N4006</t>
-  </si>
-  <si>
-    <t>N4007</t>
-  </si>
-  <si>
-    <t>N4008</t>
-  </si>
-  <si>
-    <t>N4009</t>
-  </si>
-  <si>
-    <t>N4010</t>
-  </si>
-  <si>
-    <t>N4011</t>
-  </si>
-  <si>
-    <t>N4012</t>
-  </si>
-  <si>
-    <t>N4013</t>
-  </si>
-  <si>
-    <t>N4014</t>
-  </si>
-  <si>
-    <t>N4015</t>
-  </si>
-  <si>
-    <t>N4016</t>
-  </si>
-  <si>
-    <t>N4017</t>
-  </si>
-  <si>
-    <t>N4018</t>
-  </si>
-  <si>
-    <t>N4019</t>
-  </si>
-  <si>
-    <t>N4020</t>
-  </si>
-  <si>
-    <t>N4021</t>
-  </si>
-  <si>
-    <t>N4022</t>
-  </si>
-  <si>
-    <t>N4023</t>
-  </si>
-  <si>
-    <t>N4024</t>
-  </si>
-  <si>
-    <t>N4025</t>
-  </si>
-  <si>
-    <t>N4026</t>
-  </si>
-  <si>
-    <t>N4027</t>
-  </si>
-  <si>
-    <t>N4028</t>
-  </si>
-  <si>
-    <t>N4029</t>
-  </si>
-  <si>
-    <t>N4030</t>
-  </si>
-  <si>
-    <t>N4031</t>
-  </si>
-  <si>
-    <t>N4032</t>
-  </si>
-  <si>
-    <t>N4033</t>
-  </si>
-  <si>
-    <t>N4034</t>
-  </si>
-  <si>
-    <t>N4035</t>
-  </si>
-  <si>
-    <t>N4036</t>
-  </si>
-  <si>
-    <t>N4037</t>
-  </si>
-  <si>
-    <t>N4038</t>
-  </si>
-  <si>
-    <t>N4039</t>
-  </si>
-  <si>
-    <t>N4040</t>
-  </si>
-  <si>
-    <t>N4041</t>
-  </si>
-  <si>
-    <t>N4042</t>
-  </si>
-  <si>
-    <t>N4043</t>
-  </si>
-  <si>
-    <t>N4044</t>
-  </si>
-  <si>
-    <t>N4045</t>
-  </si>
-  <si>
-    <t>N4046</t>
-  </si>
-  <si>
-    <t>N4047</t>
-  </si>
-  <si>
-    <t>N4048</t>
-  </si>
-  <si>
-    <t>N4049</t>
-  </si>
-  <si>
-    <t>N4050</t>
-  </si>
-  <si>
-    <t>N4051</t>
-  </si>
-  <si>
-    <t>N4052</t>
-  </si>
-  <si>
-    <t>N4053</t>
-  </si>
-  <si>
-    <t>N4054</t>
-  </si>
-  <si>
-    <t>N4055</t>
-  </si>
-  <si>
-    <t>N4056</t>
-  </si>
-  <si>
-    <t>N4057</t>
-  </si>
-  <si>
-    <t>N4058</t>
-  </si>
-  <si>
-    <t>N4059</t>
-  </si>
-  <si>
-    <t>N4060</t>
-  </si>
-  <si>
-    <t>N4061</t>
-  </si>
-  <si>
-    <t>N4062</t>
-  </si>
-  <si>
-    <t>N4063</t>
-  </si>
-  <si>
-    <t>N4064</t>
-  </si>
-  <si>
-    <t>N4065</t>
-  </si>
-  <si>
-    <t>N4066</t>
-  </si>
-  <si>
-    <t>N4067</t>
-  </si>
-  <si>
-    <t>N4068</t>
-  </si>
-  <si>
-    <t>N4069</t>
-  </si>
-  <si>
-    <t>N4070</t>
-  </si>
-  <si>
-    <t>N4071</t>
-  </si>
-  <si>
-    <t>N4072</t>
-  </si>
-  <si>
-    <t>N4073</t>
-  </si>
-  <si>
-    <t>N4074</t>
-  </si>
-  <si>
-    <t>N4075</t>
-  </si>
-  <si>
-    <t>N4076</t>
-  </si>
-  <si>
-    <t>N4077</t>
-  </si>
-  <si>
-    <t>N4078</t>
-  </si>
-  <si>
-    <t>N4079</t>
-  </si>
-  <si>
-    <t>N4080</t>
-  </si>
-  <si>
-    <t>N4081</t>
-  </si>
-  <si>
-    <t>N4082</t>
-  </si>
-  <si>
-    <t>N4083</t>
-  </si>
-  <si>
-    <t>N4084</t>
-  </si>
-  <si>
-    <t>N4085</t>
-  </si>
-  <si>
-    <t>N4086</t>
-  </si>
-  <si>
-    <t>N4087</t>
-  </si>
-  <si>
-    <t>N4088</t>
-  </si>
-  <si>
-    <t>N4089</t>
-  </si>
-  <si>
-    <t>N4090</t>
-  </si>
-  <si>
-    <t>N4091</t>
-  </si>
-  <si>
-    <t>N4092</t>
-  </si>
-  <si>
-    <t>N4093</t>
-  </si>
-  <si>
-    <t>N4094</t>
-  </si>
-  <si>
-    <t>N4095</t>
-  </si>
-  <si>
-    <t>N4096</t>
-  </si>
-  <si>
-    <t>N4097</t>
-  </si>
-  <si>
-    <t>N4098</t>
-  </si>
-  <si>
-    <t>N4099</t>
-  </si>
-  <si>
-    <t>N4100</t>
-  </si>
-  <si>
-    <t>N4101</t>
-  </si>
-  <si>
-    <t>N4102</t>
-  </si>
-  <si>
-    <t>N4103</t>
-  </si>
-  <si>
-    <t>N4104</t>
-  </si>
-  <si>
-    <t>N4105</t>
-  </si>
-  <si>
-    <t>N4106</t>
-  </si>
-  <si>
-    <t>N4107</t>
-  </si>
-  <si>
-    <t>N4108</t>
-  </si>
-  <si>
-    <t>N4109</t>
-  </si>
-  <si>
-    <t>N4110</t>
-  </si>
-  <si>
-    <t>N4111</t>
-  </si>
-  <si>
-    <t>N4112</t>
-  </si>
-  <si>
-    <t>N4113</t>
-  </si>
-  <si>
-    <t>N4114</t>
-  </si>
-  <si>
-    <t>N4115</t>
-  </si>
-  <si>
-    <t>N4116</t>
-  </si>
-  <si>
-    <t>N4117</t>
-  </si>
-  <si>
-    <t>N4118</t>
-  </si>
-  <si>
-    <t>N4119</t>
-  </si>
-  <si>
-    <t>N4120</t>
-  </si>
-  <si>
-    <t>N4121</t>
-  </si>
-  <si>
-    <t>N4122</t>
-  </si>
-  <si>
-    <t>N4123</t>
-  </si>
-  <si>
-    <t>N4124</t>
-  </si>
-  <si>
-    <t>N4125</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cocacola </t>
   </si>
   <si>
@@ -3144,624 +2769,6 @@
     <t>Sữa chua uống TH việt quất</t>
   </si>
   <si>
-    <t>N5001</t>
-  </si>
-  <si>
-    <t>N5002</t>
-  </si>
-  <si>
-    <t>N5003</t>
-  </si>
-  <si>
-    <t>N5004</t>
-  </si>
-  <si>
-    <t>N5005</t>
-  </si>
-  <si>
-    <t>N5006</t>
-  </si>
-  <si>
-    <t>N5007</t>
-  </si>
-  <si>
-    <t>N5008</t>
-  </si>
-  <si>
-    <t>N5009</t>
-  </si>
-  <si>
-    <t>N5010</t>
-  </si>
-  <si>
-    <t>N5011</t>
-  </si>
-  <si>
-    <t>N5012</t>
-  </si>
-  <si>
-    <t>N5013</t>
-  </si>
-  <si>
-    <t>N5014</t>
-  </si>
-  <si>
-    <t>N5015</t>
-  </si>
-  <si>
-    <t>N5016</t>
-  </si>
-  <si>
-    <t>N5017</t>
-  </si>
-  <si>
-    <t>N5018</t>
-  </si>
-  <si>
-    <t>N5019</t>
-  </si>
-  <si>
-    <t>N5020</t>
-  </si>
-  <si>
-    <t>N5021</t>
-  </si>
-  <si>
-    <t>N5022</t>
-  </si>
-  <si>
-    <t>N5023</t>
-  </si>
-  <si>
-    <t>N5024</t>
-  </si>
-  <si>
-    <t>N5025</t>
-  </si>
-  <si>
-    <t>N5026</t>
-  </si>
-  <si>
-    <t>N5027</t>
-  </si>
-  <si>
-    <t>N5028</t>
-  </si>
-  <si>
-    <t>N5029</t>
-  </si>
-  <si>
-    <t>N5030</t>
-  </si>
-  <si>
-    <t>N5031</t>
-  </si>
-  <si>
-    <t>N5032</t>
-  </si>
-  <si>
-    <t>N5033</t>
-  </si>
-  <si>
-    <t>N5034</t>
-  </si>
-  <si>
-    <t>N5035</t>
-  </si>
-  <si>
-    <t>N5036</t>
-  </si>
-  <si>
-    <t>N5037</t>
-  </si>
-  <si>
-    <t>N5038</t>
-  </si>
-  <si>
-    <t>N5039</t>
-  </si>
-  <si>
-    <t>N5040</t>
-  </si>
-  <si>
-    <t>N5041</t>
-  </si>
-  <si>
-    <t>N5042</t>
-  </si>
-  <si>
-    <t>N5043</t>
-  </si>
-  <si>
-    <t>N5044</t>
-  </si>
-  <si>
-    <t>N5045</t>
-  </si>
-  <si>
-    <t>N5046</t>
-  </si>
-  <si>
-    <t>N5047</t>
-  </si>
-  <si>
-    <t>N5048</t>
-  </si>
-  <si>
-    <t>N5049</t>
-  </si>
-  <si>
-    <t>N5050</t>
-  </si>
-  <si>
-    <t>N5051</t>
-  </si>
-  <si>
-    <t>N5052</t>
-  </si>
-  <si>
-    <t>N5053</t>
-  </si>
-  <si>
-    <t>N5054</t>
-  </si>
-  <si>
-    <t>N5055</t>
-  </si>
-  <si>
-    <t>N5056</t>
-  </si>
-  <si>
-    <t>N5057</t>
-  </si>
-  <si>
-    <t>N5058</t>
-  </si>
-  <si>
-    <t>N5059</t>
-  </si>
-  <si>
-    <t>N5060</t>
-  </si>
-  <si>
-    <t>N5061</t>
-  </si>
-  <si>
-    <t>N5062</t>
-  </si>
-  <si>
-    <t>N5063</t>
-  </si>
-  <si>
-    <t>N5064</t>
-  </si>
-  <si>
-    <t>N5065</t>
-  </si>
-  <si>
-    <t>N5066</t>
-  </si>
-  <si>
-    <t>N5067</t>
-  </si>
-  <si>
-    <t>N5068</t>
-  </si>
-  <si>
-    <t>N5069</t>
-  </si>
-  <si>
-    <t>N5070</t>
-  </si>
-  <si>
-    <t>N5071</t>
-  </si>
-  <si>
-    <t>N5072</t>
-  </si>
-  <si>
-    <t>N5073</t>
-  </si>
-  <si>
-    <t>N5074</t>
-  </si>
-  <si>
-    <t>N5075</t>
-  </si>
-  <si>
-    <t>N5076</t>
-  </si>
-  <si>
-    <t>N5077</t>
-  </si>
-  <si>
-    <t>N5078</t>
-  </si>
-  <si>
-    <t>N5079</t>
-  </si>
-  <si>
-    <t>N5080</t>
-  </si>
-  <si>
-    <t>N5081</t>
-  </si>
-  <si>
-    <t>N5082</t>
-  </si>
-  <si>
-    <t>N5083</t>
-  </si>
-  <si>
-    <t>N5084</t>
-  </si>
-  <si>
-    <t>N5085</t>
-  </si>
-  <si>
-    <t>N5086</t>
-  </si>
-  <si>
-    <t>N5087</t>
-  </si>
-  <si>
-    <t>N5088</t>
-  </si>
-  <si>
-    <t>N5089</t>
-  </si>
-  <si>
-    <t>N5090</t>
-  </si>
-  <si>
-    <t>N5091</t>
-  </si>
-  <si>
-    <t>N5092</t>
-  </si>
-  <si>
-    <t>N5093</t>
-  </si>
-  <si>
-    <t>N5094</t>
-  </si>
-  <si>
-    <t>N5095</t>
-  </si>
-  <si>
-    <t>N5096</t>
-  </si>
-  <si>
-    <t>N5097</t>
-  </si>
-  <si>
-    <t>N5098</t>
-  </si>
-  <si>
-    <t>N5099</t>
-  </si>
-  <si>
-    <t>N5100</t>
-  </si>
-  <si>
-    <t>N5101</t>
-  </si>
-  <si>
-    <t>N5102</t>
-  </si>
-  <si>
-    <t>N5103</t>
-  </si>
-  <si>
-    <t>N5104</t>
-  </si>
-  <si>
-    <t>N5105</t>
-  </si>
-  <si>
-    <t>N5106</t>
-  </si>
-  <si>
-    <t>N5107</t>
-  </si>
-  <si>
-    <t>N5108</t>
-  </si>
-  <si>
-    <t>N5109</t>
-  </si>
-  <si>
-    <t>N5110</t>
-  </si>
-  <si>
-    <t>N5111</t>
-  </si>
-  <si>
-    <t>N5112</t>
-  </si>
-  <si>
-    <t>N5113</t>
-  </si>
-  <si>
-    <t>N5114</t>
-  </si>
-  <si>
-    <t>N5115</t>
-  </si>
-  <si>
-    <t>N5116</t>
-  </si>
-  <si>
-    <t>N5117</t>
-  </si>
-  <si>
-    <t>N5118</t>
-  </si>
-  <si>
-    <t>N5119</t>
-  </si>
-  <si>
-    <t>N5120</t>
-  </si>
-  <si>
-    <t>N5121</t>
-  </si>
-  <si>
-    <t>N5122</t>
-  </si>
-  <si>
-    <t>N5123</t>
-  </si>
-  <si>
-    <t>N5124</t>
-  </si>
-  <si>
-    <t>N5125</t>
-  </si>
-  <si>
-    <t>N5126</t>
-  </si>
-  <si>
-    <t>N5127</t>
-  </si>
-  <si>
-    <t>N5128</t>
-  </si>
-  <si>
-    <t>N5129</t>
-  </si>
-  <si>
-    <t>N5130</t>
-  </si>
-  <si>
-    <t>N5131</t>
-  </si>
-  <si>
-    <t>N5132</t>
-  </si>
-  <si>
-    <t>N5133</t>
-  </si>
-  <si>
-    <t>N5134</t>
-  </si>
-  <si>
-    <t>N5135</t>
-  </si>
-  <si>
-    <t>N5136</t>
-  </si>
-  <si>
-    <t>N5137</t>
-  </si>
-  <si>
-    <t>N5138</t>
-  </si>
-  <si>
-    <t>N5139</t>
-  </si>
-  <si>
-    <t>N5140</t>
-  </si>
-  <si>
-    <t>N5141</t>
-  </si>
-  <si>
-    <t>N5142</t>
-  </si>
-  <si>
-    <t>N5143</t>
-  </si>
-  <si>
-    <t>N5144</t>
-  </si>
-  <si>
-    <t>N5145</t>
-  </si>
-  <si>
-    <t>N5146</t>
-  </si>
-  <si>
-    <t>N5147</t>
-  </si>
-  <si>
-    <t>N5148</t>
-  </si>
-  <si>
-    <t>N5149</t>
-  </si>
-  <si>
-    <t>N5150</t>
-  </si>
-  <si>
-    <t>N5151</t>
-  </si>
-  <si>
-    <t>N5152</t>
-  </si>
-  <si>
-    <t>N5153</t>
-  </si>
-  <si>
-    <t>N5154</t>
-  </si>
-  <si>
-    <t>N5155</t>
-  </si>
-  <si>
-    <t>N5156</t>
-  </si>
-  <si>
-    <t>N5157</t>
-  </si>
-  <si>
-    <t>N5158</t>
-  </si>
-  <si>
-    <t>N5159</t>
-  </si>
-  <si>
-    <t>N5160</t>
-  </si>
-  <si>
-    <t>N5161</t>
-  </si>
-  <si>
-    <t>N5162</t>
-  </si>
-  <si>
-    <t>N5163</t>
-  </si>
-  <si>
-    <t>N5164</t>
-  </si>
-  <si>
-    <t>N5165</t>
-  </si>
-  <si>
-    <t>N5166</t>
-  </si>
-  <si>
-    <t>N5167</t>
-  </si>
-  <si>
-    <t>N5168</t>
-  </si>
-  <si>
-    <t>N5169</t>
-  </si>
-  <si>
-    <t>N5170</t>
-  </si>
-  <si>
-    <t>N5171</t>
-  </si>
-  <si>
-    <t>N5172</t>
-  </si>
-  <si>
-    <t>N5173</t>
-  </si>
-  <si>
-    <t>N5174</t>
-  </si>
-  <si>
-    <t>N5175</t>
-  </si>
-  <si>
-    <t>N5176</t>
-  </si>
-  <si>
-    <t>N5177</t>
-  </si>
-  <si>
-    <t>N5178</t>
-  </si>
-  <si>
-    <t>N5179</t>
-  </si>
-  <si>
-    <t>N5180</t>
-  </si>
-  <si>
-    <t>N5181</t>
-  </si>
-  <si>
-    <t>N5182</t>
-  </si>
-  <si>
-    <t>N5183</t>
-  </si>
-  <si>
-    <t>N5184</t>
-  </si>
-  <si>
-    <t>N5185</t>
-  </si>
-  <si>
-    <t>N5186</t>
-  </si>
-  <si>
-    <t>N5187</t>
-  </si>
-  <si>
-    <t>N5188</t>
-  </si>
-  <si>
-    <t>N5189</t>
-  </si>
-  <si>
-    <t>N5190</t>
-  </si>
-  <si>
-    <t>N5191</t>
-  </si>
-  <si>
-    <t>N5192</t>
-  </si>
-  <si>
-    <t>N5193</t>
-  </si>
-  <si>
-    <t>N5194</t>
-  </si>
-  <si>
-    <t>N5195</t>
-  </si>
-  <si>
-    <t>N5196</t>
-  </si>
-  <si>
-    <t>N5197</t>
-  </si>
-  <si>
-    <t>N5198</t>
-  </si>
-  <si>
-    <t>N5199</t>
-  </si>
-  <si>
-    <t>N5200</t>
-  </si>
-  <si>
-    <t>N5201</t>
-  </si>
-  <si>
-    <t>N5202</t>
-  </si>
-  <si>
-    <t>N5203</t>
-  </si>
-  <si>
-    <t>N5204</t>
-  </si>
-  <si>
-    <t>N5205</t>
-  </si>
-  <si>
-    <t>N5206</t>
-  </si>
-  <si>
     <t>Bánh bèo Huế</t>
   </si>
   <si>
@@ -4417,6 +3424,999 @@
   </si>
   <si>
     <t>Bánh ngũ cốc KoKo Kruch</t>
+  </si>
+  <si>
+    <t>n4001</t>
+  </si>
+  <si>
+    <t>n4002</t>
+  </si>
+  <si>
+    <t>n4003</t>
+  </si>
+  <si>
+    <t>n4004</t>
+  </si>
+  <si>
+    <t>n4005</t>
+  </si>
+  <si>
+    <t>n4006</t>
+  </si>
+  <si>
+    <t>n4007</t>
+  </si>
+  <si>
+    <t>n4008</t>
+  </si>
+  <si>
+    <t>n4009</t>
+  </si>
+  <si>
+    <t>n4010</t>
+  </si>
+  <si>
+    <t>n4011</t>
+  </si>
+  <si>
+    <t>n4012</t>
+  </si>
+  <si>
+    <t>n4013</t>
+  </si>
+  <si>
+    <t>n4014</t>
+  </si>
+  <si>
+    <t>n4015</t>
+  </si>
+  <si>
+    <t>n4016</t>
+  </si>
+  <si>
+    <t>n4017</t>
+  </si>
+  <si>
+    <t>n4018</t>
+  </si>
+  <si>
+    <t>n4019</t>
+  </si>
+  <si>
+    <t>n4020</t>
+  </si>
+  <si>
+    <t>n4021</t>
+  </si>
+  <si>
+    <t>n4022</t>
+  </si>
+  <si>
+    <t>n4023</t>
+  </si>
+  <si>
+    <t>n4024</t>
+  </si>
+  <si>
+    <t>n4025</t>
+  </si>
+  <si>
+    <t>n4026</t>
+  </si>
+  <si>
+    <t>n4027</t>
+  </si>
+  <si>
+    <t>n4028</t>
+  </si>
+  <si>
+    <t>n4029</t>
+  </si>
+  <si>
+    <t>n4030</t>
+  </si>
+  <si>
+    <t>n4031</t>
+  </si>
+  <si>
+    <t>n4032</t>
+  </si>
+  <si>
+    <t>n4033</t>
+  </si>
+  <si>
+    <t>n4034</t>
+  </si>
+  <si>
+    <t>n4035</t>
+  </si>
+  <si>
+    <t>n4036</t>
+  </si>
+  <si>
+    <t>n4037</t>
+  </si>
+  <si>
+    <t>n4038</t>
+  </si>
+  <si>
+    <t>n4039</t>
+  </si>
+  <si>
+    <t>n4040</t>
+  </si>
+  <si>
+    <t>n4041</t>
+  </si>
+  <si>
+    <t>n4042</t>
+  </si>
+  <si>
+    <t>n4043</t>
+  </si>
+  <si>
+    <t>n4044</t>
+  </si>
+  <si>
+    <t>n4045</t>
+  </si>
+  <si>
+    <t>n4046</t>
+  </si>
+  <si>
+    <t>n4047</t>
+  </si>
+  <si>
+    <t>n4048</t>
+  </si>
+  <si>
+    <t>n4049</t>
+  </si>
+  <si>
+    <t>n4050</t>
+  </si>
+  <si>
+    <t>n4051</t>
+  </si>
+  <si>
+    <t>n4052</t>
+  </si>
+  <si>
+    <t>n4053</t>
+  </si>
+  <si>
+    <t>n4054</t>
+  </si>
+  <si>
+    <t>n4055</t>
+  </si>
+  <si>
+    <t>n4056</t>
+  </si>
+  <si>
+    <t>n4057</t>
+  </si>
+  <si>
+    <t>n4058</t>
+  </si>
+  <si>
+    <t>n4059</t>
+  </si>
+  <si>
+    <t>n4060</t>
+  </si>
+  <si>
+    <t>n4061</t>
+  </si>
+  <si>
+    <t>n4062</t>
+  </si>
+  <si>
+    <t>n4063</t>
+  </si>
+  <si>
+    <t>n4064</t>
+  </si>
+  <si>
+    <t>n4065</t>
+  </si>
+  <si>
+    <t>n4066</t>
+  </si>
+  <si>
+    <t>n4067</t>
+  </si>
+  <si>
+    <t>n4068</t>
+  </si>
+  <si>
+    <t>n4069</t>
+  </si>
+  <si>
+    <t>n4070</t>
+  </si>
+  <si>
+    <t>n4071</t>
+  </si>
+  <si>
+    <t>n4072</t>
+  </si>
+  <si>
+    <t>n4073</t>
+  </si>
+  <si>
+    <t>n4074</t>
+  </si>
+  <si>
+    <t>n4075</t>
+  </si>
+  <si>
+    <t>n4076</t>
+  </si>
+  <si>
+    <t>n4077</t>
+  </si>
+  <si>
+    <t>n4078</t>
+  </si>
+  <si>
+    <t>n4079</t>
+  </si>
+  <si>
+    <t>n4080</t>
+  </si>
+  <si>
+    <t>n4081</t>
+  </si>
+  <si>
+    <t>n4082</t>
+  </si>
+  <si>
+    <t>n4083</t>
+  </si>
+  <si>
+    <t>n4084</t>
+  </si>
+  <si>
+    <t>n4085</t>
+  </si>
+  <si>
+    <t>n4086</t>
+  </si>
+  <si>
+    <t>n4087</t>
+  </si>
+  <si>
+    <t>n4088</t>
+  </si>
+  <si>
+    <t>n4089</t>
+  </si>
+  <si>
+    <t>n4090</t>
+  </si>
+  <si>
+    <t>n4091</t>
+  </si>
+  <si>
+    <t>n4092</t>
+  </si>
+  <si>
+    <t>n4093</t>
+  </si>
+  <si>
+    <t>n4094</t>
+  </si>
+  <si>
+    <t>n4095</t>
+  </si>
+  <si>
+    <t>n4096</t>
+  </si>
+  <si>
+    <t>n4097</t>
+  </si>
+  <si>
+    <t>n4098</t>
+  </si>
+  <si>
+    <t>n4099</t>
+  </si>
+  <si>
+    <t>n4100</t>
+  </si>
+  <si>
+    <t>n4101</t>
+  </si>
+  <si>
+    <t>n4102</t>
+  </si>
+  <si>
+    <t>n4103</t>
+  </si>
+  <si>
+    <t>n4104</t>
+  </si>
+  <si>
+    <t>n4105</t>
+  </si>
+  <si>
+    <t>n4106</t>
+  </si>
+  <si>
+    <t>n4107</t>
+  </si>
+  <si>
+    <t>n4108</t>
+  </si>
+  <si>
+    <t>n4109</t>
+  </si>
+  <si>
+    <t>n4110</t>
+  </si>
+  <si>
+    <t>n4111</t>
+  </si>
+  <si>
+    <t>n4112</t>
+  </si>
+  <si>
+    <t>n4113</t>
+  </si>
+  <si>
+    <t>n4114</t>
+  </si>
+  <si>
+    <t>n4115</t>
+  </si>
+  <si>
+    <t>n4116</t>
+  </si>
+  <si>
+    <t>n4117</t>
+  </si>
+  <si>
+    <t>n4118</t>
+  </si>
+  <si>
+    <t>n4119</t>
+  </si>
+  <si>
+    <t>n4120</t>
+  </si>
+  <si>
+    <t>n4121</t>
+  </si>
+  <si>
+    <t>n4122</t>
+  </si>
+  <si>
+    <t>n4123</t>
+  </si>
+  <si>
+    <t>n4124</t>
+  </si>
+  <si>
+    <t>n4125</t>
+  </si>
+  <si>
+    <t>n5001</t>
+  </si>
+  <si>
+    <t>n5002</t>
+  </si>
+  <si>
+    <t>n5003</t>
+  </si>
+  <si>
+    <t>n5004</t>
+  </si>
+  <si>
+    <t>n5005</t>
+  </si>
+  <si>
+    <t>n5006</t>
+  </si>
+  <si>
+    <t>n5007</t>
+  </si>
+  <si>
+    <t>n5008</t>
+  </si>
+  <si>
+    <t>n5009</t>
+  </si>
+  <si>
+    <t>n5010</t>
+  </si>
+  <si>
+    <t>n5011</t>
+  </si>
+  <si>
+    <t>n5012</t>
+  </si>
+  <si>
+    <t>n5013</t>
+  </si>
+  <si>
+    <t>n5014</t>
+  </si>
+  <si>
+    <t>n5015</t>
+  </si>
+  <si>
+    <t>n5016</t>
+  </si>
+  <si>
+    <t>n5017</t>
+  </si>
+  <si>
+    <t>n5018</t>
+  </si>
+  <si>
+    <t>n5019</t>
+  </si>
+  <si>
+    <t>n5020</t>
+  </si>
+  <si>
+    <t>n5021</t>
+  </si>
+  <si>
+    <t>n5022</t>
+  </si>
+  <si>
+    <t>n5023</t>
+  </si>
+  <si>
+    <t>n5024</t>
+  </si>
+  <si>
+    <t>n5025</t>
+  </si>
+  <si>
+    <t>n5026</t>
+  </si>
+  <si>
+    <t>n5027</t>
+  </si>
+  <si>
+    <t>n5028</t>
+  </si>
+  <si>
+    <t>n5029</t>
+  </si>
+  <si>
+    <t>n5030</t>
+  </si>
+  <si>
+    <t>n5031</t>
+  </si>
+  <si>
+    <t>n5032</t>
+  </si>
+  <si>
+    <t>n5033</t>
+  </si>
+  <si>
+    <t>n5034</t>
+  </si>
+  <si>
+    <t>n5035</t>
+  </si>
+  <si>
+    <t>n5036</t>
+  </si>
+  <si>
+    <t>n5037</t>
+  </si>
+  <si>
+    <t>n5038</t>
+  </si>
+  <si>
+    <t>n5039</t>
+  </si>
+  <si>
+    <t>n5040</t>
+  </si>
+  <si>
+    <t>n5041</t>
+  </si>
+  <si>
+    <t>n5042</t>
+  </si>
+  <si>
+    <t>n5043</t>
+  </si>
+  <si>
+    <t>n5044</t>
+  </si>
+  <si>
+    <t>n5045</t>
+  </si>
+  <si>
+    <t>n5046</t>
+  </si>
+  <si>
+    <t>n5047</t>
+  </si>
+  <si>
+    <t>n5048</t>
+  </si>
+  <si>
+    <t>n5049</t>
+  </si>
+  <si>
+    <t>n5050</t>
+  </si>
+  <si>
+    <t>n5051</t>
+  </si>
+  <si>
+    <t>n5052</t>
+  </si>
+  <si>
+    <t>n5053</t>
+  </si>
+  <si>
+    <t>n5054</t>
+  </si>
+  <si>
+    <t>n5055</t>
+  </si>
+  <si>
+    <t>n5056</t>
+  </si>
+  <si>
+    <t>n5057</t>
+  </si>
+  <si>
+    <t>n5058</t>
+  </si>
+  <si>
+    <t>n5059</t>
+  </si>
+  <si>
+    <t>n5060</t>
+  </si>
+  <si>
+    <t>n5061</t>
+  </si>
+  <si>
+    <t>n5062</t>
+  </si>
+  <si>
+    <t>n5063</t>
+  </si>
+  <si>
+    <t>n5064</t>
+  </si>
+  <si>
+    <t>n5065</t>
+  </si>
+  <si>
+    <t>n5066</t>
+  </si>
+  <si>
+    <t>n5067</t>
+  </si>
+  <si>
+    <t>n5068</t>
+  </si>
+  <si>
+    <t>n5069</t>
+  </si>
+  <si>
+    <t>n5070</t>
+  </si>
+  <si>
+    <t>n5071</t>
+  </si>
+  <si>
+    <t>n5072</t>
+  </si>
+  <si>
+    <t>n5073</t>
+  </si>
+  <si>
+    <t>n5074</t>
+  </si>
+  <si>
+    <t>n5075</t>
+  </si>
+  <si>
+    <t>n5076</t>
+  </si>
+  <si>
+    <t>n5077</t>
+  </si>
+  <si>
+    <t>n5078</t>
+  </si>
+  <si>
+    <t>n5079</t>
+  </si>
+  <si>
+    <t>n5080</t>
+  </si>
+  <si>
+    <t>n5081</t>
+  </si>
+  <si>
+    <t>n5082</t>
+  </si>
+  <si>
+    <t>n5083</t>
+  </si>
+  <si>
+    <t>n5084</t>
+  </si>
+  <si>
+    <t>n5085</t>
+  </si>
+  <si>
+    <t>n5086</t>
+  </si>
+  <si>
+    <t>n5087</t>
+  </si>
+  <si>
+    <t>n5088</t>
+  </si>
+  <si>
+    <t>n5089</t>
+  </si>
+  <si>
+    <t>n5090</t>
+  </si>
+  <si>
+    <t>n5091</t>
+  </si>
+  <si>
+    <t>n5092</t>
+  </si>
+  <si>
+    <t>n5093</t>
+  </si>
+  <si>
+    <t>n5094</t>
+  </si>
+  <si>
+    <t>n5095</t>
+  </si>
+  <si>
+    <t>n5096</t>
+  </si>
+  <si>
+    <t>n5097</t>
+  </si>
+  <si>
+    <t>n5098</t>
+  </si>
+  <si>
+    <t>n5099</t>
+  </si>
+  <si>
+    <t>n5100</t>
+  </si>
+  <si>
+    <t>n5101</t>
+  </si>
+  <si>
+    <t>n5102</t>
+  </si>
+  <si>
+    <t>n5103</t>
+  </si>
+  <si>
+    <t>n5104</t>
+  </si>
+  <si>
+    <t>n5105</t>
+  </si>
+  <si>
+    <t>n5106</t>
+  </si>
+  <si>
+    <t>n5107</t>
+  </si>
+  <si>
+    <t>n5108</t>
+  </si>
+  <si>
+    <t>n5109</t>
+  </si>
+  <si>
+    <t>n5110</t>
+  </si>
+  <si>
+    <t>n5111</t>
+  </si>
+  <si>
+    <t>n5112</t>
+  </si>
+  <si>
+    <t>n5113</t>
+  </si>
+  <si>
+    <t>n5114</t>
+  </si>
+  <si>
+    <t>n5115</t>
+  </si>
+  <si>
+    <t>n5116</t>
+  </si>
+  <si>
+    <t>n5117</t>
+  </si>
+  <si>
+    <t>n5118</t>
+  </si>
+  <si>
+    <t>n5119</t>
+  </si>
+  <si>
+    <t>n5120</t>
+  </si>
+  <si>
+    <t>n5121</t>
+  </si>
+  <si>
+    <t>n5122</t>
+  </si>
+  <si>
+    <t>n5123</t>
+  </si>
+  <si>
+    <t>n5124</t>
+  </si>
+  <si>
+    <t>n5125</t>
+  </si>
+  <si>
+    <t>n5126</t>
+  </si>
+  <si>
+    <t>n5127</t>
+  </si>
+  <si>
+    <t>n5128</t>
+  </si>
+  <si>
+    <t>n5129</t>
+  </si>
+  <si>
+    <t>n5130</t>
+  </si>
+  <si>
+    <t>n5131</t>
+  </si>
+  <si>
+    <t>n5132</t>
+  </si>
+  <si>
+    <t>n5133</t>
+  </si>
+  <si>
+    <t>n5134</t>
+  </si>
+  <si>
+    <t>n5135</t>
+  </si>
+  <si>
+    <t>n5136</t>
+  </si>
+  <si>
+    <t>n5137</t>
+  </si>
+  <si>
+    <t>n5138</t>
+  </si>
+  <si>
+    <t>n5139</t>
+  </si>
+  <si>
+    <t>n5140</t>
+  </si>
+  <si>
+    <t>n5141</t>
+  </si>
+  <si>
+    <t>n5142</t>
+  </si>
+  <si>
+    <t>n5143</t>
+  </si>
+  <si>
+    <t>n5144</t>
+  </si>
+  <si>
+    <t>n5145</t>
+  </si>
+  <si>
+    <t>n5146</t>
+  </si>
+  <si>
+    <t>n5147</t>
+  </si>
+  <si>
+    <t>n5148</t>
+  </si>
+  <si>
+    <t>n5149</t>
+  </si>
+  <si>
+    <t>n5150</t>
+  </si>
+  <si>
+    <t>n5151</t>
+  </si>
+  <si>
+    <t>n5152</t>
+  </si>
+  <si>
+    <t>n5153</t>
+  </si>
+  <si>
+    <t>n5154</t>
+  </si>
+  <si>
+    <t>n5155</t>
+  </si>
+  <si>
+    <t>n5156</t>
+  </si>
+  <si>
+    <t>n5157</t>
+  </si>
+  <si>
+    <t>n5158</t>
+  </si>
+  <si>
+    <t>n5159</t>
+  </si>
+  <si>
+    <t>n5160</t>
+  </si>
+  <si>
+    <t>n5161</t>
+  </si>
+  <si>
+    <t>n5162</t>
+  </si>
+  <si>
+    <t>n5163</t>
+  </si>
+  <si>
+    <t>n5164</t>
+  </si>
+  <si>
+    <t>n5165</t>
+  </si>
+  <si>
+    <t>n5166</t>
+  </si>
+  <si>
+    <t>n5167</t>
+  </si>
+  <si>
+    <t>n5168</t>
+  </si>
+  <si>
+    <t>n5169</t>
+  </si>
+  <si>
+    <t>n5170</t>
+  </si>
+  <si>
+    <t>n5171</t>
+  </si>
+  <si>
+    <t>n5172</t>
+  </si>
+  <si>
+    <t>n5173</t>
+  </si>
+  <si>
+    <t>n5174</t>
+  </si>
+  <si>
+    <t>n5175</t>
+  </si>
+  <si>
+    <t>n5176</t>
+  </si>
+  <si>
+    <t>n5177</t>
+  </si>
+  <si>
+    <t>n5178</t>
+  </si>
+  <si>
+    <t>n5179</t>
+  </si>
+  <si>
+    <t>n5180</t>
+  </si>
+  <si>
+    <t>n5181</t>
+  </si>
+  <si>
+    <t>n5182</t>
+  </si>
+  <si>
+    <t>n5183</t>
+  </si>
+  <si>
+    <t>n5184</t>
+  </si>
+  <si>
+    <t>n5185</t>
+  </si>
+  <si>
+    <t>n5186</t>
+  </si>
+  <si>
+    <t>n5187</t>
+  </si>
+  <si>
+    <t>n5188</t>
+  </si>
+  <si>
+    <t>n5189</t>
+  </si>
+  <si>
+    <t>n5190</t>
+  </si>
+  <si>
+    <t>n5191</t>
+  </si>
+  <si>
+    <t>n5192</t>
+  </si>
+  <si>
+    <t>n5193</t>
+  </si>
+  <si>
+    <t>n5194</t>
+  </si>
+  <si>
+    <t>n5195</t>
+  </si>
+  <si>
+    <t>n5196</t>
+  </si>
+  <si>
+    <t>n5197</t>
+  </si>
+  <si>
+    <t>n5198</t>
+  </si>
+  <si>
+    <t>n5199</t>
+  </si>
+  <si>
+    <t>n5200</t>
+  </si>
+  <si>
+    <t>n5201</t>
+  </si>
+  <si>
+    <t>n5202</t>
+  </si>
+  <si>
+    <t>n5203</t>
+  </si>
+  <si>
+    <t>n5204</t>
+  </si>
+  <si>
+    <t>n5205</t>
+  </si>
+  <si>
+    <t>n5206</t>
   </si>
 </sst>
 </file>
@@ -4838,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D172C0-E49C-4A4B-B529-386C6E53D8C9}">
   <dimension ref="A1:J648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="131" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
@@ -20489,7 +20489,7 @@
         <v>644</v>
       </c>
       <c r="B582" t="s">
-        <v>1459</v>
+        <v>1128</v>
       </c>
       <c r="C582" s="4">
         <v>387</v>
@@ -22034,8 +22034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52B376-B4BF-CF4C-B4B6-CFDB45A364D3}">
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22049,7 +22049,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1035</v>
+        <v>1254</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -22072,10 +22072,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1036</v>
+        <v>1255</v>
       </c>
       <c r="B2" t="s">
-        <v>1241</v>
+        <v>910</v>
       </c>
       <c r="C2" s="5">
         <v>158.91304347826085</v>
@@ -22095,10 +22095,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1037</v>
+        <v>1256</v>
       </c>
       <c r="B3" t="s">
-        <v>1242</v>
+        <v>911</v>
       </c>
       <c r="C3" s="5">
         <v>303.64705882352945</v>
@@ -22118,10 +22118,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1038</v>
+        <v>1257</v>
       </c>
       <c r="B4" t="s">
-        <v>1243</v>
+        <v>912</v>
       </c>
       <c r="C4" s="5">
         <v>238.00000000000003</v>
@@ -22141,10 +22141,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1039</v>
+        <v>1258</v>
       </c>
       <c r="B5" t="s">
-        <v>1244</v>
+        <v>913</v>
       </c>
       <c r="C5" s="5">
         <v>143.08868501529051</v>
@@ -22164,10 +22164,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1040</v>
+        <v>1259</v>
       </c>
       <c r="B6" t="s">
-        <v>1245</v>
+        <v>914</v>
       </c>
       <c r="C6" s="5">
         <v>139.16666666666666</v>
@@ -22187,10 +22187,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1041</v>
+        <v>1260</v>
       </c>
       <c r="B7" t="s">
-        <v>1246</v>
+        <v>915</v>
       </c>
       <c r="C7" s="5">
         <v>353.15789473684208</v>
@@ -22210,10 +22210,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1042</v>
+        <v>1261</v>
       </c>
       <c r="B8" t="s">
-        <v>1247</v>
+        <v>916</v>
       </c>
       <c r="C8" s="5">
         <v>218.9940828402367</v>
@@ -22233,10 +22233,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1043</v>
+        <v>1262</v>
       </c>
       <c r="B9" t="s">
-        <v>1248</v>
+        <v>917</v>
       </c>
       <c r="C9" s="5">
         <v>182.81150159744411</v>
@@ -22256,10 +22256,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1044</v>
+        <v>1263</v>
       </c>
       <c r="B10" t="s">
-        <v>1249</v>
+        <v>918</v>
       </c>
       <c r="C10" s="5">
         <v>374.69135802469134</v>
@@ -22279,10 +22279,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1045</v>
+        <v>1264</v>
       </c>
       <c r="B11" t="s">
-        <v>1250</v>
+        <v>919</v>
       </c>
       <c r="C11" s="5">
         <v>198.31858407079645</v>
@@ -22302,10 +22302,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1046</v>
+        <v>1265</v>
       </c>
       <c r="B12" t="s">
-        <v>1251</v>
+        <v>920</v>
       </c>
       <c r="C12" s="5">
         <v>358.76404494382024</v>
@@ -22325,10 +22325,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1047</v>
+        <v>1266</v>
       </c>
       <c r="B13" t="s">
-        <v>1252</v>
+        <v>921</v>
       </c>
       <c r="C13" s="5">
         <v>293.18181818181819</v>
@@ -22348,10 +22348,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1048</v>
+        <v>1267</v>
       </c>
       <c r="B14" t="s">
-        <v>1253</v>
+        <v>922</v>
       </c>
       <c r="C14" s="5">
         <v>380.68181818181819</v>
@@ -22371,10 +22371,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1049</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="s">
-        <v>1254</v>
+        <v>923</v>
       </c>
       <c r="C15" s="5">
         <v>411.53061224489795</v>
@@ -22394,10 +22394,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1050</v>
+        <v>1269</v>
       </c>
       <c r="B16" t="s">
-        <v>1255</v>
+        <v>924</v>
       </c>
       <c r="C16" s="5">
         <v>261.48936170212767</v>
@@ -22417,10 +22417,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1051</v>
+        <v>1270</v>
       </c>
       <c r="B17" t="s">
-        <v>1256</v>
+        <v>925</v>
       </c>
       <c r="C17" s="5">
         <v>218.1512605042017</v>
@@ -22440,10 +22440,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1052</v>
+        <v>1271</v>
       </c>
       <c r="B18" t="s">
-        <v>1257</v>
+        <v>926</v>
       </c>
       <c r="C18" s="5">
         <v>355</v>
@@ -22463,10 +22463,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1053</v>
+        <v>1272</v>
       </c>
       <c r="B19" t="s">
-        <v>1258</v>
+        <v>927</v>
       </c>
       <c r="C19" s="5">
         <v>194.07407407407408</v>
@@ -22486,10 +22486,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1054</v>
+        <v>1273</v>
       </c>
       <c r="B20" t="s">
-        <v>1259</v>
+        <v>928</v>
       </c>
       <c r="C20" s="5">
         <v>330</v>
@@ -22509,10 +22509,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1055</v>
+        <v>1274</v>
       </c>
       <c r="B21" t="s">
-        <v>1260</v>
+        <v>929</v>
       </c>
       <c r="C21" s="5">
         <v>226.53333333333333</v>
@@ -22532,10 +22532,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1056</v>
+        <v>1275</v>
       </c>
       <c r="B22" t="s">
-        <v>1261</v>
+        <v>930</v>
       </c>
       <c r="C22" s="5">
         <v>269.91228070175441</v>
@@ -22555,10 +22555,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1057</v>
+        <v>1276</v>
       </c>
       <c r="B23" t="s">
-        <v>1262</v>
+        <v>931</v>
       </c>
       <c r="C23" s="5">
         <v>341.11111111111109</v>
@@ -22578,10 +22578,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1058</v>
+        <v>1277</v>
       </c>
       <c r="B24" t="s">
-        <v>1263</v>
+        <v>932</v>
       </c>
       <c r="C24" s="5">
         <v>307.86982248520707</v>
@@ -22601,10 +22601,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1059</v>
+        <v>1278</v>
       </c>
       <c r="B25" t="s">
-        <v>1264</v>
+        <v>933</v>
       </c>
       <c r="C25" s="5">
         <v>244</v>
@@ -22624,10 +22624,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1060</v>
+        <v>1279</v>
       </c>
       <c r="B26" t="s">
-        <v>1265</v>
+        <v>934</v>
       </c>
       <c r="C26" s="5">
         <v>315.23809523809524</v>
@@ -22647,10 +22647,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1061</v>
+        <v>1280</v>
       </c>
       <c r="B27" t="s">
-        <v>1266</v>
+        <v>935</v>
       </c>
       <c r="C27" s="5">
         <v>321.16279069767444</v>
@@ -22670,10 +22670,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1062</v>
+        <v>1281</v>
       </c>
       <c r="B28" t="s">
-        <v>1267</v>
+        <v>936</v>
       </c>
       <c r="C28" s="5">
         <v>446.45833333333331</v>
@@ -22693,10 +22693,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1063</v>
+        <v>1282</v>
       </c>
       <c r="B29" t="s">
-        <v>1268</v>
+        <v>937</v>
       </c>
       <c r="C29" s="5">
         <v>301.59292035398232</v>
@@ -22716,10 +22716,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1064</v>
+        <v>1283</v>
       </c>
       <c r="B30" t="s">
-        <v>1269</v>
+        <v>938</v>
       </c>
       <c r="C30" s="5">
         <v>381.85185185185185</v>
@@ -22739,10 +22739,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1065</v>
+        <v>1284</v>
       </c>
       <c r="B31" t="s">
-        <v>1270</v>
+        <v>939</v>
       </c>
       <c r="C31" s="5">
         <v>373.52941176470586</v>
@@ -22762,10 +22762,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1066</v>
+        <v>1285</v>
       </c>
       <c r="B32" t="s">
-        <v>1271</v>
+        <v>940</v>
       </c>
       <c r="C32" s="5">
         <v>310.875</v>
@@ -22785,10 +22785,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1067</v>
+        <v>1286</v>
       </c>
       <c r="B33" t="s">
-        <v>1272</v>
+        <v>941</v>
       </c>
       <c r="C33" s="5">
         <v>420</v>
@@ -22808,10 +22808,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1068</v>
+        <v>1287</v>
       </c>
       <c r="B34" t="s">
-        <v>1273</v>
+        <v>942</v>
       </c>
       <c r="C34" s="5">
         <v>407.3170731707317</v>
@@ -22831,10 +22831,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1069</v>
+        <v>1288</v>
       </c>
       <c r="B35" t="s">
-        <v>1274</v>
+        <v>943</v>
       </c>
       <c r="C35" s="5">
         <v>332.94117647058823</v>
@@ -22854,10 +22854,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1070</v>
+        <v>1289</v>
       </c>
       <c r="B36" t="s">
-        <v>1275</v>
+        <v>944</v>
       </c>
       <c r="C36" s="5">
         <v>290.73170731707319</v>
@@ -22877,10 +22877,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1071</v>
+        <v>1290</v>
       </c>
       <c r="B37" t="s">
-        <v>1276</v>
+        <v>945</v>
       </c>
       <c r="C37" s="5">
         <v>176.62835249042146</v>
@@ -22900,10 +22900,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1072</v>
+        <v>1291</v>
       </c>
       <c r="B38" t="s">
-        <v>1277</v>
+        <v>946</v>
       </c>
       <c r="C38" s="5">
         <v>199.77987421383645</v>
@@ -22923,10 +22923,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1073</v>
+        <v>1292</v>
       </c>
       <c r="B39" t="s">
-        <v>1278</v>
+        <v>947</v>
       </c>
       <c r="C39" s="5">
         <v>151.73020527859236</v>
@@ -22946,10 +22946,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1074</v>
+        <v>1293</v>
       </c>
       <c r="B40" t="s">
-        <v>1279</v>
+        <v>948</v>
       </c>
       <c r="C40" s="5">
         <v>196</v>
@@ -22969,10 +22969,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1075</v>
+        <v>1294</v>
       </c>
       <c r="B41" t="s">
-        <v>1280</v>
+        <v>949</v>
       </c>
       <c r="C41" s="5">
         <v>140.56603773584905</v>
@@ -22992,10 +22992,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1076</v>
+        <v>1295</v>
       </c>
       <c r="B42" t="s">
-        <v>1281</v>
+        <v>950</v>
       </c>
       <c r="C42" s="5">
         <v>148.81355932203391</v>
@@ -23015,10 +23015,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1077</v>
+        <v>1296</v>
       </c>
       <c r="B43" t="s">
-        <v>1282</v>
+        <v>951</v>
       </c>
       <c r="C43" s="5">
         <v>120.31578947368421</v>
@@ -23038,10 +23038,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1078</v>
+        <v>1297</v>
       </c>
       <c r="B44" t="s">
-        <v>1283</v>
+        <v>952</v>
       </c>
       <c r="C44" s="5">
         <v>61.160714285714285</v>
@@ -23061,10 +23061,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1079</v>
+        <v>1298</v>
       </c>
       <c r="B45" t="s">
-        <v>1284</v>
+        <v>953</v>
       </c>
       <c r="C45" s="5">
         <v>136.82215743440233</v>
@@ -23084,10 +23084,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1080</v>
+        <v>1299</v>
       </c>
       <c r="B46" t="s">
-        <v>1285</v>
+        <v>954</v>
       </c>
       <c r="C46" s="5">
         <v>127.55813953488372</v>
@@ -23107,10 +23107,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1081</v>
+        <v>1300</v>
       </c>
       <c r="B47" t="s">
-        <v>1286</v>
+        <v>955</v>
       </c>
       <c r="C47" s="5">
         <v>115.17509727626459</v>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1082</v>
+        <v>1301</v>
       </c>
       <c r="B48" t="s">
-        <v>1287</v>
+        <v>956</v>
       </c>
       <c r="C48" s="5">
         <v>115.42682926829268</v>
@@ -23153,10 +23153,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1083</v>
+        <v>1302</v>
       </c>
       <c r="B49" t="s">
-        <v>1288</v>
+        <v>957</v>
       </c>
       <c r="C49" s="5">
         <v>96.006006006006004</v>
@@ -23176,10 +23176,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1084</v>
+        <v>1303</v>
       </c>
       <c r="B50" t="s">
-        <v>1289</v>
+        <v>958</v>
       </c>
       <c r="C50" s="5">
         <v>111.95928753180661</v>
@@ -23199,10 +23199,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1085</v>
+        <v>1304</v>
       </c>
       <c r="B51" t="s">
-        <v>1290</v>
+        <v>959</v>
       </c>
       <c r="C51" s="5">
         <v>115.90909090909091</v>
@@ -23222,10 +23222,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1086</v>
+        <v>1305</v>
       </c>
       <c r="B52" t="s">
-        <v>1291</v>
+        <v>960</v>
       </c>
       <c r="C52" s="5">
         <v>386.27906976744185</v>
@@ -23245,10 +23245,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1087</v>
+        <v>1306</v>
       </c>
       <c r="B53" t="s">
-        <v>1292</v>
+        <v>961</v>
       </c>
       <c r="C53" s="5">
         <v>115.59139784946237</v>
@@ -23268,10 +23268,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1088</v>
+        <v>1307</v>
       </c>
       <c r="B54" t="s">
-        <v>1293</v>
+        <v>962</v>
       </c>
       <c r="C54" s="5">
         <v>113.03448275862068</v>
@@ -23291,10 +23291,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1089</v>
+        <v>1308</v>
       </c>
       <c r="B55" t="s">
-        <v>1294</v>
+        <v>963</v>
       </c>
       <c r="C55" s="5">
         <v>110.99999999999999</v>
@@ -23314,10 +23314,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1090</v>
+        <v>1309</v>
       </c>
       <c r="B56" t="s">
-        <v>1295</v>
+        <v>964</v>
       </c>
       <c r="C56" s="5">
         <v>208.0952380952381</v>
@@ -23337,10 +23337,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1091</v>
+        <v>1310</v>
       </c>
       <c r="B57" t="s">
-        <v>1296</v>
+        <v>965</v>
       </c>
       <c r="C57" s="5">
         <v>147.11442786069651</v>
@@ -23360,10 +23360,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1092</v>
+        <v>1311</v>
       </c>
       <c r="B58" t="s">
-        <v>1297</v>
+        <v>966</v>
       </c>
       <c r="C58" s="5">
         <v>109.16666666666667</v>
@@ -23383,10 +23383,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1093</v>
+        <v>1312</v>
       </c>
       <c r="B59" t="s">
-        <v>1298</v>
+        <v>967</v>
       </c>
       <c r="C59" s="5">
         <v>124.16666666666667</v>
@@ -23406,10 +23406,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1094</v>
+        <v>1313</v>
       </c>
       <c r="B60" t="s">
-        <v>1300</v>
+        <v>969</v>
       </c>
       <c r="C60" s="5">
         <v>137.65151515151516</v>
@@ -23429,10 +23429,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1095</v>
+        <v>1314</v>
       </c>
       <c r="B61" t="s">
-        <v>1301</v>
+        <v>970</v>
       </c>
       <c r="C61" s="5">
         <v>175.65789473684211</v>
@@ -23452,10 +23452,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1096</v>
+        <v>1315</v>
       </c>
       <c r="B62" t="s">
-        <v>1302</v>
+        <v>971</v>
       </c>
       <c r="C62" s="5">
         <v>55.653846153846146</v>
@@ -23475,10 +23475,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1097</v>
+        <v>1316</v>
       </c>
       <c r="B63" t="s">
-        <v>1303</v>
+        <v>972</v>
       </c>
       <c r="C63" s="5">
         <v>70.592592592592595</v>
@@ -23498,10 +23498,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1098</v>
+        <v>1317</v>
       </c>
       <c r="B64" t="s">
-        <v>1304</v>
+        <v>973</v>
       </c>
       <c r="C64" s="5">
         <v>37.833333333333336</v>
@@ -23521,10 +23521,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1099</v>
+        <v>1318</v>
       </c>
       <c r="B65" t="s">
-        <v>1305</v>
+        <v>974</v>
       </c>
       <c r="C65" s="5">
         <v>45.108695652173914</v>
@@ -23544,10 +23544,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1100</v>
+        <v>1319</v>
       </c>
       <c r="B66" t="s">
-        <v>1306</v>
+        <v>975</v>
       </c>
       <c r="C66" s="5">
         <v>16</v>
@@ -23567,10 +23567,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1101</v>
+        <v>1320</v>
       </c>
       <c r="B67" t="s">
-        <v>1307</v>
+        <v>976</v>
       </c>
       <c r="C67" s="5">
         <v>78.409090909090907</v>
@@ -23590,10 +23590,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1102</v>
+        <v>1321</v>
       </c>
       <c r="B68" t="s">
-        <v>1308</v>
+        <v>977</v>
       </c>
       <c r="C68" s="5">
         <v>67.31343283582089</v>
@@ -23613,10 +23613,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1103</v>
+        <v>1322</v>
       </c>
       <c r="B69" t="s">
-        <v>1309</v>
+        <v>978</v>
       </c>
       <c r="C69" s="5">
         <v>102.73972602739725</v>
@@ -23636,10 +23636,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1104</v>
+        <v>1323</v>
       </c>
       <c r="B70" t="s">
-        <v>1310</v>
+        <v>979</v>
       </c>
       <c r="C70" s="5">
         <v>54.639175257731956</v>
@@ -23659,10 +23659,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1105</v>
+        <v>1324</v>
       </c>
       <c r="B71" t="s">
-        <v>1311</v>
+        <v>980</v>
       </c>
       <c r="C71" s="5">
         <v>25.555555555555557</v>
@@ -23682,10 +23682,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1106</v>
+        <v>1325</v>
       </c>
       <c r="B72" t="s">
-        <v>1312</v>
+        <v>981</v>
       </c>
       <c r="C72" s="5">
         <v>58.669950738916256</v>
@@ -23705,10 +23705,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1107</v>
+        <v>1326</v>
       </c>
       <c r="B73" t="s">
-        <v>1313</v>
+        <v>982</v>
       </c>
       <c r="C73" s="5">
         <v>75.25</v>
@@ -23728,10 +23728,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1108</v>
+        <v>1327</v>
       </c>
       <c r="B74" t="s">
-        <v>1314</v>
+        <v>983</v>
       </c>
       <c r="C74" s="5">
         <v>261.61111111111109</v>
@@ -23751,10 +23751,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1109</v>
+        <v>1328</v>
       </c>
       <c r="B75" t="s">
-        <v>1315</v>
+        <v>984</v>
       </c>
       <c r="C75" s="5">
         <v>34.92307692307692</v>
@@ -23774,10 +23774,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1110</v>
+        <v>1329</v>
       </c>
       <c r="B76" t="s">
-        <v>1316</v>
+        <v>985</v>
       </c>
       <c r="C76" s="5">
         <v>97.12121212121211</v>
@@ -23797,10 +23797,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1111</v>
+        <v>1330</v>
       </c>
       <c r="B77" t="s">
-        <v>1317</v>
+        <v>986</v>
       </c>
       <c r="C77" s="5">
         <v>101.4</v>
@@ -23820,10 +23820,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1112</v>
+        <v>1331</v>
       </c>
       <c r="B78" t="s">
-        <v>1318</v>
+        <v>987</v>
       </c>
       <c r="C78" s="5">
         <v>94.764705882352942</v>
@@ -23843,10 +23843,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1113</v>
+        <v>1332</v>
       </c>
       <c r="B79" t="s">
-        <v>1319</v>
+        <v>988</v>
       </c>
       <c r="C79" s="5">
         <v>36</v>
@@ -23866,10 +23866,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1114</v>
+        <v>1333</v>
       </c>
       <c r="B80" t="s">
-        <v>1320</v>
+        <v>989</v>
       </c>
       <c r="C80" s="5">
         <v>46.444444444444443</v>
@@ -23889,10 +23889,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1115</v>
+        <v>1334</v>
       </c>
       <c r="B81" t="s">
-        <v>1321</v>
+        <v>990</v>
       </c>
       <c r="C81" s="5">
         <v>45.813953488372093</v>
@@ -23912,10 +23912,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1116</v>
+        <v>1335</v>
       </c>
       <c r="B82" t="s">
-        <v>1322</v>
+        <v>991</v>
       </c>
       <c r="C82" s="5">
         <v>109.72972972972973</v>
@@ -23935,10 +23935,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1117</v>
+        <v>1336</v>
       </c>
       <c r="B83" t="s">
-        <v>1323</v>
+        <v>992</v>
       </c>
       <c r="C83" s="5">
         <v>61.058823529411768</v>
@@ -23958,10 +23958,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1118</v>
+        <v>1337</v>
       </c>
       <c r="B84" t="s">
-        <v>1324</v>
+        <v>993</v>
       </c>
       <c r="C84" s="5">
         <v>272.54901960784315</v>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1119</v>
+        <v>1338</v>
       </c>
       <c r="B85" t="s">
-        <v>1325</v>
+        <v>994</v>
       </c>
       <c r="C85" s="5">
         <v>113.72469635627529</v>
@@ -24004,10 +24004,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1120</v>
+        <v>1339</v>
       </c>
       <c r="B86" t="s">
-        <v>1327</v>
+        <v>996</v>
       </c>
       <c r="C86" s="5">
         <v>104.04858299595142</v>
@@ -24027,10 +24027,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1121</v>
+        <v>1340</v>
       </c>
       <c r="B87" t="s">
-        <v>1326</v>
+        <v>995</v>
       </c>
       <c r="C87" s="5">
         <v>103.23529411764706</v>
@@ -24050,10 +24050,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1122</v>
+        <v>1341</v>
       </c>
       <c r="B88" t="s">
-        <v>1328</v>
+        <v>997</v>
       </c>
       <c r="C88" s="5">
         <v>103.64372469635627</v>
@@ -24073,10 +24073,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1123</v>
+        <v>1342</v>
       </c>
       <c r="B89" t="s">
-        <v>1329</v>
+        <v>998</v>
       </c>
       <c r="C89" s="5">
         <v>107.36842105263158</v>
@@ -24096,10 +24096,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1124</v>
+        <v>1343</v>
       </c>
       <c r="B90" t="s">
-        <v>1330</v>
+        <v>999</v>
       </c>
       <c r="C90" s="5">
         <v>206.79611650485438</v>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="B91" t="s">
-        <v>1331</v>
+        <v>1000</v>
       </c>
       <c r="C91" s="5">
         <v>106.07287449392713</v>
@@ -24142,10 +24142,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1126</v>
+        <v>1345</v>
       </c>
       <c r="B92" t="s">
-        <v>1332</v>
+        <v>1001</v>
       </c>
       <c r="C92" s="5">
         <v>111.417004048583</v>
@@ -24165,10 +24165,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1127</v>
+        <v>1346</v>
       </c>
       <c r="B93" t="s">
-        <v>1333</v>
+        <v>1002</v>
       </c>
       <c r="C93" s="5">
         <v>105.74898785425101</v>
@@ -24188,10 +24188,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1128</v>
+        <v>1347</v>
       </c>
       <c r="B94" t="s">
-        <v>1394</v>
+        <v>1063</v>
       </c>
       <c r="C94" s="5">
         <v>108.25910931174087</v>
@@ -24211,10 +24211,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1129</v>
+        <v>1348</v>
       </c>
       <c r="B95" t="s">
-        <v>1334</v>
+        <v>1003</v>
       </c>
       <c r="C95" s="5">
         <v>105.66801619433198</v>
@@ -24234,10 +24234,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1130</v>
+        <v>1349</v>
       </c>
       <c r="B96" t="s">
-        <v>1335</v>
+        <v>1004</v>
       </c>
       <c r="C96" s="5">
         <v>130.79096045197741</v>
@@ -24257,10 +24257,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1131</v>
+        <v>1350</v>
       </c>
       <c r="B97" t="s">
-        <v>1336</v>
+        <v>1005</v>
       </c>
       <c r="C97" s="5">
         <v>172.44094488188978</v>
@@ -24280,10 +24280,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1132</v>
+        <v>1351</v>
       </c>
       <c r="B98" t="s">
-        <v>1337</v>
+        <v>1006</v>
       </c>
       <c r="C98" s="5">
         <v>158.93333333333334</v>
@@ -24303,10 +24303,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1133</v>
+        <v>1352</v>
       </c>
       <c r="B99" t="s">
-        <v>1338</v>
+        <v>1007</v>
       </c>
       <c r="C99" s="5">
         <v>190.71566731141201</v>
@@ -24326,10 +24326,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1134</v>
+        <v>1353</v>
       </c>
       <c r="B100" t="s">
-        <v>1339</v>
+        <v>1008</v>
       </c>
       <c r="C100" s="5">
         <v>160.36111111111109</v>
@@ -24349,10 +24349,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1135</v>
+        <v>1354</v>
       </c>
       <c r="B101" t="s">
-        <v>1340</v>
+        <v>1009</v>
       </c>
       <c r="C101" s="5">
         <v>161.14058355437666</v>
@@ -24372,10 +24372,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1136</v>
+        <v>1355</v>
       </c>
       <c r="B102" t="s">
-        <v>1341</v>
+        <v>1010</v>
       </c>
       <c r="C102" s="5">
         <v>151.44766146993319</v>
@@ -24395,10 +24395,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1137</v>
+        <v>1356</v>
       </c>
       <c r="B103" t="s">
-        <v>1342</v>
+        <v>1011</v>
       </c>
       <c r="C103" s="5">
         <v>307.83505154639181</v>
@@ -24418,10 +24418,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1138</v>
+        <v>1357</v>
       </c>
       <c r="B104" t="s">
-        <v>1343</v>
+        <v>1012</v>
       </c>
       <c r="C104" s="5">
         <v>151.04</v>
@@ -24441,10 +24441,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1139</v>
+        <v>1358</v>
       </c>
       <c r="B105" t="s">
-        <v>1344</v>
+        <v>1013</v>
       </c>
       <c r="C105" s="5">
         <v>103</v>
@@ -24464,10 +24464,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1140</v>
+        <v>1359</v>
       </c>
       <c r="B106" t="s">
-        <v>1345</v>
+        <v>1014</v>
       </c>
       <c r="C106" s="5">
         <v>73</v>
@@ -24487,10 +24487,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1141</v>
+        <v>1360</v>
       </c>
       <c r="B107" t="s">
-        <v>1346</v>
+        <v>1015</v>
       </c>
       <c r="C107" s="5">
         <v>99.629629629629633</v>
@@ -24510,10 +24510,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1142</v>
+        <v>1361</v>
       </c>
       <c r="B108" t="s">
-        <v>1347</v>
+        <v>1016</v>
       </c>
       <c r="C108" s="5">
         <v>94.901960784313729</v>
@@ -24533,10 +24533,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1143</v>
+        <v>1362</v>
       </c>
       <c r="B109" t="s">
-        <v>1348</v>
+        <v>1017</v>
       </c>
       <c r="C109" s="5">
         <v>92.881355932203391</v>
@@ -24556,10 +24556,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1144</v>
+        <v>1363</v>
       </c>
       <c r="B110" t="s">
-        <v>1349</v>
+        <v>1018</v>
       </c>
       <c r="C110" s="5">
         <v>110</v>
@@ -24579,10 +24579,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1145</v>
+        <v>1364</v>
       </c>
       <c r="B111" t="s">
-        <v>1350</v>
+        <v>1019</v>
       </c>
       <c r="C111" s="5">
         <v>128</v>
@@ -24602,10 +24602,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1146</v>
+        <v>1365</v>
       </c>
       <c r="B112" t="s">
-        <v>1352</v>
+        <v>1021</v>
       </c>
       <c r="C112" s="5">
         <v>210.65573770491804</v>
@@ -24625,10 +24625,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1147</v>
+        <v>1366</v>
       </c>
       <c r="B113" t="s">
-        <v>1353</v>
+        <v>1022</v>
       </c>
       <c r="C113" s="5">
         <v>252.80373831775702</v>
@@ -24648,10 +24648,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1148</v>
+        <v>1367</v>
       </c>
       <c r="B114" t="s">
-        <v>1354</v>
+        <v>1023</v>
       </c>
       <c r="C114" s="5">
         <v>295.2238805970149</v>
@@ -24671,10 +24671,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1149</v>
+        <v>1368</v>
       </c>
       <c r="B115" t="s">
-        <v>1355</v>
+        <v>1024</v>
       </c>
       <c r="C115" s="5">
         <v>224.33734939759037</v>
@@ -24694,10 +24694,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1150</v>
+        <v>1369</v>
       </c>
       <c r="B116" t="s">
-        <v>1356</v>
+        <v>1025</v>
       </c>
       <c r="C116" s="5">
         <v>70.722891566265062</v>
@@ -24717,10 +24717,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1151</v>
+        <v>1370</v>
       </c>
       <c r="B117" t="s">
-        <v>1357</v>
+        <v>1026</v>
       </c>
       <c r="C117" s="5">
         <v>115</v>
@@ -24740,10 +24740,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1152</v>
+        <v>1371</v>
       </c>
       <c r="B118" t="s">
-        <v>1358</v>
+        <v>1027</v>
       </c>
       <c r="C118" s="5">
         <v>145</v>
@@ -24763,10 +24763,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1153</v>
+        <v>1372</v>
       </c>
       <c r="B119" t="s">
-        <v>1359</v>
+        <v>1028</v>
       </c>
       <c r="C119" s="5">
         <v>319.74358974358972</v>
@@ -24786,10 +24786,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1154</v>
+        <v>1373</v>
       </c>
       <c r="B120" t="s">
-        <v>1360</v>
+        <v>1029</v>
       </c>
       <c r="C120" s="5">
         <v>163.32116788321167</v>
@@ -24809,10 +24809,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1155</v>
+        <v>1374</v>
       </c>
       <c r="B121" t="s">
-        <v>1361</v>
+        <v>1030</v>
       </c>
       <c r="C121" s="5">
         <v>123.05263157894737</v>
@@ -24832,10 +24832,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1156</v>
+        <v>1375</v>
       </c>
       <c r="B122" t="s">
-        <v>1362</v>
+        <v>1031</v>
       </c>
       <c r="C122" s="5">
         <v>130.85626911314984</v>
@@ -24855,10 +24855,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1157</v>
+        <v>1376</v>
       </c>
       <c r="B123" t="s">
-        <v>1363</v>
+        <v>1032</v>
       </c>
       <c r="C123" s="5">
         <v>135.52529182879377</v>
@@ -24878,10 +24878,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1158</v>
+        <v>1377</v>
       </c>
       <c r="B124" t="s">
-        <v>1364</v>
+        <v>1033</v>
       </c>
       <c r="C124" s="5">
         <v>121.53203342618384</v>
@@ -24901,10 +24901,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1159</v>
+        <v>1378</v>
       </c>
       <c r="B125" t="s">
-        <v>1365</v>
+        <v>1034</v>
       </c>
       <c r="C125" s="5">
         <v>75.18518518518519</v>
@@ -24924,10 +24924,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1160</v>
+        <v>1379</v>
       </c>
       <c r="B126" t="s">
-        <v>1366</v>
+        <v>1035</v>
       </c>
       <c r="C126" s="5">
         <v>162.28571428571428</v>
@@ -24947,10 +24947,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1161</v>
+        <v>1380</v>
       </c>
       <c r="B127" t="s">
-        <v>1367</v>
+        <v>1036</v>
       </c>
       <c r="C127" s="5">
         <v>185.55555555555554</v>
@@ -24970,10 +24970,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1162</v>
+        <v>1381</v>
       </c>
       <c r="B128" t="s">
-        <v>1368</v>
+        <v>1037</v>
       </c>
       <c r="C128" s="5">
         <v>109.06666666666666</v>
@@ -24993,10 +24993,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1163</v>
+        <v>1382</v>
       </c>
       <c r="B129" t="s">
-        <v>1369</v>
+        <v>1038</v>
       </c>
       <c r="C129" s="5">
         <v>369.91379310344826</v>
@@ -25016,10 +25016,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1164</v>
+        <v>1383</v>
       </c>
       <c r="B130" t="s">
-        <v>1370</v>
+        <v>1039</v>
       </c>
       <c r="C130" s="5">
         <v>154.09266409266408</v>
@@ -25039,10 +25039,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1165</v>
+        <v>1384</v>
       </c>
       <c r="B131" t="s">
-        <v>1371</v>
+        <v>1040</v>
       </c>
       <c r="C131" s="5">
         <v>157.80000000000001</v>
@@ -25062,10 +25062,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1166</v>
+        <v>1385</v>
       </c>
       <c r="B132" t="s">
-        <v>1372</v>
+        <v>1041</v>
       </c>
       <c r="C132" s="5">
         <v>120.3</v>
@@ -25085,10 +25085,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1167</v>
+        <v>1386</v>
       </c>
       <c r="B133" t="s">
-        <v>1373</v>
+        <v>1042</v>
       </c>
       <c r="C133" s="5">
         <v>204.90250696378831</v>
@@ -25108,10 +25108,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1168</v>
+        <v>1387</v>
       </c>
       <c r="B134" t="s">
-        <v>1374</v>
+        <v>1043</v>
       </c>
       <c r="C134" s="5">
         <v>157.10526315789474</v>
@@ -25131,10 +25131,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1169</v>
+        <v>1388</v>
       </c>
       <c r="B135" t="s">
-        <v>1375</v>
+        <v>1044</v>
       </c>
       <c r="C135" s="5">
         <v>86.4</v>
@@ -25154,10 +25154,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1170</v>
+        <v>1389</v>
       </c>
       <c r="B136" t="s">
-        <v>1376</v>
+        <v>1045</v>
       </c>
       <c r="C136" s="5">
         <v>61.743119266055047</v>
@@ -25177,10 +25177,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1171</v>
+        <v>1390</v>
       </c>
       <c r="B137" t="s">
-        <v>1377</v>
+        <v>1046</v>
       </c>
       <c r="C137" s="5">
         <v>572.22222222222217</v>
@@ -25200,10 +25200,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1172</v>
+        <v>1391</v>
       </c>
       <c r="B138" t="s">
-        <v>1378</v>
+        <v>1047</v>
       </c>
       <c r="C138" s="5">
         <v>71.333333333333329</v>
@@ -25223,10 +25223,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1173</v>
+        <v>1392</v>
       </c>
       <c r="B139" t="s">
-        <v>1379</v>
+        <v>1048</v>
       </c>
       <c r="C139" s="5">
         <v>89.42307692307692</v>
@@ -25246,10 +25246,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1174</v>
+        <v>1393</v>
       </c>
       <c r="B140" t="s">
-        <v>1380</v>
+        <v>1049</v>
       </c>
       <c r="C140" s="5">
         <v>86.111111111111114</v>
@@ -25269,10 +25269,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1175</v>
+        <v>1394</v>
       </c>
       <c r="B141" t="s">
-        <v>1381</v>
+        <v>1050</v>
       </c>
       <c r="C141" s="5">
         <v>170.63432835820896</v>
@@ -25292,10 +25292,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1176</v>
+        <v>1395</v>
       </c>
       <c r="B142" t="s">
-        <v>1382</v>
+        <v>1051</v>
       </c>
       <c r="C142" s="5">
         <v>153.0612244897959</v>
@@ -25315,10 +25315,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1177</v>
+        <v>1396</v>
       </c>
       <c r="B143" t="s">
-        <v>1383</v>
+        <v>1052</v>
       </c>
       <c r="C143" s="5">
         <v>125.03311258278146</v>
@@ -25338,10 +25338,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1178</v>
+        <v>1397</v>
       </c>
       <c r="B144" t="s">
-        <v>1384</v>
+        <v>1053</v>
       </c>
       <c r="C144" s="5">
         <v>137.21774193548387</v>
@@ -25361,10 +25361,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1179</v>
+        <v>1398</v>
       </c>
       <c r="B145" t="s">
-        <v>1386</v>
+        <v>1055</v>
       </c>
       <c r="C145" s="5">
         <v>84</v>
@@ -25384,10 +25384,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1180</v>
+        <v>1399</v>
       </c>
       <c r="B146" t="s">
-        <v>1387</v>
+        <v>1056</v>
       </c>
       <c r="C146" s="5">
         <v>254.375</v>
@@ -25407,10 +25407,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1181</v>
+        <v>1400</v>
       </c>
       <c r="B147" t="s">
-        <v>1388</v>
+        <v>1057</v>
       </c>
       <c r="C147" s="5">
         <v>150.09259259259258</v>
@@ -25430,10 +25430,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1182</v>
+        <v>1401</v>
       </c>
       <c r="B148" t="s">
-        <v>1389</v>
+        <v>1058</v>
       </c>
       <c r="C148" s="5">
         <v>136.19999999999999</v>
@@ -25453,7 +25453,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1183</v>
+        <v>1402</v>
       </c>
       <c r="B149" t="s">
         <v>615</v>
@@ -25476,10 +25476,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1184</v>
+        <v>1403</v>
       </c>
       <c r="B150" t="s">
-        <v>1390</v>
+        <v>1059</v>
       </c>
       <c r="C150" s="5">
         <v>128.25806451612902</v>
@@ -25499,10 +25499,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1185</v>
+        <v>1404</v>
       </c>
       <c r="B151" t="s">
-        <v>1391</v>
+        <v>1060</v>
       </c>
       <c r="C151" s="5">
         <v>128.42622950819671</v>
@@ -25522,10 +25522,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1186</v>
+        <v>1405</v>
       </c>
       <c r="B152" t="s">
-        <v>1392</v>
+        <v>1061</v>
       </c>
       <c r="C152" s="5">
         <v>22.035398230088497</v>
@@ -25545,10 +25545,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1187</v>
+        <v>1406</v>
       </c>
       <c r="B153" t="s">
-        <v>1393</v>
+        <v>1062</v>
       </c>
       <c r="C153" s="5">
         <v>23.055555555555557</v>
@@ -25568,10 +25568,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1188</v>
+        <v>1407</v>
       </c>
       <c r="B154" t="s">
-        <v>1395</v>
+        <v>1064</v>
       </c>
       <c r="C154" s="5">
         <v>124.52173913043477</v>
@@ -25591,10 +25591,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1189</v>
+        <v>1408</v>
       </c>
       <c r="B155" t="s">
-        <v>1396</v>
+        <v>1065</v>
       </c>
       <c r="C155" s="5">
         <v>35.070422535211264</v>
@@ -25614,10 +25614,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1190</v>
+        <v>1409</v>
       </c>
       <c r="B156" t="s">
-        <v>1397</v>
+        <v>1066</v>
       </c>
       <c r="C156" s="5">
         <v>123.85454545454546</v>
@@ -25637,10 +25637,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1191</v>
+        <v>1410</v>
       </c>
       <c r="B157" t="s">
-        <v>1398</v>
+        <v>1067</v>
       </c>
       <c r="C157" s="5">
         <v>260.64516129032256</v>
@@ -25660,10 +25660,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1192</v>
+        <v>1411</v>
       </c>
       <c r="B158" t="s">
-        <v>1399</v>
+        <v>1068</v>
       </c>
       <c r="C158" s="5">
         <v>243.0612244897959</v>
@@ -25683,10 +25683,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1193</v>
+        <v>1412</v>
       </c>
       <c r="B159" t="s">
-        <v>1400</v>
+        <v>1069</v>
       </c>
       <c r="C159" s="5">
         <v>215.2066115702479</v>
@@ -25706,10 +25706,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1194</v>
+        <v>1413</v>
       </c>
       <c r="B160" t="s">
-        <v>1401</v>
+        <v>1070</v>
       </c>
       <c r="C160" s="5">
         <v>208</v>
@@ -25729,10 +25729,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1195</v>
+        <v>1414</v>
       </c>
       <c r="B161" t="s">
-        <v>1402</v>
+        <v>1071</v>
       </c>
       <c r="C161" s="5">
         <v>87.066666666666663</v>
@@ -25752,10 +25752,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1196</v>
+        <v>1415</v>
       </c>
       <c r="B162" t="s">
-        <v>1403</v>
+        <v>1072</v>
       </c>
       <c r="C162" s="5">
         <v>156</v>
@@ -25775,10 +25775,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1197</v>
+        <v>1416</v>
       </c>
       <c r="B163" t="s">
-        <v>1404</v>
+        <v>1073</v>
       </c>
       <c r="C163" s="5">
         <v>82</v>
@@ -25798,10 +25798,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1198</v>
+        <v>1417</v>
       </c>
       <c r="B164" t="s">
-        <v>1405</v>
+        <v>1074</v>
       </c>
       <c r="C164" s="5">
         <v>101</v>
@@ -25821,10 +25821,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1199</v>
+        <v>1418</v>
       </c>
       <c r="B165" t="s">
-        <v>1406</v>
+        <v>1075</v>
       </c>
       <c r="C165" s="5">
         <v>74</v>
@@ -25844,10 +25844,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1200</v>
+        <v>1419</v>
       </c>
       <c r="B166" t="s">
-        <v>1418</v>
+        <v>1087</v>
       </c>
       <c r="C166" s="5">
         <v>264.81481481481484</v>
@@ -25867,10 +25867,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1201</v>
+        <v>1420</v>
       </c>
       <c r="B167" t="s">
-        <v>1419</v>
+        <v>1088</v>
       </c>
       <c r="C167" s="5">
         <v>36.019417475728154</v>
@@ -25890,10 +25890,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1202</v>
+        <v>1421</v>
       </c>
       <c r="B168" t="s">
-        <v>1420</v>
+        <v>1089</v>
       </c>
       <c r="C168" s="5">
         <v>69.666666666666671</v>
@@ -25913,10 +25913,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1203</v>
+        <v>1422</v>
       </c>
       <c r="B169" t="s">
-        <v>1421</v>
+        <v>1090</v>
       </c>
       <c r="C169" s="5">
         <v>18.046875</v>
@@ -25936,10 +25936,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1204</v>
+        <v>1423</v>
       </c>
       <c r="B170" t="s">
-        <v>1422</v>
+        <v>1091</v>
       </c>
       <c r="C170" s="5">
         <v>65.508474576271183</v>
@@ -25959,10 +25959,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1205</v>
+        <v>1424</v>
       </c>
       <c r="B171" t="s">
-        <v>1425</v>
+        <v>1094</v>
       </c>
       <c r="C171" s="5">
         <v>214.35897435897436</v>
@@ -25982,10 +25982,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1206</v>
+        <v>1425</v>
       </c>
       <c r="B172" t="s">
-        <v>1426</v>
+        <v>1095</v>
       </c>
       <c r="C172" s="5">
         <v>153.92156862745097</v>
@@ -26005,10 +26005,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1207</v>
+        <v>1426</v>
       </c>
       <c r="B173" t="s">
-        <v>1427</v>
+        <v>1096</v>
       </c>
       <c r="C173" s="5">
         <v>231.40625</v>
@@ -26028,10 +26028,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1208</v>
+        <v>1427</v>
       </c>
       <c r="B174" t="s">
-        <v>1428</v>
+        <v>1097</v>
       </c>
       <c r="C174" s="5">
         <v>123.80952380952381</v>
@@ -26051,10 +26051,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1209</v>
+        <v>1428</v>
       </c>
       <c r="B175" t="s">
-        <v>1429</v>
+        <v>1098</v>
       </c>
       <c r="C175" s="5">
         <v>152.5</v>
@@ -26074,10 +26074,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1210</v>
+        <v>1429</v>
       </c>
       <c r="B176" t="s">
-        <v>1430</v>
+        <v>1099</v>
       </c>
       <c r="C176" s="5">
         <v>179.65517241379311</v>
@@ -26097,10 +26097,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1211</v>
+        <v>1430</v>
       </c>
       <c r="B177" t="s">
-        <v>1431</v>
+        <v>1100</v>
       </c>
       <c r="C177" s="5">
         <v>154.48275862068965</v>
@@ -26120,10 +26120,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1212</v>
+        <v>1431</v>
       </c>
       <c r="B178" t="s">
-        <v>1432</v>
+        <v>1101</v>
       </c>
       <c r="C178" s="5">
         <v>155.86206896551724</v>
@@ -26143,10 +26143,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1213</v>
+        <v>1432</v>
       </c>
       <c r="B179" t="s">
-        <v>1433</v>
+        <v>1102</v>
       </c>
       <c r="C179" s="5">
         <v>218.57142857142858</v>
@@ -26166,10 +26166,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1214</v>
+        <v>1433</v>
       </c>
       <c r="B180" t="s">
-        <v>1434</v>
+        <v>1103</v>
       </c>
       <c r="C180" s="5">
         <v>273.61702127659572</v>
@@ -26189,10 +26189,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1215</v>
+        <v>1434</v>
       </c>
       <c r="B181" t="s">
-        <v>1435</v>
+        <v>1104</v>
       </c>
       <c r="C181" s="5">
         <v>98.956521739130437</v>
@@ -26212,10 +26212,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1216</v>
+        <v>1435</v>
       </c>
       <c r="B182" t="s">
-        <v>1436</v>
+        <v>1105</v>
       </c>
       <c r="C182" s="5">
         <v>168.97196261682242</v>
@@ -26235,10 +26235,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1217</v>
+        <v>1436</v>
       </c>
       <c r="B183" t="s">
-        <v>1437</v>
+        <v>1106</v>
       </c>
       <c r="C183" s="5">
         <v>199</v>
@@ -26258,10 +26258,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1218</v>
+        <v>1437</v>
       </c>
       <c r="B184" t="s">
-        <v>1438</v>
+        <v>1107</v>
       </c>
       <c r="C184" s="5">
         <v>192.85714285714286</v>
@@ -26281,10 +26281,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1219</v>
+        <v>1438</v>
       </c>
       <c r="B185" t="s">
-        <v>1439</v>
+        <v>1108</v>
       </c>
       <c r="C185" s="5">
         <v>265.55555555555554</v>
@@ -26304,10 +26304,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1220</v>
+        <v>1439</v>
       </c>
       <c r="B186" t="s">
-        <v>1440</v>
+        <v>1109</v>
       </c>
       <c r="C186" s="5">
         <v>177.62711864406779</v>
@@ -26327,10 +26327,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1221</v>
+        <v>1440</v>
       </c>
       <c r="B187" t="s">
-        <v>1441</v>
+        <v>1110</v>
       </c>
       <c r="C187" s="5">
         <v>225</v>
@@ -26350,7 +26350,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1222</v>
+        <v>1441</v>
       </c>
       <c r="B188" t="s">
         <v>616</v>
@@ -26373,10 +26373,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1223</v>
+        <v>1442</v>
       </c>
       <c r="B189" t="s">
-        <v>1442</v>
+        <v>1111</v>
       </c>
       <c r="C189" s="5">
         <v>82.058823529411768</v>
@@ -26396,10 +26396,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1224</v>
+        <v>1443</v>
       </c>
       <c r="B190" t="s">
-        <v>1443</v>
+        <v>1112</v>
       </c>
       <c r="C190" s="5">
         <v>140.625</v>
@@ -26419,10 +26419,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1225</v>
+        <v>1444</v>
       </c>
       <c r="B191" t="s">
-        <v>1444</v>
+        <v>1113</v>
       </c>
       <c r="C191" s="5">
         <v>221.52941176470588</v>
@@ -26442,10 +26442,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1226</v>
+        <v>1445</v>
       </c>
       <c r="B192" t="s">
-        <v>1448</v>
+        <v>1117</v>
       </c>
       <c r="C192" s="5">
         <v>144.85714285714286</v>
@@ -26465,10 +26465,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1227</v>
+        <v>1446</v>
       </c>
       <c r="B193" t="s">
-        <v>1449</v>
+        <v>1118</v>
       </c>
       <c r="C193" s="5">
         <v>276.23376623376623</v>
@@ -26488,10 +26488,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1228</v>
+        <v>1447</v>
       </c>
       <c r="B194" t="s">
-        <v>1450</v>
+        <v>1119</v>
       </c>
       <c r="C194" s="5">
         <v>189.77941176470591</v>
@@ -26511,10 +26511,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1229</v>
+        <v>1448</v>
       </c>
       <c r="B195" t="s">
-        <v>1451</v>
+        <v>1120</v>
       </c>
       <c r="C195" s="5">
         <v>245.875</v>
@@ -26534,10 +26534,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1230</v>
+        <v>1449</v>
       </c>
       <c r="B196" t="s">
-        <v>1452</v>
+        <v>1121</v>
       </c>
       <c r="C196" s="5">
         <v>266.77777777777777</v>
@@ -26557,10 +26557,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1231</v>
+        <v>1450</v>
       </c>
       <c r="B197" t="s">
-        <v>1453</v>
+        <v>1122</v>
       </c>
       <c r="C197" s="5">
         <v>139.21568627450981</v>
@@ -26580,10 +26580,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1232</v>
+        <v>1451</v>
       </c>
       <c r="B198" t="s">
-        <v>1454</v>
+        <v>1123</v>
       </c>
       <c r="C198" s="5">
         <v>347.55555555555554</v>
@@ -26603,10 +26603,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1233</v>
+        <v>1452</v>
       </c>
       <c r="B199" t="s">
-        <v>1455</v>
+        <v>1124</v>
       </c>
       <c r="C199" s="5">
         <f>C198*100/126</f>
@@ -26630,10 +26630,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1234</v>
+        <v>1453</v>
       </c>
       <c r="B200" t="s">
-        <v>1456</v>
+        <v>1125</v>
       </c>
       <c r="C200" s="5">
         <v>222.99465240641712</v>
@@ -26653,7 +26653,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1235</v>
+        <v>1454</v>
       </c>
       <c r="B201" t="s">
         <v>618</v>
@@ -26676,10 +26676,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1236</v>
+        <v>1455</v>
       </c>
       <c r="B202" t="s">
-        <v>1457</v>
+        <v>1126</v>
       </c>
       <c r="C202" s="5">
         <v>264.33497536945811</v>
@@ -26699,10 +26699,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1237</v>
+        <v>1456</v>
       </c>
       <c r="B203" t="s">
-        <v>1458</v>
+        <v>1127</v>
       </c>
       <c r="C203" s="5">
         <v>369.90566037735852</v>
@@ -26722,7 +26722,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1238</v>
+        <v>1457</v>
       </c>
       <c r="B204" t="s">
         <v>574</v>
@@ -26745,7 +26745,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1239</v>
+        <v>1458</v>
       </c>
       <c r="B205" t="s">
         <v>587</v>
@@ -26768,7 +26768,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1240</v>
+        <v>1459</v>
       </c>
       <c r="B206" t="s">
         <v>592</v>
@@ -28271,8 +28271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FAD5C-87A8-3441-9914-66519A6AAF2B}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28287,10 +28287,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1" t="s">
         <v>804</v>
-      </c>
-      <c r="B1" t="s">
-        <v>929</v>
       </c>
       <c r="C1" s="5">
         <v>42</v>
@@ -28310,10 +28310,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B2" t="s">
         <v>805</v>
-      </c>
-      <c r="B2" t="s">
-        <v>930</v>
       </c>
       <c r="C2" s="5">
         <v>54</v>
@@ -28333,10 +28333,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B3" t="s">
         <v>806</v>
-      </c>
-      <c r="B3" t="s">
-        <v>931</v>
       </c>
       <c r="C3" s="5">
         <v>53</v>
@@ -28356,10 +28356,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B4" t="s">
         <v>807</v>
-      </c>
-      <c r="B4" t="s">
-        <v>932</v>
       </c>
       <c r="C4" s="5">
         <v>45</v>
@@ -28379,10 +28379,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B5" t="s">
         <v>808</v>
-      </c>
-      <c r="B5" t="s">
-        <v>933</v>
       </c>
       <c r="C5" s="5">
         <v>40.5</v>
@@ -28402,10 +28402,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B6" t="s">
         <v>809</v>
-      </c>
-      <c r="B6" t="s">
-        <v>934</v>
       </c>
       <c r="C6" s="5">
         <v>46</v>
@@ -28425,10 +28425,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B7" t="s">
         <v>810</v>
-      </c>
-      <c r="B7" t="s">
-        <v>935</v>
       </c>
       <c r="C7" s="5">
         <v>73.3</v>
@@ -28448,10 +28448,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B8" t="s">
         <v>811</v>
-      </c>
-      <c r="B8" t="s">
-        <v>936</v>
       </c>
       <c r="C8" s="5">
         <v>39.700000000000003</v>
@@ -28471,10 +28471,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B9" t="s">
         <v>812</v>
-      </c>
-      <c r="B9" t="s">
-        <v>937</v>
       </c>
       <c r="C9" s="5">
         <v>37.299999999999997</v>
@@ -28494,10 +28494,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B10" t="s">
         <v>813</v>
-      </c>
-      <c r="B10" t="s">
-        <v>938</v>
       </c>
       <c r="C10" s="5">
         <v>32.200000000000003</v>
@@ -28517,10 +28517,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B11" t="s">
         <v>814</v>
-      </c>
-      <c r="B11" t="s">
-        <v>939</v>
       </c>
       <c r="C11" s="5">
         <v>58.8</v>
@@ -28540,10 +28540,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B12" t="s">
         <v>815</v>
-      </c>
-      <c r="B12" t="s">
-        <v>940</v>
       </c>
       <c r="C12" s="5">
         <v>303</v>
@@ -28563,10 +28563,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B13" t="s">
         <v>816</v>
-      </c>
-      <c r="B13" t="s">
-        <v>941</v>
       </c>
       <c r="C13" s="5">
         <v>291.60000000000002</v>
@@ -28586,10 +28586,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B14" t="s">
         <v>817</v>
-      </c>
-      <c r="B14" t="s">
-        <v>942</v>
       </c>
       <c r="C14" s="5">
         <v>95</v>
@@ -28609,10 +28609,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B15" t="s">
         <v>818</v>
-      </c>
-      <c r="B15" t="s">
-        <v>943</v>
       </c>
       <c r="C15" s="5">
         <v>100</v>
@@ -28632,10 +28632,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B16" t="s">
         <v>819</v>
-      </c>
-      <c r="B16" t="s">
-        <v>944</v>
       </c>
       <c r="C16" s="5">
         <v>95</v>
@@ -28655,10 +28655,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B17" t="s">
         <v>820</v>
-      </c>
-      <c r="B17" t="s">
-        <v>945</v>
       </c>
       <c r="C17" s="5">
         <v>95</v>
@@ -28678,10 +28678,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B18" t="s">
         <v>821</v>
-      </c>
-      <c r="B18" t="s">
-        <v>946</v>
       </c>
       <c r="C18" s="5">
         <v>105</v>
@@ -28701,10 +28701,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B19" t="s">
         <v>822</v>
-      </c>
-      <c r="B19" t="s">
-        <v>947</v>
       </c>
       <c r="C19" s="5">
         <v>106.7</v>
@@ -28724,10 +28724,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B20" t="s">
         <v>823</v>
-      </c>
-      <c r="B20" t="s">
-        <v>948</v>
       </c>
       <c r="C20" s="5">
         <v>108.7</v>
@@ -28747,10 +28747,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B21" t="s">
         <v>824</v>
-      </c>
-      <c r="B21" t="s">
-        <v>949</v>
       </c>
       <c r="C21" s="5">
         <v>108.7</v>
@@ -28770,10 +28770,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B22" t="s">
         <v>825</v>
-      </c>
-      <c r="B22" t="s">
-        <v>950</v>
       </c>
       <c r="C22" s="5">
         <v>109.5</v>
@@ -28793,10 +28793,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B23" t="s">
         <v>826</v>
-      </c>
-      <c r="B23" t="s">
-        <v>951</v>
       </c>
       <c r="C23" s="5">
         <v>114.7</v>
@@ -28816,10 +28816,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B24" t="s">
         <v>827</v>
-      </c>
-      <c r="B24" t="s">
-        <v>952</v>
       </c>
       <c r="C24" s="5">
         <v>112.8</v>
@@ -28839,10 +28839,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B25" t="s">
         <v>828</v>
-      </c>
-      <c r="B25" t="s">
-        <v>953</v>
       </c>
       <c r="C25" s="5">
         <v>98</v>
@@ -28862,10 +28862,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B26" t="s">
         <v>829</v>
-      </c>
-      <c r="B26" t="s">
-        <v>954</v>
       </c>
       <c r="C26" s="5">
         <v>60.5</v>
@@ -28885,10 +28885,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B27" t="s">
         <v>830</v>
-      </c>
-      <c r="B27" t="s">
-        <v>955</v>
       </c>
       <c r="C27" s="5">
         <v>100.4</v>
@@ -28908,10 +28908,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B28" t="s">
         <v>831</v>
-      </c>
-      <c r="B28" t="s">
-        <v>956</v>
       </c>
       <c r="C28" s="5">
         <v>102</v>
@@ -28931,10 +28931,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B29" t="s">
         <v>832</v>
-      </c>
-      <c r="B29" t="s">
-        <v>957</v>
       </c>
       <c r="C29" s="5">
         <v>105</v>
@@ -28954,10 +28954,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B30" t="s">
         <v>833</v>
-      </c>
-      <c r="B30" t="s">
-        <v>958</v>
       </c>
       <c r="C30" s="5">
         <v>105</v>
@@ -28977,10 +28977,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B31" t="s">
         <v>834</v>
-      </c>
-      <c r="B31" t="s">
-        <v>959</v>
       </c>
       <c r="C31" s="5">
         <v>100</v>
@@ -29000,10 +29000,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B32" t="s">
         <v>835</v>
-      </c>
-      <c r="B32" t="s">
-        <v>960</v>
       </c>
       <c r="C32" s="5">
         <v>104.8</v>
@@ -29023,10 +29023,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B33" t="s">
         <v>836</v>
-      </c>
-      <c r="B33" t="s">
-        <v>961</v>
       </c>
       <c r="C33" s="5">
         <v>95.3</v>
@@ -29046,10 +29046,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B34" t="s">
         <v>837</v>
-      </c>
-      <c r="B34" t="s">
-        <v>962</v>
       </c>
       <c r="C34" s="5">
         <v>105</v>
@@ -29069,10 +29069,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B35" t="s">
         <v>838</v>
-      </c>
-      <c r="B35" t="s">
-        <v>963</v>
       </c>
       <c r="C35" s="5">
         <v>85.3</v>
@@ -29092,10 +29092,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B36" t="s">
         <v>839</v>
-      </c>
-      <c r="B36" t="s">
-        <v>964</v>
       </c>
       <c r="C36" s="5">
         <v>61</v>
@@ -29115,10 +29115,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B37" t="s">
         <v>840</v>
-      </c>
-      <c r="B37" t="s">
-        <v>965</v>
       </c>
       <c r="C37" s="5">
         <v>98.6</v>
@@ -29138,10 +29138,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B38" t="s">
         <v>841</v>
-      </c>
-      <c r="B38" t="s">
-        <v>966</v>
       </c>
       <c r="C38" s="5">
         <v>106.3</v>
@@ -29161,10 +29161,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B39" t="s">
         <v>842</v>
-      </c>
-      <c r="B39" t="s">
-        <v>967</v>
       </c>
       <c r="C39" s="5">
         <v>105.8</v>
@@ -29184,10 +29184,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B40" t="s">
         <v>843</v>
-      </c>
-      <c r="B40" t="s">
-        <v>968</v>
       </c>
       <c r="C40" s="5">
         <v>110.8</v>
@@ -29207,10 +29207,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B41" t="s">
         <v>844</v>
-      </c>
-      <c r="B41" t="s">
-        <v>969</v>
       </c>
       <c r="C41" s="5">
         <v>110.8</v>
@@ -29230,10 +29230,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B42" t="s">
         <v>845</v>
-      </c>
-      <c r="B42" t="s">
-        <v>970</v>
       </c>
       <c r="C42" s="5">
         <v>97</v>
@@ -29253,10 +29253,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B43" t="s">
         <v>846</v>
-      </c>
-      <c r="B43" t="s">
-        <v>971</v>
       </c>
       <c r="C43" s="5">
         <v>101</v>
@@ -29276,10 +29276,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B44" t="s">
         <v>847</v>
-      </c>
-      <c r="B44" t="s">
-        <v>972</v>
       </c>
       <c r="C44" s="5">
         <v>195</v>
@@ -29299,10 +29299,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B45" t="s">
         <v>848</v>
-      </c>
-      <c r="B45" t="s">
-        <v>973</v>
       </c>
       <c r="C45" s="5">
         <v>75.8</v>
@@ -29322,10 +29322,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B46" t="s">
         <v>849</v>
-      </c>
-      <c r="B46" t="s">
-        <v>974</v>
       </c>
       <c r="C46" s="5">
         <v>72.5</v>
@@ -29345,10 +29345,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B47" t="s">
         <v>850</v>
-      </c>
-      <c r="B47" t="s">
-        <v>975</v>
       </c>
       <c r="C47" s="5">
         <v>72.5</v>
@@ -29368,10 +29368,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B48" t="s">
         <v>851</v>
-      </c>
-      <c r="B48" t="s">
-        <v>976</v>
       </c>
       <c r="C48" s="5">
         <v>72.5</v>
@@ -29391,10 +29391,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B49" t="s">
         <v>852</v>
-      </c>
-      <c r="B49" t="s">
-        <v>977</v>
       </c>
       <c r="C49" s="5">
         <v>72.5</v>
@@ -29414,10 +29414,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B50" t="s">
         <v>853</v>
-      </c>
-      <c r="B50" t="s">
-        <v>978</v>
       </c>
       <c r="C50" s="5">
         <v>65</v>
@@ -29437,10 +29437,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B51" t="s">
         <v>854</v>
-      </c>
-      <c r="B51" t="s">
-        <v>979</v>
       </c>
       <c r="C51" s="5">
         <v>86.1</v>
@@ -29460,10 +29460,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B52" t="s">
         <v>855</v>
-      </c>
-      <c r="B52" t="s">
-        <v>980</v>
       </c>
       <c r="C52" s="5">
         <v>85.2</v>
@@ -29483,10 +29483,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B53" t="s">
         <v>856</v>
-      </c>
-      <c r="B53" t="s">
-        <v>981</v>
       </c>
       <c r="C53" s="5">
         <v>63.6</v>
@@ -29506,10 +29506,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B54" t="s">
         <v>857</v>
-      </c>
-      <c r="B54" t="s">
-        <v>982</v>
       </c>
       <c r="C54" s="5">
         <v>67.2</v>
@@ -29529,10 +29529,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B55" t="s">
         <v>858</v>
-      </c>
-      <c r="B55" t="s">
-        <v>983</v>
       </c>
       <c r="C55" s="5">
         <v>43.2</v>
@@ -29552,10 +29552,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B56" t="s">
         <v>859</v>
-      </c>
-      <c r="B56" t="s">
-        <v>984</v>
       </c>
       <c r="C56" s="5">
         <v>67.2</v>
@@ -29575,10 +29575,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B57" t="s">
         <v>860</v>
-      </c>
-      <c r="B57" t="s">
-        <v>985</v>
       </c>
       <c r="C57" s="5">
         <v>63.9</v>
@@ -29598,10 +29598,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B58" t="s">
         <v>861</v>
-      </c>
-      <c r="B58" t="s">
-        <v>986</v>
       </c>
       <c r="C58" s="5">
         <v>64.8</v>
@@ -29621,10 +29621,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>862</v>
+        <v>1187</v>
       </c>
       <c r="B59" t="s">
-        <v>1029</v>
+        <v>904</v>
       </c>
       <c r="C59" s="5">
         <v>70.400000000000006</v>
@@ -29644,10 +29644,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>863</v>
+        <v>1188</v>
       </c>
       <c r="B60" t="s">
-        <v>1030</v>
+        <v>905</v>
       </c>
       <c r="C60" s="5">
         <v>70.400000000000006</v>
@@ -29667,10 +29667,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>864</v>
+        <v>1189</v>
       </c>
       <c r="B61" t="s">
-        <v>1031</v>
+        <v>906</v>
       </c>
       <c r="C61" s="5">
         <v>70.400000000000006</v>
@@ -29690,10 +29690,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>865</v>
+        <v>1190</v>
       </c>
       <c r="B62" t="s">
-        <v>1032</v>
+        <v>907</v>
       </c>
       <c r="C62" s="5">
         <v>76.5</v>
@@ -29713,10 +29713,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>866</v>
+        <v>1191</v>
       </c>
       <c r="B63" t="s">
-        <v>1033</v>
+        <v>908</v>
       </c>
       <c r="C63" s="5">
         <v>76.599999999999994</v>
@@ -29736,10 +29736,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>867</v>
+        <v>1192</v>
       </c>
       <c r="B64" t="s">
-        <v>1034</v>
+        <v>909</v>
       </c>
       <c r="C64" s="5">
         <v>64.8</v>
@@ -29759,10 +29759,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>868</v>
+        <v>1193</v>
       </c>
       <c r="B65" t="s">
-        <v>987</v>
+        <v>862</v>
       </c>
       <c r="C65" s="5">
         <v>70.8</v>
@@ -29782,10 +29782,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>869</v>
+        <v>1194</v>
       </c>
       <c r="B66" t="s">
-        <v>988</v>
+        <v>863</v>
       </c>
       <c r="C66" s="5">
         <v>70.8</v>
@@ -29805,10 +29805,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>870</v>
+        <v>1195</v>
       </c>
       <c r="B67" t="s">
-        <v>989</v>
+        <v>864</v>
       </c>
       <c r="C67" s="5">
         <v>84</v>
@@ -29828,10 +29828,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>871</v>
+        <v>1196</v>
       </c>
       <c r="B68" t="s">
-        <v>990</v>
+        <v>865</v>
       </c>
       <c r="C68" s="5">
         <v>64</v>
@@ -29851,10 +29851,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>872</v>
+        <v>1197</v>
       </c>
       <c r="B69" t="s">
-        <v>991</v>
+        <v>866</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -29874,10 +29874,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>873</v>
+        <v>1198</v>
       </c>
       <c r="B70" t="s">
-        <v>992</v>
+        <v>867</v>
       </c>
       <c r="C70" s="5">
         <v>70</v>
@@ -29897,10 +29897,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>874</v>
+        <v>1199</v>
       </c>
       <c r="B71" t="s">
-        <v>993</v>
+        <v>868</v>
       </c>
       <c r="C71" s="5">
         <v>75</v>
@@ -29920,10 +29920,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="B72" t="s">
-        <v>994</v>
+        <v>869</v>
       </c>
       <c r="C72" s="5">
         <v>64</v>
@@ -29943,10 +29943,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>876</v>
+        <v>1201</v>
       </c>
       <c r="B73" t="s">
-        <v>995</v>
+        <v>870</v>
       </c>
       <c r="C73" s="5">
         <v>56.7</v>
@@ -29966,10 +29966,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>877</v>
+        <v>1202</v>
       </c>
       <c r="B74" t="s">
-        <v>996</v>
+        <v>871</v>
       </c>
       <c r="C74" s="5">
         <v>56.6</v>
@@ -29989,10 +29989,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>878</v>
+        <v>1203</v>
       </c>
       <c r="B75" t="s">
-        <v>997</v>
+        <v>872</v>
       </c>
       <c r="C75" s="5">
         <v>85</v>
@@ -30012,10 +30012,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>879</v>
+        <v>1204</v>
       </c>
       <c r="B76" t="s">
-        <v>998</v>
+        <v>873</v>
       </c>
       <c r="C76" s="5">
         <v>50.7</v>
@@ -30035,10 +30035,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>880</v>
+        <v>1205</v>
       </c>
       <c r="B77" t="s">
-        <v>999</v>
+        <v>874</v>
       </c>
       <c r="C77" s="5">
         <v>64</v>
@@ -30058,10 +30058,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>881</v>
+        <v>1206</v>
       </c>
       <c r="B78" t="s">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="C78" s="5">
         <v>50</v>
@@ -30081,10 +30081,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>882</v>
+        <v>1207</v>
       </c>
       <c r="B79" t="s">
-        <v>1001</v>
+        <v>876</v>
       </c>
       <c r="C79" s="5">
         <v>40</v>
@@ -30104,10 +30104,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>883</v>
+        <v>1208</v>
       </c>
       <c r="B80" t="s">
-        <v>1002</v>
+        <v>877</v>
       </c>
       <c r="C80" s="5">
         <v>39.799999999999997</v>
@@ -30127,10 +30127,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>884</v>
+        <v>1209</v>
       </c>
       <c r="B81" t="s">
-        <v>1003</v>
+        <v>878</v>
       </c>
       <c r="C81" s="5">
         <v>41.3</v>
@@ -30150,10 +30150,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>885</v>
+        <v>1210</v>
       </c>
       <c r="B82" t="s">
-        <v>1004</v>
+        <v>879</v>
       </c>
       <c r="C82" s="5">
         <v>60</v>
@@ -30173,10 +30173,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>886</v>
+        <v>1211</v>
       </c>
       <c r="B83" t="s">
-        <v>1005</v>
+        <v>880</v>
       </c>
       <c r="C83" s="5">
         <v>62.2</v>
@@ -30196,10 +30196,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>887</v>
+        <v>1212</v>
       </c>
       <c r="B84" t="s">
-        <v>1006</v>
+        <v>881</v>
       </c>
       <c r="C84" s="5">
         <v>62.2</v>
@@ -30219,10 +30219,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>888</v>
+        <v>1213</v>
       </c>
       <c r="B85" t="s">
-        <v>1007</v>
+        <v>882</v>
       </c>
       <c r="C85" s="5">
         <v>50</v>
@@ -30242,10 +30242,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>889</v>
+        <v>1214</v>
       </c>
       <c r="B86" t="s">
-        <v>1008</v>
+        <v>883</v>
       </c>
       <c r="C86" s="5">
         <v>83.9</v>
@@ -30265,10 +30265,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>890</v>
+        <v>1215</v>
       </c>
       <c r="B87" t="s">
-        <v>1009</v>
+        <v>884</v>
       </c>
       <c r="C87" s="5">
         <v>75.599999999999994</v>
@@ -30288,10 +30288,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>891</v>
+        <v>1216</v>
       </c>
       <c r="B88" t="s">
-        <v>1010</v>
+        <v>885</v>
       </c>
       <c r="C88" s="5">
         <v>91.7</v>
@@ -30311,10 +30311,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>892</v>
+        <v>1217</v>
       </c>
       <c r="B89" t="s">
-        <v>1011</v>
+        <v>886</v>
       </c>
       <c r="C89" s="5">
         <v>65.099999999999994</v>
@@ -30334,10 +30334,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>893</v>
+        <v>1218</v>
       </c>
       <c r="B90" t="s">
-        <v>1012</v>
+        <v>887</v>
       </c>
       <c r="C90" s="5">
         <v>49.5</v>
@@ -30357,10 +30357,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>894</v>
+        <v>1219</v>
       </c>
       <c r="B91" t="s">
-        <v>1013</v>
+        <v>888</v>
       </c>
       <c r="C91" s="5">
         <v>77.8</v>
@@ -30380,10 +30380,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>895</v>
+        <v>1220</v>
       </c>
       <c r="B92" t="s">
-        <v>1014</v>
+        <v>889</v>
       </c>
       <c r="C92" s="5">
         <v>83.7</v>
@@ -30403,10 +30403,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>896</v>
+        <v>1221</v>
       </c>
       <c r="B93" t="s">
-        <v>1015</v>
+        <v>890</v>
       </c>
       <c r="C93" s="5">
         <v>82.2</v>
@@ -30426,10 +30426,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>897</v>
+        <v>1222</v>
       </c>
       <c r="B94" t="s">
-        <v>1016</v>
+        <v>891</v>
       </c>
       <c r="C94" s="5">
         <v>73</v>
@@ -30449,10 +30449,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>898</v>
+        <v>1223</v>
       </c>
       <c r="B95" t="s">
-        <v>1017</v>
+        <v>892</v>
       </c>
       <c r="C95" s="5">
         <v>62.7</v>
@@ -30472,10 +30472,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>899</v>
+        <v>1224</v>
       </c>
       <c r="B96" t="s">
-        <v>1018</v>
+        <v>893</v>
       </c>
       <c r="C96" s="5">
         <v>72</v>
@@ -30495,10 +30495,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>900</v>
+        <v>1225</v>
       </c>
       <c r="B97" t="s">
-        <v>1019</v>
+        <v>894</v>
       </c>
       <c r="C97" s="5">
         <v>80</v>
@@ -30518,10 +30518,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>901</v>
+        <v>1226</v>
       </c>
       <c r="B98" t="s">
-        <v>1020</v>
+        <v>895</v>
       </c>
       <c r="C98" s="5">
         <v>70</v>
@@ -30541,10 +30541,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>902</v>
+        <v>1227</v>
       </c>
       <c r="B99" t="s">
-        <v>1021</v>
+        <v>896</v>
       </c>
       <c r="C99" s="5">
         <v>60</v>
@@ -30564,10 +30564,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>903</v>
+        <v>1228</v>
       </c>
       <c r="B100" t="s">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="C100" s="5">
         <v>80</v>
@@ -30587,10 +30587,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>904</v>
+        <v>1229</v>
       </c>
       <c r="B101" t="s">
-        <v>1023</v>
+        <v>898</v>
       </c>
       <c r="C101" s="5">
         <v>75.099999999999994</v>
@@ -30610,10 +30610,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>905</v>
+        <v>1230</v>
       </c>
       <c r="B102" t="s">
-        <v>1024</v>
+        <v>899</v>
       </c>
       <c r="C102" s="5">
         <v>83.1</v>
@@ -30633,10 +30633,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>906</v>
+        <v>1231</v>
       </c>
       <c r="B103" t="s">
-        <v>1025</v>
+        <v>900</v>
       </c>
       <c r="C103" s="5">
         <v>75.900000000000006</v>
@@ -30656,10 +30656,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>907</v>
+        <v>1232</v>
       </c>
       <c r="B104" t="s">
-        <v>1026</v>
+        <v>901</v>
       </c>
       <c r="C104" s="5">
         <v>64.599999999999994</v>
@@ -30679,10 +30679,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>908</v>
+        <v>1233</v>
       </c>
       <c r="B105" t="s">
-        <v>1027</v>
+        <v>902</v>
       </c>
       <c r="C105" s="5">
         <v>83.9</v>
@@ -30702,10 +30702,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>909</v>
+        <v>1234</v>
       </c>
       <c r="B106" t="s">
-        <v>1028</v>
+        <v>903</v>
       </c>
       <c r="C106" s="5">
         <v>53.9</v>
@@ -30725,10 +30725,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>910</v>
+        <v>1235</v>
       </c>
       <c r="B107" t="s">
-        <v>1299</v>
+        <v>968</v>
       </c>
       <c r="C107" s="5">
         <v>336</v>
@@ -30748,10 +30748,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>911</v>
+        <v>1236</v>
       </c>
       <c r="B108" t="s">
-        <v>1351</v>
+        <v>1020</v>
       </c>
       <c r="C108" s="5">
         <v>91</v>
@@ -30771,10 +30771,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>912</v>
+        <v>1237</v>
       </c>
       <c r="B109" t="s">
-        <v>1385</v>
+        <v>1054</v>
       </c>
       <c r="C109" s="5">
         <v>64.759358288770059</v>
@@ -30794,10 +30794,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>913</v>
+        <v>1238</v>
       </c>
       <c r="B110" t="s">
-        <v>1407</v>
+        <v>1076</v>
       </c>
       <c r="C110" s="5">
         <v>72.727272727272734</v>
@@ -30817,10 +30817,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>914</v>
+        <v>1239</v>
       </c>
       <c r="B111" t="s">
-        <v>1408</v>
+        <v>1077</v>
       </c>
       <c r="C111" s="5">
         <v>47</v>
@@ -30840,10 +30840,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>915</v>
+        <v>1240</v>
       </c>
       <c r="B112" t="s">
-        <v>1409</v>
+        <v>1078</v>
       </c>
       <c r="C112" s="5">
         <v>59.484848484848484</v>
@@ -30863,10 +30863,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>916</v>
+        <v>1241</v>
       </c>
       <c r="B113" t="s">
-        <v>1410</v>
+        <v>1079</v>
       </c>
       <c r="C113" s="5">
         <v>35.757575757575758</v>
@@ -30886,10 +30886,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>917</v>
+        <v>1242</v>
       </c>
       <c r="B114" t="s">
-        <v>1411</v>
+        <v>1080</v>
       </c>
       <c r="C114" s="5">
         <v>65.878787878787875</v>
@@ -30909,10 +30909,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>918</v>
+        <v>1243</v>
       </c>
       <c r="B115" t="s">
-        <v>1412</v>
+        <v>1081</v>
       </c>
       <c r="C115" s="5">
         <v>71.666666666666671</v>
@@ -30932,10 +30932,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>919</v>
+        <v>1244</v>
       </c>
       <c r="B116" t="s">
-        <v>1413</v>
+        <v>1082</v>
       </c>
       <c r="C116" s="5">
         <v>51.81818181818182</v>
@@ -30955,10 +30955,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>920</v>
+        <v>1245</v>
       </c>
       <c r="B117" t="s">
-        <v>1414</v>
+        <v>1083</v>
       </c>
       <c r="C117" s="5">
         <v>60.060606060606062</v>
@@ -30978,10 +30978,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>921</v>
+        <v>1246</v>
       </c>
       <c r="B118" t="s">
-        <v>1415</v>
+        <v>1084</v>
       </c>
       <c r="C118" s="5">
         <v>46.878787878787875</v>
@@ -31001,10 +31001,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>922</v>
+        <v>1247</v>
       </c>
       <c r="B119" t="s">
-        <v>1416</v>
+        <v>1085</v>
       </c>
       <c r="C119" s="5">
         <v>70.515151515151516</v>
@@ -31024,10 +31024,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>923</v>
+        <v>1248</v>
       </c>
       <c r="B120" t="s">
-        <v>1417</v>
+        <v>1086</v>
       </c>
       <c r="C120" s="5">
         <v>65.939393939393938</v>
@@ -31047,10 +31047,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>924</v>
+        <v>1249</v>
       </c>
       <c r="B121" t="s">
-        <v>1423</v>
+        <v>1092</v>
       </c>
       <c r="C121" s="5">
         <v>21.1</v>
@@ -31070,10 +31070,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>925</v>
+        <v>1250</v>
       </c>
       <c r="B122" t="s">
-        <v>1424</v>
+        <v>1093</v>
       </c>
       <c r="C122" s="5">
         <v>53.06</v>
@@ -31093,10 +31093,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>926</v>
+        <v>1251</v>
       </c>
       <c r="B123" t="s">
-        <v>1445</v>
+        <v>1114</v>
       </c>
       <c r="C123" s="5">
         <v>10.98</v>
@@ -31116,10 +31116,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>927</v>
+        <v>1252</v>
       </c>
       <c r="B124" t="s">
-        <v>1446</v>
+        <v>1115</v>
       </c>
       <c r="C124" s="5">
         <v>48.88</v>
@@ -31139,10 +31139,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>928</v>
+        <v>1253</v>
       </c>
       <c r="B125" t="s">
-        <v>1447</v>
+        <v>1116</v>
       </c>
       <c r="C125" s="5">
         <v>17.38</v>

--- a/app/src/main/assets/Diary.xlsx
+++ b/app/src/main/assets/Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB925DE-038C-374F-AB20-6F6D839BD5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB63E167-B94D-D446-A235-657D8F960417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="460" windowWidth="22540" windowHeight="17540" activeTab="1" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
@@ -1902,147 +1902,9 @@
     <t>Xôi xéo</t>
   </si>
   <si>
-    <t>N1001</t>
-  </si>
-  <si>
     <t>Bánh bông lan cam Kinh Đô</t>
   </si>
   <si>
-    <t>N1002</t>
-  </si>
-  <si>
-    <t>N1003</t>
-  </si>
-  <si>
-    <t>N1004</t>
-  </si>
-  <si>
-    <t>N1005</t>
-  </si>
-  <si>
-    <t>N1006</t>
-  </si>
-  <si>
-    <t>N1007</t>
-  </si>
-  <si>
-    <t>N1008</t>
-  </si>
-  <si>
-    <t>N1009</t>
-  </si>
-  <si>
-    <t>N1010</t>
-  </si>
-  <si>
-    <t>N1011</t>
-  </si>
-  <si>
-    <t>N1012</t>
-  </si>
-  <si>
-    <t>N1013</t>
-  </si>
-  <si>
-    <t>N1014</t>
-  </si>
-  <si>
-    <t>N1015</t>
-  </si>
-  <si>
-    <t>N1016</t>
-  </si>
-  <si>
-    <t>N1017</t>
-  </si>
-  <si>
-    <t>N1018</t>
-  </si>
-  <si>
-    <t>N1019</t>
-  </si>
-  <si>
-    <t>N1020</t>
-  </si>
-  <si>
-    <t>N1021</t>
-  </si>
-  <si>
-    <t>N1022</t>
-  </si>
-  <si>
-    <t>N1023</t>
-  </si>
-  <si>
-    <t>N1024</t>
-  </si>
-  <si>
-    <t>N1025</t>
-  </si>
-  <si>
-    <t>N1026</t>
-  </si>
-  <si>
-    <t>N1027</t>
-  </si>
-  <si>
-    <t>N1028</t>
-  </si>
-  <si>
-    <t>N1029</t>
-  </si>
-  <si>
-    <t>N1030</t>
-  </si>
-  <si>
-    <t>N1031</t>
-  </si>
-  <si>
-    <t>N1032</t>
-  </si>
-  <si>
-    <t>N1033</t>
-  </si>
-  <si>
-    <t>N1034</t>
-  </si>
-  <si>
-    <t>N1035</t>
-  </si>
-  <si>
-    <t>N1036</t>
-  </si>
-  <si>
-    <t>N1037</t>
-  </si>
-  <si>
-    <t>N1038</t>
-  </si>
-  <si>
-    <t>N1039</t>
-  </si>
-  <si>
-    <t>N1040</t>
-  </si>
-  <si>
-    <t>N1041</t>
-  </si>
-  <si>
-    <t>N1042</t>
-  </si>
-  <si>
-    <t>N1043</t>
-  </si>
-  <si>
-    <t>N1044</t>
-  </si>
-  <si>
-    <t>N1045</t>
-  </si>
-  <si>
-    <t>N1046</t>
-  </si>
-  <si>
     <t>Bánh chấm phô mai vị pizza</t>
   </si>
   <si>
@@ -2166,87 +2028,6 @@
     <t>Trà chanh Lipton</t>
   </si>
   <si>
-    <t>N2001</t>
-  </si>
-  <si>
-    <t>N2002</t>
-  </si>
-  <si>
-    <t>N2003</t>
-  </si>
-  <si>
-    <t>N2004</t>
-  </si>
-  <si>
-    <t>N2005</t>
-  </si>
-  <si>
-    <t>N2006</t>
-  </si>
-  <si>
-    <t>N2007</t>
-  </si>
-  <si>
-    <t>N2008</t>
-  </si>
-  <si>
-    <t>N2009</t>
-  </si>
-  <si>
-    <t>N2010</t>
-  </si>
-  <si>
-    <t>N2011</t>
-  </si>
-  <si>
-    <t>N2012</t>
-  </si>
-  <si>
-    <t>N2013</t>
-  </si>
-  <si>
-    <t>N2014</t>
-  </si>
-  <si>
-    <t>N2015</t>
-  </si>
-  <si>
-    <t>N2016</t>
-  </si>
-  <si>
-    <t>N2017</t>
-  </si>
-  <si>
-    <t>N2018</t>
-  </si>
-  <si>
-    <t>N2019</t>
-  </si>
-  <si>
-    <t>N2020</t>
-  </si>
-  <si>
-    <t>N2021</t>
-  </si>
-  <si>
-    <t>N2022</t>
-  </si>
-  <si>
-    <t>N2023</t>
-  </si>
-  <si>
-    <t>N2024</t>
-  </si>
-  <si>
-    <t>N2025</t>
-  </si>
-  <si>
-    <t>N2026</t>
-  </si>
-  <si>
-    <t>N2027</t>
-  </si>
-  <si>
     <t>Bún bò Huế gói Hằng Nga</t>
   </si>
   <si>
@@ -2355,54 +2136,6 @@
     <t>Hạt óc chó</t>
   </si>
   <si>
-    <t>N3001</t>
-  </si>
-  <si>
-    <t>N3002</t>
-  </si>
-  <si>
-    <t>N3003</t>
-  </si>
-  <si>
-    <t>N3004</t>
-  </si>
-  <si>
-    <t>N3005</t>
-  </si>
-  <si>
-    <t>N3006</t>
-  </si>
-  <si>
-    <t>N3007</t>
-  </si>
-  <si>
-    <t>N3008</t>
-  </si>
-  <si>
-    <t>N3009</t>
-  </si>
-  <si>
-    <t>N3010</t>
-  </si>
-  <si>
-    <t>N3011</t>
-  </si>
-  <si>
-    <t>N3012</t>
-  </si>
-  <si>
-    <t>N3013</t>
-  </si>
-  <si>
-    <t>N3014</t>
-  </si>
-  <si>
-    <t>N3015</t>
-  </si>
-  <si>
-    <t>N3016</t>
-  </si>
-  <si>
     <t>Kem delight cà phê hạnh nhân</t>
   </si>
   <si>
@@ -4417,6 +4150,273 @@
   </si>
   <si>
     <t>n5206</t>
+  </si>
+  <si>
+    <t>n1001</t>
+  </si>
+  <si>
+    <t>n1002</t>
+  </si>
+  <si>
+    <t>n1003</t>
+  </si>
+  <si>
+    <t>n1004</t>
+  </si>
+  <si>
+    <t>n1005</t>
+  </si>
+  <si>
+    <t>n1006</t>
+  </si>
+  <si>
+    <t>n1007</t>
+  </si>
+  <si>
+    <t>n1008</t>
+  </si>
+  <si>
+    <t>n1009</t>
+  </si>
+  <si>
+    <t>n1010</t>
+  </si>
+  <si>
+    <t>n1011</t>
+  </si>
+  <si>
+    <t>n1012</t>
+  </si>
+  <si>
+    <t>n1013</t>
+  </si>
+  <si>
+    <t>n1014</t>
+  </si>
+  <si>
+    <t>n1015</t>
+  </si>
+  <si>
+    <t>n1016</t>
+  </si>
+  <si>
+    <t>n1017</t>
+  </si>
+  <si>
+    <t>n1018</t>
+  </si>
+  <si>
+    <t>n1019</t>
+  </si>
+  <si>
+    <t>n1020</t>
+  </si>
+  <si>
+    <t>n1021</t>
+  </si>
+  <si>
+    <t>n1022</t>
+  </si>
+  <si>
+    <t>n1023</t>
+  </si>
+  <si>
+    <t>n1024</t>
+  </si>
+  <si>
+    <t>n1025</t>
+  </si>
+  <si>
+    <t>n1026</t>
+  </si>
+  <si>
+    <t>n1027</t>
+  </si>
+  <si>
+    <t>n1028</t>
+  </si>
+  <si>
+    <t>n1029</t>
+  </si>
+  <si>
+    <t>n1030</t>
+  </si>
+  <si>
+    <t>n1031</t>
+  </si>
+  <si>
+    <t>n1032</t>
+  </si>
+  <si>
+    <t>n1033</t>
+  </si>
+  <si>
+    <t>n1034</t>
+  </si>
+  <si>
+    <t>n1035</t>
+  </si>
+  <si>
+    <t>n1036</t>
+  </si>
+  <si>
+    <t>n1037</t>
+  </si>
+  <si>
+    <t>n1038</t>
+  </si>
+  <si>
+    <t>n1039</t>
+  </si>
+  <si>
+    <t>n1040</t>
+  </si>
+  <si>
+    <t>n1041</t>
+  </si>
+  <si>
+    <t>n1042</t>
+  </si>
+  <si>
+    <t>n1043</t>
+  </si>
+  <si>
+    <t>n1044</t>
+  </si>
+  <si>
+    <t>n1045</t>
+  </si>
+  <si>
+    <t>n1046</t>
+  </si>
+  <si>
+    <t>n1047</t>
+  </si>
+  <si>
+    <t>n1048</t>
+  </si>
+  <si>
+    <t>n1049</t>
+  </si>
+  <si>
+    <t>n1050</t>
+  </si>
+  <si>
+    <t>n1051</t>
+  </si>
+  <si>
+    <t>n1052</t>
+  </si>
+  <si>
+    <t>n1053</t>
+  </si>
+  <si>
+    <t>n1054</t>
+  </si>
+  <si>
+    <t>n1055</t>
+  </si>
+  <si>
+    <t>n1056</t>
+  </si>
+  <si>
+    <t>n1057</t>
+  </si>
+  <si>
+    <t>n1058</t>
+  </si>
+  <si>
+    <t>n1059</t>
+  </si>
+  <si>
+    <t>n1060</t>
+  </si>
+  <si>
+    <t>n1061</t>
+  </si>
+  <si>
+    <t>n1062</t>
+  </si>
+  <si>
+    <t>n1063</t>
+  </si>
+  <si>
+    <t>n1064</t>
+  </si>
+  <si>
+    <t>n1065</t>
+  </si>
+  <si>
+    <t>n1066</t>
+  </si>
+  <si>
+    <t>n1067</t>
+  </si>
+  <si>
+    <t>n1068</t>
+  </si>
+  <si>
+    <t>n1069</t>
+  </si>
+  <si>
+    <t>n1070</t>
+  </si>
+  <si>
+    <t>n1071</t>
+  </si>
+  <si>
+    <t>n1072</t>
+  </si>
+  <si>
+    <t>n1073</t>
+  </si>
+  <si>
+    <t>n1074</t>
+  </si>
+  <si>
+    <t>n1075</t>
+  </si>
+  <si>
+    <t>n1076</t>
+  </si>
+  <si>
+    <t>n1077</t>
+  </si>
+  <si>
+    <t>n1078</t>
+  </si>
+  <si>
+    <t>n1079</t>
+  </si>
+  <si>
+    <t>n1080</t>
+  </si>
+  <si>
+    <t>n1081</t>
+  </si>
+  <si>
+    <t>n1082</t>
+  </si>
+  <si>
+    <t>n1083</t>
+  </si>
+  <si>
+    <t>n1084</t>
+  </si>
+  <si>
+    <t>n1085</t>
+  </si>
+  <si>
+    <t>n1086</t>
+  </si>
+  <si>
+    <t>n1087</t>
+  </si>
+  <si>
+    <t>n1088</t>
+  </si>
+  <si>
+    <t>n1089</t>
   </si>
 </sst>
 </file>
@@ -4836,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D172C0-E49C-4A4B-B529-386C6E53D8C9}">
-  <dimension ref="A1:J648"/>
+  <dimension ref="A1:J559"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView topLeftCell="A546" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A560" sqref="A560:G648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9012,7 +9012,7 @@
         <v>3034</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>766</v>
+        <v>693</v>
       </c>
       <c r="C83" s="1">
         <v>584</v>
@@ -9035,7 +9035,7 @@
         <v>3035</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9058,7 +9058,7 @@
         <v>3036</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
       <c r="C85" s="1">
         <v>364</v>
@@ -9081,7 +9081,7 @@
         <v>3037</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
       <c r="C86" s="1">
         <v>616</v>
@@ -9104,7 +9104,7 @@
         <v>3038</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
       <c r="C87" s="1">
         <v>611</v>
@@ -9127,7 +9127,7 @@
         <v>3039</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
       <c r="C88" s="1">
         <v>654</v>
@@ -13773,7 +13773,7 @@
         <v>6015</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>763</v>
+        <v>690</v>
       </c>
       <c r="C290" s="1">
         <v>728.5</v>
@@ -13796,7 +13796,7 @@
         <v>6016</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>764</v>
+        <v>691</v>
       </c>
       <c r="C291" s="1">
         <v>896</v>
@@ -13819,7 +13819,7 @@
         <v>6017</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="C292" s="1">
         <v>935</v>
@@ -19975,2053 +19975,6 @@
         <v>0</v>
       </c>
       <c r="G559" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
-        <v>621</v>
-      </c>
-      <c r="B560" t="s">
-        <v>622</v>
-      </c>
-      <c r="C560" s="4">
-        <v>396</v>
-      </c>
-      <c r="D560" s="4">
-        <v>7</v>
-      </c>
-      <c r="E560" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F560" s="4">
-        <v>48.2</v>
-      </c>
-      <c r="G560">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A561" t="s">
-        <v>623</v>
-      </c>
-      <c r="B561" t="s">
-        <v>668</v>
-      </c>
-      <c r="C561" s="4">
-        <v>286</v>
-      </c>
-      <c r="D561" s="4">
-        <v>10</v>
-      </c>
-      <c r="E561" s="4">
-        <v>16</v>
-      </c>
-      <c r="F561" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="G561">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
-        <v>624</v>
-      </c>
-      <c r="B562" t="s">
-        <v>669</v>
-      </c>
-      <c r="C562" s="4">
-        <v>283</v>
-      </c>
-      <c r="D562" s="4">
-        <v>10</v>
-      </c>
-      <c r="E562" s="4">
-        <v>15.7</v>
-      </c>
-      <c r="F562" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="G562">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A563" t="s">
-        <v>625</v>
-      </c>
-      <c r="B563" t="s">
-        <v>670</v>
-      </c>
-      <c r="C563" s="4">
-        <v>420</v>
-      </c>
-      <c r="D563" s="4">
-        <v>6</v>
-      </c>
-      <c r="E563" s="4">
-        <v>15</v>
-      </c>
-      <c r="F563" s="4">
-        <v>66</v>
-      </c>
-      <c r="G563">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A564" t="s">
-        <v>626</v>
-      </c>
-      <c r="B564" t="s">
-        <v>558</v>
-      </c>
-      <c r="C564" s="4">
-        <v>250</v>
-      </c>
-      <c r="D564" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="E564" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F564" s="4">
-        <v>58.5</v>
-      </c>
-      <c r="G564">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A565" t="s">
-        <v>627</v>
-      </c>
-      <c r="B565" t="s">
-        <v>671</v>
-      </c>
-      <c r="C565" s="4">
-        <v>91</v>
-      </c>
-      <c r="D565" s="4">
-        <v>7</v>
-      </c>
-      <c r="E565" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="F565" s="4">
-        <v>66.5</v>
-      </c>
-      <c r="G565">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A566" t="s">
-        <v>628</v>
-      </c>
-      <c r="B566" t="s">
-        <v>672</v>
-      </c>
-      <c r="C566" s="4">
-        <v>459</v>
-      </c>
-      <c r="D566" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E566" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="F566" s="4">
-        <v>51.1</v>
-      </c>
-      <c r="G566">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A567" t="s">
-        <v>629</v>
-      </c>
-      <c r="B567" t="s">
-        <v>421</v>
-      </c>
-      <c r="C567" s="4">
-        <v>420</v>
-      </c>
-      <c r="D567" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="E567" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="F567" s="4">
-        <v>63.5</v>
-      </c>
-      <c r="G567">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A568" t="s">
-        <v>630</v>
-      </c>
-      <c r="B568" t="s">
-        <v>673</v>
-      </c>
-      <c r="C568" s="4">
-        <v>423</v>
-      </c>
-      <c r="D568" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E568" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F568" s="4">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="G568">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A569" t="s">
-        <v>631</v>
-      </c>
-      <c r="B569" t="s">
-        <v>674</v>
-      </c>
-      <c r="C569" s="4">
-        <v>463</v>
-      </c>
-      <c r="D569" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="E569" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="F569" s="4">
-        <v>75</v>
-      </c>
-      <c r="G569">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A570" t="s">
-        <v>632</v>
-      </c>
-      <c r="B570" t="s">
-        <v>675</v>
-      </c>
-      <c r="C570" s="4">
-        <v>463</v>
-      </c>
-      <c r="D570" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="E570" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="F570" s="4">
-        <v>71.2</v>
-      </c>
-      <c r="G570">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A571" t="s">
-        <v>633</v>
-      </c>
-      <c r="B571" t="s">
-        <v>676</v>
-      </c>
-      <c r="C571" s="4">
-        <v>543</v>
-      </c>
-      <c r="D571" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="E571" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="F571" s="4">
-        <v>59.7</v>
-      </c>
-      <c r="G571">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A572" t="s">
-        <v>634</v>
-      </c>
-      <c r="B572" t="s">
-        <v>677</v>
-      </c>
-      <c r="C572" s="4">
-        <v>522</v>
-      </c>
-      <c r="D572" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="E572" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="F572" s="4">
-        <v>57</v>
-      </c>
-      <c r="G572">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A573" t="s">
-        <v>635</v>
-      </c>
-      <c r="B573" t="s">
-        <v>678</v>
-      </c>
-      <c r="C573" s="4">
-        <v>532</v>
-      </c>
-      <c r="D573" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E573" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="F573" s="4">
-        <v>55.6</v>
-      </c>
-      <c r="G573">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A574" t="s">
-        <v>636</v>
-      </c>
-      <c r="B574" t="s">
-        <v>679</v>
-      </c>
-      <c r="C574" s="4">
-        <v>530</v>
-      </c>
-      <c r="D574" s="4">
-        <v>6</v>
-      </c>
-      <c r="E574" s="4">
-        <v>27</v>
-      </c>
-      <c r="F574" s="4">
-        <v>65</v>
-      </c>
-      <c r="G574">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A575" t="s">
-        <v>637</v>
-      </c>
-      <c r="B575" t="s">
-        <v>680</v>
-      </c>
-      <c r="C575" s="4">
-        <v>418</v>
-      </c>
-      <c r="D575" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="E575" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="F575" s="4">
-        <v>49.4</v>
-      </c>
-      <c r="G575">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A576" t="s">
-        <v>638</v>
-      </c>
-      <c r="B576" t="s">
-        <v>681</v>
-      </c>
-      <c r="C576" s="4">
-        <v>328</v>
-      </c>
-      <c r="D576" s="4">
-        <v>9.4</v>
-      </c>
-      <c r="E576" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="F576" s="4">
-        <v>49.4</v>
-      </c>
-      <c r="G576">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A577" t="s">
-        <v>639</v>
-      </c>
-      <c r="B577" t="s">
-        <v>682</v>
-      </c>
-      <c r="C577" s="4">
-        <v>354</v>
-      </c>
-      <c r="D577" s="4">
-        <v>10</v>
-      </c>
-      <c r="E577" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="F577" s="4">
-        <v>56.1</v>
-      </c>
-      <c r="G577">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A578" t="s">
-        <v>640</v>
-      </c>
-      <c r="B578" t="s">
-        <v>683</v>
-      </c>
-      <c r="C578" s="4">
-        <v>374</v>
-      </c>
-      <c r="D578" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="E578" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="F578" s="4">
-        <v>54.3</v>
-      </c>
-      <c r="G578">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
-        <v>641</v>
-      </c>
-      <c r="B579" t="s">
-        <v>684</v>
-      </c>
-      <c r="C579" s="4">
-        <v>320</v>
-      </c>
-      <c r="D579" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="E579" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="F579" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="G579">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
-        <v>642</v>
-      </c>
-      <c r="B580" t="s">
-        <v>685</v>
-      </c>
-      <c r="C580" s="4">
-        <v>394.8</v>
-      </c>
-      <c r="D580" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="E580" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="F580" s="4">
-        <v>51.1</v>
-      </c>
-      <c r="G580">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
-        <v>643</v>
-      </c>
-      <c r="B581" t="s">
-        <v>686</v>
-      </c>
-      <c r="C581" s="4">
-        <v>361</v>
-      </c>
-      <c r="D581" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="E581" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="F581" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="G581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A582" t="s">
-        <v>644</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C582" s="4">
-        <v>387</v>
-      </c>
-      <c r="D582" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="E582" s="4">
-        <v>14</v>
-      </c>
-      <c r="F582" s="4">
-        <v>54</v>
-      </c>
-      <c r="G582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
-        <v>645</v>
-      </c>
-      <c r="B583" t="s">
-        <v>687</v>
-      </c>
-      <c r="C583" s="4">
-        <v>386</v>
-      </c>
-      <c r="D583" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="E583" s="4">
-        <v>12</v>
-      </c>
-      <c r="F583" s="4">
-        <v>59</v>
-      </c>
-      <c r="G583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A584" t="s">
-        <v>646</v>
-      </c>
-      <c r="B584" t="s">
-        <v>688</v>
-      </c>
-      <c r="C584" s="4">
-        <v>508</v>
-      </c>
-      <c r="D584" s="4">
-        <v>6</v>
-      </c>
-      <c r="E584" s="4">
-        <v>24</v>
-      </c>
-      <c r="F584" s="4">
-        <v>66</v>
-      </c>
-      <c r="G584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A585" t="s">
-        <v>647</v>
-      </c>
-      <c r="B585" t="s">
-        <v>689</v>
-      </c>
-      <c r="C585" s="4">
-        <v>495</v>
-      </c>
-      <c r="D585" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="E585" s="4">
-        <v>23.1</v>
-      </c>
-      <c r="F585" s="4">
-        <v>62.7</v>
-      </c>
-      <c r="G585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A586" t="s">
-        <v>648</v>
-      </c>
-      <c r="B586" t="s">
-        <v>422</v>
-      </c>
-      <c r="C586" s="4">
-        <v>510</v>
-      </c>
-      <c r="D586" s="4">
-        <v>3</v>
-      </c>
-      <c r="E586" s="4">
-        <v>24</v>
-      </c>
-      <c r="F586" s="4">
-        <v>66</v>
-      </c>
-      <c r="G586">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
-        <v>649</v>
-      </c>
-      <c r="B587" t="s">
-        <v>690</v>
-      </c>
-      <c r="C587" s="4">
-        <v>480</v>
-      </c>
-      <c r="D587" s="4">
-        <v>10</v>
-      </c>
-      <c r="E587" s="4">
-        <v>19</v>
-      </c>
-      <c r="F587" s="4">
-        <v>70</v>
-      </c>
-      <c r="G587">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A588" t="s">
-        <v>650</v>
-      </c>
-      <c r="B588" t="s">
-        <v>691</v>
-      </c>
-      <c r="C588" s="4">
-        <v>519</v>
-      </c>
-      <c r="D588" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="E588" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="F588" s="4">
-        <v>57.3</v>
-      </c>
-      <c r="G588">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A589" t="s">
-        <v>651</v>
-      </c>
-      <c r="B589" t="s">
-        <v>692</v>
-      </c>
-      <c r="C589" s="4">
-        <v>363</v>
-      </c>
-      <c r="D589" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="E589" s="4">
-        <v>0</v>
-      </c>
-      <c r="F589" s="4">
-        <v>82.5</v>
-      </c>
-      <c r="G589">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A590" t="s">
-        <v>652</v>
-      </c>
-      <c r="B590" t="s">
-        <v>693</v>
-      </c>
-      <c r="C590" s="4">
-        <v>415</v>
-      </c>
-      <c r="D590" s="4">
-        <v>0</v>
-      </c>
-      <c r="E590" s="4">
-        <v>0</v>
-      </c>
-      <c r="F590" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="G590">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A591" t="s">
-        <v>653</v>
-      </c>
-      <c r="B591" t="s">
-        <v>694</v>
-      </c>
-      <c r="C591" s="4">
-        <v>440</v>
-      </c>
-      <c r="D591" s="4">
-        <v>0</v>
-      </c>
-      <c r="E591" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="F591" s="4">
-        <v>88</v>
-      </c>
-      <c r="G591">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A592" t="s">
-        <v>654</v>
-      </c>
-      <c r="B592" t="s">
-        <v>695</v>
-      </c>
-      <c r="C592" s="4">
-        <v>264</v>
-      </c>
-      <c r="D592" s="4">
-        <v>5</v>
-      </c>
-      <c r="E592" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F592" s="4">
-        <v>67</v>
-      </c>
-      <c r="G592">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
-        <v>655</v>
-      </c>
-      <c r="B593" t="s">
-        <v>696</v>
-      </c>
-      <c r="C593" s="4">
-        <v>1119</v>
-      </c>
-      <c r="D593" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="E593" s="4">
-        <v>72</v>
-      </c>
-      <c r="F593" s="4">
-        <v>107</v>
-      </c>
-      <c r="G593">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A594" t="s">
-        <v>656</v>
-      </c>
-      <c r="B594" t="s">
-        <v>697</v>
-      </c>
-      <c r="C594" s="4">
-        <v>241</v>
-      </c>
-      <c r="D594" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="E594" s="4">
-        <v>0</v>
-      </c>
-      <c r="F594" s="4">
-        <v>58</v>
-      </c>
-      <c r="G594">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A595" t="s">
-        <v>657</v>
-      </c>
-      <c r="B595" t="s">
-        <v>698</v>
-      </c>
-      <c r="C595" s="4">
-        <v>48</v>
-      </c>
-      <c r="D595" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E595" s="4">
-        <v>1</v>
-      </c>
-      <c r="F595" s="4">
-        <v>9</v>
-      </c>
-      <c r="G595">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A596" t="s">
-        <v>658</v>
-      </c>
-      <c r="B596" t="s">
-        <v>699</v>
-      </c>
-      <c r="C596" s="4">
-        <v>508</v>
-      </c>
-      <c r="D596" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="E596" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="F596" s="4">
-        <v>65.3</v>
-      </c>
-      <c r="G596">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A597" t="s">
-        <v>659</v>
-      </c>
-      <c r="B597" t="s">
-        <v>700</v>
-      </c>
-      <c r="C597" s="4">
-        <v>468.6</v>
-      </c>
-      <c r="D597" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="E597" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="F597" s="4">
-        <v>62.7</v>
-      </c>
-      <c r="G597">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A598" t="s">
-        <v>660</v>
-      </c>
-      <c r="B598" t="s">
-        <v>701</v>
-      </c>
-      <c r="C598" s="4">
-        <v>550</v>
-      </c>
-      <c r="D598" s="4">
-        <v>6</v>
-      </c>
-      <c r="E598" s="4">
-        <v>34</v>
-      </c>
-      <c r="F598" s="4">
-        <v>56</v>
-      </c>
-      <c r="G598">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A599" t="s">
-        <v>661</v>
-      </c>
-      <c r="B599" t="s">
-        <v>702</v>
-      </c>
-      <c r="C599" s="4">
-        <v>549</v>
-      </c>
-      <c r="D599" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E599" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="F599" s="4">
-        <v>56.1</v>
-      </c>
-      <c r="G599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A600" t="s">
-        <v>662</v>
-      </c>
-      <c r="B600" t="s">
-        <v>703</v>
-      </c>
-      <c r="C600" s="4">
-        <v>540</v>
-      </c>
-      <c r="D600" s="4">
-        <v>8</v>
-      </c>
-      <c r="E600" s="4">
-        <v>32</v>
-      </c>
-      <c r="F600" s="4">
-        <v>56</v>
-      </c>
-      <c r="G600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A601" t="s">
-        <v>663</v>
-      </c>
-      <c r="B601" t="s">
-        <v>704</v>
-      </c>
-      <c r="C601" s="4">
-        <v>520</v>
-      </c>
-      <c r="D601" s="4">
-        <v>8</v>
-      </c>
-      <c r="E601" s="4">
-        <v>28</v>
-      </c>
-      <c r="F601" s="4">
-        <v>60</v>
-      </c>
-      <c r="G601">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
-        <v>664</v>
-      </c>
-      <c r="B602" t="s">
-        <v>705</v>
-      </c>
-      <c r="C602" s="4">
-        <v>419.1</v>
-      </c>
-      <c r="D602" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="E602" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F602" s="4">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="G602">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A603" t="s">
-        <v>665</v>
-      </c>
-      <c r="B603" t="s">
-        <v>706</v>
-      </c>
-      <c r="C603" s="4">
-        <v>500</v>
-      </c>
-      <c r="D603" s="4">
-        <v>10</v>
-      </c>
-      <c r="E603" s="4">
-        <v>26</v>
-      </c>
-      <c r="F603" s="4">
-        <v>60</v>
-      </c>
-      <c r="G603">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A604" t="s">
-        <v>666</v>
-      </c>
-      <c r="B604" t="s">
-        <v>707</v>
-      </c>
-      <c r="C604" s="4">
-        <v>480</v>
-      </c>
-      <c r="D604" s="4">
-        <v>4</v>
-      </c>
-      <c r="E604" s="4">
-        <v>20</v>
-      </c>
-      <c r="F604" s="4">
-        <v>668</v>
-      </c>
-      <c r="G604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A605" t="s">
-        <v>667</v>
-      </c>
-      <c r="B605" t="s">
-        <v>708</v>
-      </c>
-      <c r="C605" s="4">
-        <v>392</v>
-      </c>
-      <c r="D605" s="4">
-        <v>0</v>
-      </c>
-      <c r="E605" s="4">
-        <v>0</v>
-      </c>
-      <c r="F605" s="4">
-        <v>100</v>
-      </c>
-      <c r="G605">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A606" t="s">
-        <v>709</v>
-      </c>
-      <c r="B606" t="s">
-        <v>736</v>
-      </c>
-      <c r="C606" s="4">
-        <v>357.5</v>
-      </c>
-      <c r="D606" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="E606" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="F606" s="4">
-        <v>70.7</v>
-      </c>
-      <c r="G606">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A607" t="s">
-        <v>710</v>
-      </c>
-      <c r="B607" t="s">
-        <v>737</v>
-      </c>
-      <c r="C607" s="4">
-        <v>68.5</v>
-      </c>
-      <c r="D607" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="E607" s="4">
-        <v>0</v>
-      </c>
-      <c r="F607" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="G607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A608" t="s">
-        <v>711</v>
-      </c>
-      <c r="B608" t="s">
-        <v>738</v>
-      </c>
-      <c r="C608" s="4">
-        <v>54.8</v>
-      </c>
-      <c r="D608" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E608" s="4">
-        <v>0</v>
-      </c>
-      <c r="F608" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="G608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A609" t="s">
-        <v>712</v>
-      </c>
-      <c r="B609" t="s">
-        <v>739</v>
-      </c>
-      <c r="C609" s="4">
-        <v>68.5</v>
-      </c>
-      <c r="D609" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E609" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F609" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="G609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A610" t="s">
-        <v>713</v>
-      </c>
-      <c r="B610" t="s">
-        <v>740</v>
-      </c>
-      <c r="C610" s="4">
-        <v>60.3</v>
-      </c>
-      <c r="D610" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="E610" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F610" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A611" t="s">
-        <v>714</v>
-      </c>
-      <c r="B611" t="s">
-        <v>741</v>
-      </c>
-      <c r="C611" s="4">
-        <v>52.1</v>
-      </c>
-      <c r="D611" s="4">
-        <v>3</v>
-      </c>
-      <c r="E611" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F611" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="G611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A612" t="s">
-        <v>715</v>
-      </c>
-      <c r="B612" t="s">
-        <v>742</v>
-      </c>
-      <c r="C612" s="4">
-        <v>60.3</v>
-      </c>
-      <c r="D612" s="4">
-        <v>2</v>
-      </c>
-      <c r="E612" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F612" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="G612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A613" t="s">
-        <v>716</v>
-      </c>
-      <c r="B613" t="s">
-        <v>743</v>
-      </c>
-      <c r="C613" s="4">
-        <v>388.6</v>
-      </c>
-      <c r="D613" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E613" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="F613" s="4">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="G613">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A614" t="s">
-        <v>717</v>
-      </c>
-      <c r="B614" t="s">
-        <v>744</v>
-      </c>
-      <c r="C614" s="4">
-        <v>453.7</v>
-      </c>
-      <c r="D614" s="4">
-        <v>9.4</v>
-      </c>
-      <c r="E614" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F614" s="4">
-        <v>60</v>
-      </c>
-      <c r="G614">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A615" t="s">
-        <v>718</v>
-      </c>
-      <c r="B615" t="s">
-        <v>745</v>
-      </c>
-      <c r="C615" s="4">
-        <v>444.4</v>
-      </c>
-      <c r="D615" s="4">
-        <v>9.4</v>
-      </c>
-      <c r="E615" s="4">
-        <v>16</v>
-      </c>
-      <c r="F615" s="4">
-        <v>65.7</v>
-      </c>
-      <c r="G615">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A616" t="s">
-        <v>719</v>
-      </c>
-      <c r="B616" t="s">
-        <v>746</v>
-      </c>
-      <c r="C616" s="4">
-        <v>451.4</v>
-      </c>
-      <c r="D616" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E616" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="F616" s="4">
-        <v>65.5</v>
-      </c>
-      <c r="G616">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A617" t="s">
-        <v>720</v>
-      </c>
-      <c r="B617" t="s">
-        <v>747</v>
-      </c>
-      <c r="C617" s="4">
-        <v>451.4</v>
-      </c>
-      <c r="D617" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="E617" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="F617" s="4">
-        <v>64.5</v>
-      </c>
-      <c r="G617">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A618" t="s">
-        <v>721</v>
-      </c>
-      <c r="B618" t="s">
-        <v>748</v>
-      </c>
-      <c r="C618" s="4">
-        <v>487.8</v>
-      </c>
-      <c r="D618" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="E618" s="4">
-        <v>21.9</v>
-      </c>
-      <c r="F618" s="4">
-        <v>62.3</v>
-      </c>
-      <c r="G618">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A619" t="s">
-        <v>722</v>
-      </c>
-      <c r="B619" t="s">
-        <v>749</v>
-      </c>
-      <c r="C619" s="4">
-        <v>485.1</v>
-      </c>
-      <c r="D619" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="E619" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F619" s="4">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="G619">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A620" t="s">
-        <v>723</v>
-      </c>
-      <c r="B620" t="s">
-        <v>750</v>
-      </c>
-      <c r="C620" s="4">
-        <v>447.3</v>
-      </c>
-      <c r="D620" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="E620" s="4">
-        <v>17</v>
-      </c>
-      <c r="F620" s="4">
-        <v>63.8</v>
-      </c>
-      <c r="G620">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A621" t="s">
-        <v>724</v>
-      </c>
-      <c r="B621" t="s">
-        <v>751</v>
-      </c>
-      <c r="C621" s="4">
-        <v>456.6</v>
-      </c>
-      <c r="D621" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E621" s="4">
-        <v>17.3</v>
-      </c>
-      <c r="F621" s="4">
-        <v>68.5</v>
-      </c>
-      <c r="G621">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A622" t="s">
-        <v>725</v>
-      </c>
-      <c r="B622" t="s">
-        <v>752</v>
-      </c>
-      <c r="C622" s="4">
-        <v>471.6</v>
-      </c>
-      <c r="D622" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E622" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="F622" s="4">
-        <v>60.7</v>
-      </c>
-      <c r="G622">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A623" t="s">
-        <v>726</v>
-      </c>
-      <c r="B623" t="s">
-        <v>753</v>
-      </c>
-      <c r="C623" s="4">
-        <v>439.2</v>
-      </c>
-      <c r="D623" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E623" s="4">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F623" s="4">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="G623">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A624" t="s">
-        <v>727</v>
-      </c>
-      <c r="B624" t="s">
-        <v>754</v>
-      </c>
-      <c r="C624" s="4">
-        <v>428.8</v>
-      </c>
-      <c r="D624" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E624" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="F624" s="4">
-        <v>59.8</v>
-      </c>
-      <c r="G624">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A625" t="s">
-        <v>728</v>
-      </c>
-      <c r="B625" t="s">
-        <v>755</v>
-      </c>
-      <c r="C625" s="4">
-        <v>436</v>
-      </c>
-      <c r="D625" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="E625" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="F625" s="4">
-        <v>61.1</v>
-      </c>
-      <c r="G625">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A626" t="s">
-        <v>729</v>
-      </c>
-      <c r="B626" t="s">
-        <v>756</v>
-      </c>
-      <c r="C626" s="4">
-        <v>381.3</v>
-      </c>
-      <c r="D626" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="E626" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="F626" s="4">
-        <v>66</v>
-      </c>
-      <c r="G626">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A627" t="s">
-        <v>730</v>
-      </c>
-      <c r="B627" t="s">
-        <v>757</v>
-      </c>
-      <c r="C627" s="4">
-        <v>441.9</v>
-      </c>
-      <c r="D627" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E627" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="F627" s="4">
-        <v>65.7</v>
-      </c>
-      <c r="G627">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A628" t="s">
-        <v>731</v>
-      </c>
-      <c r="B628" t="s">
-        <v>758</v>
-      </c>
-      <c r="C628" s="4">
-        <v>432.3</v>
-      </c>
-      <c r="D628" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="E628" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="F628" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="G628">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A629" t="s">
-        <v>732</v>
-      </c>
-      <c r="B629" t="s">
-        <v>759</v>
-      </c>
-      <c r="C629" s="4">
-        <v>416.7</v>
-      </c>
-      <c r="D629" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E629" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F629" s="4">
-        <v>54.9</v>
-      </c>
-      <c r="G629">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A630" t="s">
-        <v>733</v>
-      </c>
-      <c r="B630" t="s">
-        <v>760</v>
-      </c>
-      <c r="C630" s="4">
-        <v>472.9</v>
-      </c>
-      <c r="D630" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="E630" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="F630" s="4">
-        <v>58.7</v>
-      </c>
-      <c r="G630">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A631" t="s">
-        <v>734</v>
-      </c>
-      <c r="B631" t="s">
-        <v>761</v>
-      </c>
-      <c r="C631" s="4">
-        <v>351.7</v>
-      </c>
-      <c r="D631" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E631" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="F631" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="G631">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A632" t="s">
-        <v>735</v>
-      </c>
-      <c r="B632" t="s">
-        <v>762</v>
-      </c>
-      <c r="C632" s="4">
-        <v>384.6</v>
-      </c>
-      <c r="D632" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="E632" s="4">
-        <v>10</v>
-      </c>
-      <c r="F632" s="4">
-        <v>66.8</v>
-      </c>
-      <c r="G632">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A633" t="s">
-        <v>772</v>
-      </c>
-      <c r="B633" t="s">
-        <v>788</v>
-      </c>
-      <c r="C633" s="4">
-        <v>283</v>
-      </c>
-      <c r="D633" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E633" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="F633" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="G633">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A634" t="s">
-        <v>773</v>
-      </c>
-      <c r="B634" t="s">
-        <v>789</v>
-      </c>
-      <c r="C634" s="4">
-        <v>273</v>
-      </c>
-      <c r="D634" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E634" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="F634" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="G634">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A635" t="s">
-        <v>774</v>
-      </c>
-      <c r="B635" t="s">
-        <v>790</v>
-      </c>
-      <c r="C635" s="4">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="D635" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E635" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F635" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="G635">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A636" t="s">
-        <v>775</v>
-      </c>
-      <c r="B636" t="s">
-        <v>791</v>
-      </c>
-      <c r="C636" s="4">
-        <v>166.7</v>
-      </c>
-      <c r="D636" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="E636" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="F636" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="G636">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A637" t="s">
-        <v>776</v>
-      </c>
-      <c r="B637" t="s">
-        <v>792</v>
-      </c>
-      <c r="C637" s="4">
-        <v>166.5</v>
-      </c>
-      <c r="D637" s="4">
-        <v>2</v>
-      </c>
-      <c r="E637" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="F637" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="G637">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A638" t="s">
-        <v>777</v>
-      </c>
-      <c r="B638" t="s">
-        <v>793</v>
-      </c>
-      <c r="C638" s="4">
-        <v>244.2</v>
-      </c>
-      <c r="D638" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="E638" s="4">
-        <v>17</v>
-      </c>
-      <c r="F638" s="4">
-        <v>21</v>
-      </c>
-      <c r="G638">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A639" t="s">
-        <v>778</v>
-      </c>
-      <c r="B639" t="s">
-        <v>794</v>
-      </c>
-      <c r="C639" s="4">
-        <v>163.4</v>
-      </c>
-      <c r="D639" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E639" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F639" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="G639">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A640" t="s">
-        <v>779</v>
-      </c>
-      <c r="B640" t="s">
-        <v>795</v>
-      </c>
-      <c r="C640" s="4">
-        <v>169.8</v>
-      </c>
-      <c r="D640" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="E640" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="F640" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="G640">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A641" t="s">
-        <v>780</v>
-      </c>
-      <c r="B641" t="s">
-        <v>796</v>
-      </c>
-      <c r="C641" s="4">
-        <v>284.10000000000002</v>
-      </c>
-      <c r="D641" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E641" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="F641" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="G641">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A642" t="s">
-        <v>781</v>
-      </c>
-      <c r="B642" t="s">
-        <v>797</v>
-      </c>
-      <c r="C642" s="4">
-        <v>126.6</v>
-      </c>
-      <c r="D642" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="E642" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="F642" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="G642">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A643" t="s">
-        <v>782</v>
-      </c>
-      <c r="B643" t="s">
-        <v>798</v>
-      </c>
-      <c r="C643" s="4">
-        <v>166.5</v>
-      </c>
-      <c r="D643" s="4">
-        <v>2</v>
-      </c>
-      <c r="E643" s="4">
-        <v>8</v>
-      </c>
-      <c r="F643" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="G643">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A644" t="s">
-        <v>783</v>
-      </c>
-      <c r="B644" t="s">
-        <v>799</v>
-      </c>
-      <c r="C644" s="4">
-        <v>160.4</v>
-      </c>
-      <c r="D644" s="4">
-        <v>2</v>
-      </c>
-      <c r="E644" s="4">
-        <v>8</v>
-      </c>
-      <c r="F644" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G644">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A645" t="s">
-        <v>784</v>
-      </c>
-      <c r="B645" t="s">
-        <v>800</v>
-      </c>
-      <c r="C645" s="4">
-        <v>168</v>
-      </c>
-      <c r="D645" s="4">
-        <v>2</v>
-      </c>
-      <c r="E645" s="4">
-        <v>8</v>
-      </c>
-      <c r="F645" s="4">
-        <v>22</v>
-      </c>
-      <c r="G645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A646" t="s">
-        <v>785</v>
-      </c>
-      <c r="B646" t="s">
-        <v>801</v>
-      </c>
-      <c r="C646" s="4">
-        <v>165.2</v>
-      </c>
-      <c r="D646" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="E646" s="4">
-        <v>8</v>
-      </c>
-      <c r="F646" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="G646">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A647" t="s">
-        <v>786</v>
-      </c>
-      <c r="B647" t="s">
-        <v>802</v>
-      </c>
-      <c r="C647" s="4">
-        <v>138</v>
-      </c>
-      <c r="D647" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="E647" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="F647" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="G647">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A648" t="s">
-        <v>787</v>
-      </c>
-      <c r="B648" t="s">
-        <v>803</v>
-      </c>
-      <c r="C648" s="4">
-        <v>165.2</v>
-      </c>
-      <c r="D648" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="E648" s="4">
-        <v>8</v>
-      </c>
-      <c r="F648" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="G648">
         <v>0</v>
       </c>
     </row>
@@ -22032,10 +19985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52B376-B4BF-CF4C-B4B6-CFDB45A364D3}">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22049,7 +20002,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1254</v>
+        <v>1165</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -22072,10 +20025,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1255</v>
+        <v>1166</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>821</v>
       </c>
       <c r="C2" s="5">
         <v>158.91304347826085</v>
@@ -22095,10 +20048,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1256</v>
+        <v>1167</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>822</v>
       </c>
       <c r="C3" s="5">
         <v>303.64705882352945</v>
@@ -22118,10 +20071,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1257</v>
+        <v>1168</v>
       </c>
       <c r="B4" t="s">
-        <v>912</v>
+        <v>823</v>
       </c>
       <c r="C4" s="5">
         <v>238.00000000000003</v>
@@ -22141,10 +20094,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1258</v>
+        <v>1169</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>824</v>
       </c>
       <c r="C5" s="5">
         <v>143.08868501529051</v>
@@ -22164,10 +20117,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1259</v>
+        <v>1170</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>825</v>
       </c>
       <c r="C6" s="5">
         <v>139.16666666666666</v>
@@ -22187,10 +20140,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1260</v>
+        <v>1171</v>
       </c>
       <c r="B7" t="s">
-        <v>915</v>
+        <v>826</v>
       </c>
       <c r="C7" s="5">
         <v>353.15789473684208</v>
@@ -22210,10 +20163,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1261</v>
+        <v>1172</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>827</v>
       </c>
       <c r="C8" s="5">
         <v>218.9940828402367</v>
@@ -22233,10 +20186,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1262</v>
+        <v>1173</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>828</v>
       </c>
       <c r="C9" s="5">
         <v>182.81150159744411</v>
@@ -22256,10 +20209,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1263</v>
+        <v>1174</v>
       </c>
       <c r="B10" t="s">
-        <v>918</v>
+        <v>829</v>
       </c>
       <c r="C10" s="5">
         <v>374.69135802469134</v>
@@ -22279,10 +20232,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1264</v>
+        <v>1175</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>830</v>
       </c>
       <c r="C11" s="5">
         <v>198.31858407079645</v>
@@ -22302,10 +20255,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1265</v>
+        <v>1176</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>831</v>
       </c>
       <c r="C12" s="5">
         <v>358.76404494382024</v>
@@ -22325,10 +20278,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1266</v>
+        <v>1177</v>
       </c>
       <c r="B13" t="s">
-        <v>921</v>
+        <v>832</v>
       </c>
       <c r="C13" s="5">
         <v>293.18181818181819</v>
@@ -22348,10 +20301,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1267</v>
+        <v>1178</v>
       </c>
       <c r="B14" t="s">
-        <v>922</v>
+        <v>833</v>
       </c>
       <c r="C14" s="5">
         <v>380.68181818181819</v>
@@ -22371,10 +20324,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1268</v>
+        <v>1179</v>
       </c>
       <c r="B15" t="s">
-        <v>923</v>
+        <v>834</v>
       </c>
       <c r="C15" s="5">
         <v>411.53061224489795</v>
@@ -22394,10 +20347,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1269</v>
+        <v>1180</v>
       </c>
       <c r="B16" t="s">
-        <v>924</v>
+        <v>835</v>
       </c>
       <c r="C16" s="5">
         <v>261.48936170212767</v>
@@ -22417,10 +20370,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1270</v>
+        <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>925</v>
+        <v>836</v>
       </c>
       <c r="C17" s="5">
         <v>218.1512605042017</v>
@@ -22440,10 +20393,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1271</v>
+        <v>1182</v>
       </c>
       <c r="B18" t="s">
-        <v>926</v>
+        <v>837</v>
       </c>
       <c r="C18" s="5">
         <v>355</v>
@@ -22463,10 +20416,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1272</v>
+        <v>1183</v>
       </c>
       <c r="B19" t="s">
-        <v>927</v>
+        <v>838</v>
       </c>
       <c r="C19" s="5">
         <v>194.07407407407408</v>
@@ -22486,10 +20439,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1273</v>
+        <v>1184</v>
       </c>
       <c r="B20" t="s">
-        <v>928</v>
+        <v>839</v>
       </c>
       <c r="C20" s="5">
         <v>330</v>
@@ -22509,10 +20462,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1274</v>
+        <v>1185</v>
       </c>
       <c r="B21" t="s">
-        <v>929</v>
+        <v>840</v>
       </c>
       <c r="C21" s="5">
         <v>226.53333333333333</v>
@@ -22532,10 +20485,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1275</v>
+        <v>1186</v>
       </c>
       <c r="B22" t="s">
-        <v>930</v>
+        <v>841</v>
       </c>
       <c r="C22" s="5">
         <v>269.91228070175441</v>
@@ -22555,10 +20508,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1276</v>
+        <v>1187</v>
       </c>
       <c r="B23" t="s">
-        <v>931</v>
+        <v>842</v>
       </c>
       <c r="C23" s="5">
         <v>341.11111111111109</v>
@@ -22578,10 +20531,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1277</v>
+        <v>1188</v>
       </c>
       <c r="B24" t="s">
-        <v>932</v>
+        <v>843</v>
       </c>
       <c r="C24" s="5">
         <v>307.86982248520707</v>
@@ -22601,10 +20554,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1278</v>
+        <v>1189</v>
       </c>
       <c r="B25" t="s">
-        <v>933</v>
+        <v>844</v>
       </c>
       <c r="C25" s="5">
         <v>244</v>
@@ -22624,10 +20577,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1279</v>
+        <v>1190</v>
       </c>
       <c r="B26" t="s">
-        <v>934</v>
+        <v>845</v>
       </c>
       <c r="C26" s="5">
         <v>315.23809523809524</v>
@@ -22647,10 +20600,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1280</v>
+        <v>1191</v>
       </c>
       <c r="B27" t="s">
-        <v>935</v>
+        <v>846</v>
       </c>
       <c r="C27" s="5">
         <v>321.16279069767444</v>
@@ -22670,10 +20623,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1281</v>
+        <v>1192</v>
       </c>
       <c r="B28" t="s">
-        <v>936</v>
+        <v>847</v>
       </c>
       <c r="C28" s="5">
         <v>446.45833333333331</v>
@@ -22693,10 +20646,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1282</v>
+        <v>1193</v>
       </c>
       <c r="B29" t="s">
-        <v>937</v>
+        <v>848</v>
       </c>
       <c r="C29" s="5">
         <v>301.59292035398232</v>
@@ -22716,10 +20669,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1283</v>
+        <v>1194</v>
       </c>
       <c r="B30" t="s">
-        <v>938</v>
+        <v>849</v>
       </c>
       <c r="C30" s="5">
         <v>381.85185185185185</v>
@@ -22739,10 +20692,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1284</v>
+        <v>1195</v>
       </c>
       <c r="B31" t="s">
-        <v>939</v>
+        <v>850</v>
       </c>
       <c r="C31" s="5">
         <v>373.52941176470586</v>
@@ -22762,10 +20715,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1285</v>
+        <v>1196</v>
       </c>
       <c r="B32" t="s">
-        <v>940</v>
+        <v>851</v>
       </c>
       <c r="C32" s="5">
         <v>310.875</v>
@@ -22785,10 +20738,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1286</v>
+        <v>1197</v>
       </c>
       <c r="B33" t="s">
-        <v>941</v>
+        <v>852</v>
       </c>
       <c r="C33" s="5">
         <v>420</v>
@@ -22808,10 +20761,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1287</v>
+        <v>1198</v>
       </c>
       <c r="B34" t="s">
-        <v>942</v>
+        <v>853</v>
       </c>
       <c r="C34" s="5">
         <v>407.3170731707317</v>
@@ -22831,10 +20784,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1288</v>
+        <v>1199</v>
       </c>
       <c r="B35" t="s">
-        <v>943</v>
+        <v>854</v>
       </c>
       <c r="C35" s="5">
         <v>332.94117647058823</v>
@@ -22854,10 +20807,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1289</v>
+        <v>1200</v>
       </c>
       <c r="B36" t="s">
-        <v>944</v>
+        <v>855</v>
       </c>
       <c r="C36" s="5">
         <v>290.73170731707319</v>
@@ -22877,10 +20830,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1290</v>
+        <v>1201</v>
       </c>
       <c r="B37" t="s">
-        <v>945</v>
+        <v>856</v>
       </c>
       <c r="C37" s="5">
         <v>176.62835249042146</v>
@@ -22900,10 +20853,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1291</v>
+        <v>1202</v>
       </c>
       <c r="B38" t="s">
-        <v>946</v>
+        <v>857</v>
       </c>
       <c r="C38" s="5">
         <v>199.77987421383645</v>
@@ -22923,10 +20876,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1292</v>
+        <v>1203</v>
       </c>
       <c r="B39" t="s">
-        <v>947</v>
+        <v>858</v>
       </c>
       <c r="C39" s="5">
         <v>151.73020527859236</v>
@@ -22946,10 +20899,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1293</v>
+        <v>1204</v>
       </c>
       <c r="B40" t="s">
-        <v>948</v>
+        <v>859</v>
       </c>
       <c r="C40" s="5">
         <v>196</v>
@@ -22969,10 +20922,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1294</v>
+        <v>1205</v>
       </c>
       <c r="B41" t="s">
-        <v>949</v>
+        <v>860</v>
       </c>
       <c r="C41" s="5">
         <v>140.56603773584905</v>
@@ -22992,10 +20945,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1295</v>
+        <v>1206</v>
       </c>
       <c r="B42" t="s">
-        <v>950</v>
+        <v>861</v>
       </c>
       <c r="C42" s="5">
         <v>148.81355932203391</v>
@@ -23015,10 +20968,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1296</v>
+        <v>1207</v>
       </c>
       <c r="B43" t="s">
-        <v>951</v>
+        <v>862</v>
       </c>
       <c r="C43" s="5">
         <v>120.31578947368421</v>
@@ -23038,10 +20991,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1297</v>
+        <v>1208</v>
       </c>
       <c r="B44" t="s">
-        <v>952</v>
+        <v>863</v>
       </c>
       <c r="C44" s="5">
         <v>61.160714285714285</v>
@@ -23061,10 +21014,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1298</v>
+        <v>1209</v>
       </c>
       <c r="B45" t="s">
-        <v>953</v>
+        <v>864</v>
       </c>
       <c r="C45" s="5">
         <v>136.82215743440233</v>
@@ -23084,10 +21037,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1299</v>
+        <v>1210</v>
       </c>
       <c r="B46" t="s">
-        <v>954</v>
+        <v>865</v>
       </c>
       <c r="C46" s="5">
         <v>127.55813953488372</v>
@@ -23107,10 +21060,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1300</v>
+        <v>1211</v>
       </c>
       <c r="B47" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="C47" s="5">
         <v>115.17509727626459</v>
@@ -23130,10 +21083,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1301</v>
+        <v>1212</v>
       </c>
       <c r="B48" t="s">
-        <v>956</v>
+        <v>867</v>
       </c>
       <c r="C48" s="5">
         <v>115.42682926829268</v>
@@ -23153,10 +21106,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1302</v>
+        <v>1213</v>
       </c>
       <c r="B49" t="s">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="C49" s="5">
         <v>96.006006006006004</v>
@@ -23176,10 +21129,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1303</v>
+        <v>1214</v>
       </c>
       <c r="B50" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
       <c r="C50" s="5">
         <v>111.95928753180661</v>
@@ -23199,10 +21152,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1304</v>
+        <v>1215</v>
       </c>
       <c r="B51" t="s">
-        <v>959</v>
+        <v>870</v>
       </c>
       <c r="C51" s="5">
         <v>115.90909090909091</v>
@@ -23222,10 +21175,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1305</v>
+        <v>1216</v>
       </c>
       <c r="B52" t="s">
-        <v>960</v>
+        <v>871</v>
       </c>
       <c r="C52" s="5">
         <v>386.27906976744185</v>
@@ -23245,10 +21198,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1306</v>
+        <v>1217</v>
       </c>
       <c r="B53" t="s">
-        <v>961</v>
+        <v>872</v>
       </c>
       <c r="C53" s="5">
         <v>115.59139784946237</v>
@@ -23268,10 +21221,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1307</v>
+        <v>1218</v>
       </c>
       <c r="B54" t="s">
-        <v>962</v>
+        <v>873</v>
       </c>
       <c r="C54" s="5">
         <v>113.03448275862068</v>
@@ -23291,10 +21244,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1308</v>
+        <v>1219</v>
       </c>
       <c r="B55" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
       <c r="C55" s="5">
         <v>110.99999999999999</v>
@@ -23314,10 +21267,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1309</v>
+        <v>1220</v>
       </c>
       <c r="B56" t="s">
-        <v>964</v>
+        <v>875</v>
       </c>
       <c r="C56" s="5">
         <v>208.0952380952381</v>
@@ -23337,10 +21290,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1310</v>
+        <v>1221</v>
       </c>
       <c r="B57" t="s">
-        <v>965</v>
+        <v>876</v>
       </c>
       <c r="C57" s="5">
         <v>147.11442786069651</v>
@@ -23360,10 +21313,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1311</v>
+        <v>1222</v>
       </c>
       <c r="B58" t="s">
-        <v>966</v>
+        <v>877</v>
       </c>
       <c r="C58" s="5">
         <v>109.16666666666667</v>
@@ -23383,10 +21336,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1312</v>
+        <v>1223</v>
       </c>
       <c r="B59" t="s">
-        <v>967</v>
+        <v>878</v>
       </c>
       <c r="C59" s="5">
         <v>124.16666666666667</v>
@@ -23406,10 +21359,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1313</v>
+        <v>1224</v>
       </c>
       <c r="B60" t="s">
-        <v>969</v>
+        <v>880</v>
       </c>
       <c r="C60" s="5">
         <v>137.65151515151516</v>
@@ -23429,10 +21382,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1314</v>
+        <v>1225</v>
       </c>
       <c r="B61" t="s">
-        <v>970</v>
+        <v>881</v>
       </c>
       <c r="C61" s="5">
         <v>175.65789473684211</v>
@@ -23452,10 +21405,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1315</v>
+        <v>1226</v>
       </c>
       <c r="B62" t="s">
-        <v>971</v>
+        <v>882</v>
       </c>
       <c r="C62" s="5">
         <v>55.653846153846146</v>
@@ -23475,10 +21428,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1316</v>
+        <v>1227</v>
       </c>
       <c r="B63" t="s">
-        <v>972</v>
+        <v>883</v>
       </c>
       <c r="C63" s="5">
         <v>70.592592592592595</v>
@@ -23498,10 +21451,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1317</v>
+        <v>1228</v>
       </c>
       <c r="B64" t="s">
-        <v>973</v>
+        <v>884</v>
       </c>
       <c r="C64" s="5">
         <v>37.833333333333336</v>
@@ -23521,10 +21474,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1318</v>
+        <v>1229</v>
       </c>
       <c r="B65" t="s">
-        <v>974</v>
+        <v>885</v>
       </c>
       <c r="C65" s="5">
         <v>45.108695652173914</v>
@@ -23544,10 +21497,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1319</v>
+        <v>1230</v>
       </c>
       <c r="B66" t="s">
-        <v>975</v>
+        <v>886</v>
       </c>
       <c r="C66" s="5">
         <v>16</v>
@@ -23567,10 +21520,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1320</v>
+        <v>1231</v>
       </c>
       <c r="B67" t="s">
-        <v>976</v>
+        <v>887</v>
       </c>
       <c r="C67" s="5">
         <v>78.409090909090907</v>
@@ -23590,10 +21543,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1321</v>
+        <v>1232</v>
       </c>
       <c r="B68" t="s">
-        <v>977</v>
+        <v>888</v>
       </c>
       <c r="C68" s="5">
         <v>67.31343283582089</v>
@@ -23613,10 +21566,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1322</v>
+        <v>1233</v>
       </c>
       <c r="B69" t="s">
-        <v>978</v>
+        <v>889</v>
       </c>
       <c r="C69" s="5">
         <v>102.73972602739725</v>
@@ -23636,10 +21589,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1323</v>
+        <v>1234</v>
       </c>
       <c r="B70" t="s">
-        <v>979</v>
+        <v>890</v>
       </c>
       <c r="C70" s="5">
         <v>54.639175257731956</v>
@@ -23659,10 +21612,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1324</v>
+        <v>1235</v>
       </c>
       <c r="B71" t="s">
-        <v>980</v>
+        <v>891</v>
       </c>
       <c r="C71" s="5">
         <v>25.555555555555557</v>
@@ -23682,10 +21635,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1325</v>
+        <v>1236</v>
       </c>
       <c r="B72" t="s">
-        <v>981</v>
+        <v>892</v>
       </c>
       <c r="C72" s="5">
         <v>58.669950738916256</v>
@@ -23705,10 +21658,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1326</v>
+        <v>1237</v>
       </c>
       <c r="B73" t="s">
-        <v>982</v>
+        <v>893</v>
       </c>
       <c r="C73" s="5">
         <v>75.25</v>
@@ -23728,10 +21681,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1327</v>
+        <v>1238</v>
       </c>
       <c r="B74" t="s">
-        <v>983</v>
+        <v>894</v>
       </c>
       <c r="C74" s="5">
         <v>261.61111111111109</v>
@@ -23751,10 +21704,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1328</v>
+        <v>1239</v>
       </c>
       <c r="B75" t="s">
-        <v>984</v>
+        <v>895</v>
       </c>
       <c r="C75" s="5">
         <v>34.92307692307692</v>
@@ -23774,10 +21727,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1329</v>
+        <v>1240</v>
       </c>
       <c r="B76" t="s">
-        <v>985</v>
+        <v>896</v>
       </c>
       <c r="C76" s="5">
         <v>97.12121212121211</v>
@@ -23797,10 +21750,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1330</v>
+        <v>1241</v>
       </c>
       <c r="B77" t="s">
-        <v>986</v>
+        <v>897</v>
       </c>
       <c r="C77" s="5">
         <v>101.4</v>
@@ -23820,10 +21773,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1331</v>
+        <v>1242</v>
       </c>
       <c r="B78" t="s">
-        <v>987</v>
+        <v>898</v>
       </c>
       <c r="C78" s="5">
         <v>94.764705882352942</v>
@@ -23843,10 +21796,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1332</v>
+        <v>1243</v>
       </c>
       <c r="B79" t="s">
-        <v>988</v>
+        <v>899</v>
       </c>
       <c r="C79" s="5">
         <v>36</v>
@@ -23866,10 +21819,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1333</v>
+        <v>1244</v>
       </c>
       <c r="B80" t="s">
-        <v>989</v>
+        <v>900</v>
       </c>
       <c r="C80" s="5">
         <v>46.444444444444443</v>
@@ -23889,10 +21842,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1334</v>
+        <v>1245</v>
       </c>
       <c r="B81" t="s">
-        <v>990</v>
+        <v>901</v>
       </c>
       <c r="C81" s="5">
         <v>45.813953488372093</v>
@@ -23912,10 +21865,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1335</v>
+        <v>1246</v>
       </c>
       <c r="B82" t="s">
-        <v>991</v>
+        <v>902</v>
       </c>
       <c r="C82" s="5">
         <v>109.72972972972973</v>
@@ -23935,10 +21888,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1336</v>
+        <v>1247</v>
       </c>
       <c r="B83" t="s">
-        <v>992</v>
+        <v>903</v>
       </c>
       <c r="C83" s="5">
         <v>61.058823529411768</v>
@@ -23958,10 +21911,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1337</v>
+        <v>1248</v>
       </c>
       <c r="B84" t="s">
-        <v>993</v>
+        <v>904</v>
       </c>
       <c r="C84" s="5">
         <v>272.54901960784315</v>
@@ -23981,10 +21934,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1338</v>
+        <v>1249</v>
       </c>
       <c r="B85" t="s">
-        <v>994</v>
+        <v>905</v>
       </c>
       <c r="C85" s="5">
         <v>113.72469635627529</v>
@@ -24004,10 +21957,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1339</v>
+        <v>1250</v>
       </c>
       <c r="B86" t="s">
-        <v>996</v>
+        <v>907</v>
       </c>
       <c r="C86" s="5">
         <v>104.04858299595142</v>
@@ -24027,10 +21980,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1340</v>
+        <v>1251</v>
       </c>
       <c r="B87" t="s">
-        <v>995</v>
+        <v>906</v>
       </c>
       <c r="C87" s="5">
         <v>103.23529411764706</v>
@@ -24050,10 +22003,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1341</v>
+        <v>1252</v>
       </c>
       <c r="B88" t="s">
-        <v>997</v>
+        <v>908</v>
       </c>
       <c r="C88" s="5">
         <v>103.64372469635627</v>
@@ -24073,10 +22026,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1342</v>
+        <v>1253</v>
       </c>
       <c r="B89" t="s">
-        <v>998</v>
+        <v>909</v>
       </c>
       <c r="C89" s="5">
         <v>107.36842105263158</v>
@@ -24096,10 +22049,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1343</v>
+        <v>1254</v>
       </c>
       <c r="B90" t="s">
-        <v>999</v>
+        <v>910</v>
       </c>
       <c r="C90" s="5">
         <v>206.79611650485438</v>
@@ -24119,10 +22072,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1344</v>
+        <v>1255</v>
       </c>
       <c r="B91" t="s">
-        <v>1000</v>
+        <v>911</v>
       </c>
       <c r="C91" s="5">
         <v>106.07287449392713</v>
@@ -24142,10 +22095,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1345</v>
+        <v>1256</v>
       </c>
       <c r="B92" t="s">
-        <v>1001</v>
+        <v>912</v>
       </c>
       <c r="C92" s="5">
         <v>111.417004048583</v>
@@ -24165,10 +22118,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1346</v>
+        <v>1257</v>
       </c>
       <c r="B93" t="s">
-        <v>1002</v>
+        <v>913</v>
       </c>
       <c r="C93" s="5">
         <v>105.74898785425101</v>
@@ -24188,10 +22141,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1347</v>
+        <v>1258</v>
       </c>
       <c r="B94" t="s">
-        <v>1063</v>
+        <v>974</v>
       </c>
       <c r="C94" s="5">
         <v>108.25910931174087</v>
@@ -24211,10 +22164,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1348</v>
+        <v>1259</v>
       </c>
       <c r="B95" t="s">
-        <v>1003</v>
+        <v>914</v>
       </c>
       <c r="C95" s="5">
         <v>105.66801619433198</v>
@@ -24234,10 +22187,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1349</v>
+        <v>1260</v>
       </c>
       <c r="B96" t="s">
-        <v>1004</v>
+        <v>915</v>
       </c>
       <c r="C96" s="5">
         <v>130.79096045197741</v>
@@ -24257,10 +22210,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="B97" t="s">
-        <v>1005</v>
+        <v>916</v>
       </c>
       <c r="C97" s="5">
         <v>172.44094488188978</v>
@@ -24280,10 +22233,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1351</v>
+        <v>1262</v>
       </c>
       <c r="B98" t="s">
-        <v>1006</v>
+        <v>917</v>
       </c>
       <c r="C98" s="5">
         <v>158.93333333333334</v>
@@ -24303,10 +22256,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1352</v>
+        <v>1263</v>
       </c>
       <c r="B99" t="s">
-        <v>1007</v>
+        <v>918</v>
       </c>
       <c r="C99" s="5">
         <v>190.71566731141201</v>
@@ -24326,10 +22279,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1353</v>
+        <v>1264</v>
       </c>
       <c r="B100" t="s">
-        <v>1008</v>
+        <v>919</v>
       </c>
       <c r="C100" s="5">
         <v>160.36111111111109</v>
@@ -24349,10 +22302,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1354</v>
+        <v>1265</v>
       </c>
       <c r="B101" t="s">
-        <v>1009</v>
+        <v>920</v>
       </c>
       <c r="C101" s="5">
         <v>161.14058355437666</v>
@@ -24372,10 +22325,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1355</v>
+        <v>1266</v>
       </c>
       <c r="B102" t="s">
-        <v>1010</v>
+        <v>921</v>
       </c>
       <c r="C102" s="5">
         <v>151.44766146993319</v>
@@ -24395,10 +22348,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1356</v>
+        <v>1267</v>
       </c>
       <c r="B103" t="s">
-        <v>1011</v>
+        <v>922</v>
       </c>
       <c r="C103" s="5">
         <v>307.83505154639181</v>
@@ -24418,10 +22371,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1357</v>
+        <v>1268</v>
       </c>
       <c r="B104" t="s">
-        <v>1012</v>
+        <v>923</v>
       </c>
       <c r="C104" s="5">
         <v>151.04</v>
@@ -24441,10 +22394,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1358</v>
+        <v>1269</v>
       </c>
       <c r="B105" t="s">
-        <v>1013</v>
+        <v>924</v>
       </c>
       <c r="C105" s="5">
         <v>103</v>
@@ -24464,10 +22417,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1359</v>
+        <v>1270</v>
       </c>
       <c r="B106" t="s">
-        <v>1014</v>
+        <v>925</v>
       </c>
       <c r="C106" s="5">
         <v>73</v>
@@ -24487,10 +22440,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1360</v>
+        <v>1271</v>
       </c>
       <c r="B107" t="s">
-        <v>1015</v>
+        <v>926</v>
       </c>
       <c r="C107" s="5">
         <v>99.629629629629633</v>
@@ -24510,10 +22463,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1361</v>
+        <v>1272</v>
       </c>
       <c r="B108" t="s">
-        <v>1016</v>
+        <v>927</v>
       </c>
       <c r="C108" s="5">
         <v>94.901960784313729</v>
@@ -24533,10 +22486,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1362</v>
+        <v>1273</v>
       </c>
       <c r="B109" t="s">
-        <v>1017</v>
+        <v>928</v>
       </c>
       <c r="C109" s="5">
         <v>92.881355932203391</v>
@@ -24556,10 +22509,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1363</v>
+        <v>1274</v>
       </c>
       <c r="B110" t="s">
-        <v>1018</v>
+        <v>929</v>
       </c>
       <c r="C110" s="5">
         <v>110</v>
@@ -24579,10 +22532,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1364</v>
+        <v>1275</v>
       </c>
       <c r="B111" t="s">
-        <v>1019</v>
+        <v>930</v>
       </c>
       <c r="C111" s="5">
         <v>128</v>
@@ -24602,10 +22555,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1365</v>
+        <v>1276</v>
       </c>
       <c r="B112" t="s">
-        <v>1021</v>
+        <v>932</v>
       </c>
       <c r="C112" s="5">
         <v>210.65573770491804</v>
@@ -24625,10 +22578,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1366</v>
+        <v>1277</v>
       </c>
       <c r="B113" t="s">
-        <v>1022</v>
+        <v>933</v>
       </c>
       <c r="C113" s="5">
         <v>252.80373831775702</v>
@@ -24648,10 +22601,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1367</v>
+        <v>1278</v>
       </c>
       <c r="B114" t="s">
-        <v>1023</v>
+        <v>934</v>
       </c>
       <c r="C114" s="5">
         <v>295.2238805970149</v>
@@ -24671,10 +22624,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1368</v>
+        <v>1279</v>
       </c>
       <c r="B115" t="s">
-        <v>1024</v>
+        <v>935</v>
       </c>
       <c r="C115" s="5">
         <v>224.33734939759037</v>
@@ -24694,10 +22647,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1369</v>
+        <v>1280</v>
       </c>
       <c r="B116" t="s">
-        <v>1025</v>
+        <v>936</v>
       </c>
       <c r="C116" s="5">
         <v>70.722891566265062</v>
@@ -24717,10 +22670,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1370</v>
+        <v>1281</v>
       </c>
       <c r="B117" t="s">
-        <v>1026</v>
+        <v>937</v>
       </c>
       <c r="C117" s="5">
         <v>115</v>
@@ -24740,10 +22693,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1371</v>
+        <v>1282</v>
       </c>
       <c r="B118" t="s">
-        <v>1027</v>
+        <v>938</v>
       </c>
       <c r="C118" s="5">
         <v>145</v>
@@ -24763,10 +22716,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1372</v>
+        <v>1283</v>
       </c>
       <c r="B119" t="s">
-        <v>1028</v>
+        <v>939</v>
       </c>
       <c r="C119" s="5">
         <v>319.74358974358972</v>
@@ -24786,10 +22739,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1373</v>
+        <v>1284</v>
       </c>
       <c r="B120" t="s">
-        <v>1029</v>
+        <v>940</v>
       </c>
       <c r="C120" s="5">
         <v>163.32116788321167</v>
@@ -24809,10 +22762,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1374</v>
+        <v>1285</v>
       </c>
       <c r="B121" t="s">
-        <v>1030</v>
+        <v>941</v>
       </c>
       <c r="C121" s="5">
         <v>123.05263157894737</v>
@@ -24832,10 +22785,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1375</v>
+        <v>1286</v>
       </c>
       <c r="B122" t="s">
-        <v>1031</v>
+        <v>942</v>
       </c>
       <c r="C122" s="5">
         <v>130.85626911314984</v>
@@ -24855,10 +22808,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1376</v>
+        <v>1287</v>
       </c>
       <c r="B123" t="s">
-        <v>1032</v>
+        <v>943</v>
       </c>
       <c r="C123" s="5">
         <v>135.52529182879377</v>
@@ -24878,10 +22831,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1377</v>
+        <v>1288</v>
       </c>
       <c r="B124" t="s">
-        <v>1033</v>
+        <v>944</v>
       </c>
       <c r="C124" s="5">
         <v>121.53203342618384</v>
@@ -24901,10 +22854,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1378</v>
+        <v>1289</v>
       </c>
       <c r="B125" t="s">
-        <v>1034</v>
+        <v>945</v>
       </c>
       <c r="C125" s="5">
         <v>75.18518518518519</v>
@@ -24924,10 +22877,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1379</v>
+        <v>1290</v>
       </c>
       <c r="B126" t="s">
-        <v>1035</v>
+        <v>946</v>
       </c>
       <c r="C126" s="5">
         <v>162.28571428571428</v>
@@ -24947,10 +22900,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1380</v>
+        <v>1291</v>
       </c>
       <c r="B127" t="s">
-        <v>1036</v>
+        <v>947</v>
       </c>
       <c r="C127" s="5">
         <v>185.55555555555554</v>
@@ -24970,10 +22923,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1381</v>
+        <v>1292</v>
       </c>
       <c r="B128" t="s">
-        <v>1037</v>
+        <v>948</v>
       </c>
       <c r="C128" s="5">
         <v>109.06666666666666</v>
@@ -24993,10 +22946,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1382</v>
+        <v>1293</v>
       </c>
       <c r="B129" t="s">
-        <v>1038</v>
+        <v>949</v>
       </c>
       <c r="C129" s="5">
         <v>369.91379310344826</v>
@@ -25016,10 +22969,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1383</v>
+        <v>1294</v>
       </c>
       <c r="B130" t="s">
-        <v>1039</v>
+        <v>950</v>
       </c>
       <c r="C130" s="5">
         <v>154.09266409266408</v>
@@ -25039,10 +22992,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1384</v>
+        <v>1295</v>
       </c>
       <c r="B131" t="s">
-        <v>1040</v>
+        <v>951</v>
       </c>
       <c r="C131" s="5">
         <v>157.80000000000001</v>
@@ -25062,10 +23015,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1385</v>
+        <v>1296</v>
       </c>
       <c r="B132" t="s">
-        <v>1041</v>
+        <v>952</v>
       </c>
       <c r="C132" s="5">
         <v>120.3</v>
@@ -25085,10 +23038,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1386</v>
+        <v>1297</v>
       </c>
       <c r="B133" t="s">
-        <v>1042</v>
+        <v>953</v>
       </c>
       <c r="C133" s="5">
         <v>204.90250696378831</v>
@@ -25108,10 +23061,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1387</v>
+        <v>1298</v>
       </c>
       <c r="B134" t="s">
-        <v>1043</v>
+        <v>954</v>
       </c>
       <c r="C134" s="5">
         <v>157.10526315789474</v>
@@ -25131,10 +23084,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1388</v>
+        <v>1299</v>
       </c>
       <c r="B135" t="s">
-        <v>1044</v>
+        <v>955</v>
       </c>
       <c r="C135" s="5">
         <v>86.4</v>
@@ -25154,10 +23107,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1389</v>
+        <v>1300</v>
       </c>
       <c r="B136" t="s">
-        <v>1045</v>
+        <v>956</v>
       </c>
       <c r="C136" s="5">
         <v>61.743119266055047</v>
@@ -25177,10 +23130,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1390</v>
+        <v>1301</v>
       </c>
       <c r="B137" t="s">
-        <v>1046</v>
+        <v>957</v>
       </c>
       <c r="C137" s="5">
         <v>572.22222222222217</v>
@@ -25200,10 +23153,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1391</v>
+        <v>1302</v>
       </c>
       <c r="B138" t="s">
-        <v>1047</v>
+        <v>958</v>
       </c>
       <c r="C138" s="5">
         <v>71.333333333333329</v>
@@ -25223,10 +23176,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1392</v>
+        <v>1303</v>
       </c>
       <c r="B139" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="C139" s="5">
         <v>89.42307692307692</v>
@@ -25246,10 +23199,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1393</v>
+        <v>1304</v>
       </c>
       <c r="B140" t="s">
-        <v>1049</v>
+        <v>960</v>
       </c>
       <c r="C140" s="5">
         <v>86.111111111111114</v>
@@ -25269,10 +23222,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1394</v>
+        <v>1305</v>
       </c>
       <c r="B141" t="s">
-        <v>1050</v>
+        <v>961</v>
       </c>
       <c r="C141" s="5">
         <v>170.63432835820896</v>
@@ -25292,10 +23245,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1395</v>
+        <v>1306</v>
       </c>
       <c r="B142" t="s">
-        <v>1051</v>
+        <v>962</v>
       </c>
       <c r="C142" s="5">
         <v>153.0612244897959</v>
@@ -25315,10 +23268,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1396</v>
+        <v>1307</v>
       </c>
       <c r="B143" t="s">
-        <v>1052</v>
+        <v>963</v>
       </c>
       <c r="C143" s="5">
         <v>125.03311258278146</v>
@@ -25338,10 +23291,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1397</v>
+        <v>1308</v>
       </c>
       <c r="B144" t="s">
-        <v>1053</v>
+        <v>964</v>
       </c>
       <c r="C144" s="5">
         <v>137.21774193548387</v>
@@ -25361,10 +23314,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1398</v>
+        <v>1309</v>
       </c>
       <c r="B145" t="s">
-        <v>1055</v>
+        <v>966</v>
       </c>
       <c r="C145" s="5">
         <v>84</v>
@@ -25384,10 +23337,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1399</v>
+        <v>1310</v>
       </c>
       <c r="B146" t="s">
-        <v>1056</v>
+        <v>967</v>
       </c>
       <c r="C146" s="5">
         <v>254.375</v>
@@ -25407,10 +23360,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1400</v>
+        <v>1311</v>
       </c>
       <c r="B147" t="s">
-        <v>1057</v>
+        <v>968</v>
       </c>
       <c r="C147" s="5">
         <v>150.09259259259258</v>
@@ -25430,10 +23383,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1401</v>
+        <v>1312</v>
       </c>
       <c r="B148" t="s">
-        <v>1058</v>
+        <v>969</v>
       </c>
       <c r="C148" s="5">
         <v>136.19999999999999</v>
@@ -25453,7 +23406,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1402</v>
+        <v>1313</v>
       </c>
       <c r="B149" t="s">
         <v>615</v>
@@ -25476,10 +23429,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1403</v>
+        <v>1314</v>
       </c>
       <c r="B150" t="s">
-        <v>1059</v>
+        <v>970</v>
       </c>
       <c r="C150" s="5">
         <v>128.25806451612902</v>
@@ -25499,10 +23452,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1404</v>
+        <v>1315</v>
       </c>
       <c r="B151" t="s">
-        <v>1060</v>
+        <v>971</v>
       </c>
       <c r="C151" s="5">
         <v>128.42622950819671</v>
@@ -25522,10 +23475,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1405</v>
+        <v>1316</v>
       </c>
       <c r="B152" t="s">
-        <v>1061</v>
+        <v>972</v>
       </c>
       <c r="C152" s="5">
         <v>22.035398230088497</v>
@@ -25545,10 +23498,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1406</v>
+        <v>1317</v>
       </c>
       <c r="B153" t="s">
-        <v>1062</v>
+        <v>973</v>
       </c>
       <c r="C153" s="5">
         <v>23.055555555555557</v>
@@ -25568,10 +23521,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1407</v>
+        <v>1318</v>
       </c>
       <c r="B154" t="s">
-        <v>1064</v>
+        <v>975</v>
       </c>
       <c r="C154" s="5">
         <v>124.52173913043477</v>
@@ -25591,10 +23544,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1408</v>
+        <v>1319</v>
       </c>
       <c r="B155" t="s">
-        <v>1065</v>
+        <v>976</v>
       </c>
       <c r="C155" s="5">
         <v>35.070422535211264</v>
@@ -25614,10 +23567,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1409</v>
+        <v>1320</v>
       </c>
       <c r="B156" t="s">
-        <v>1066</v>
+        <v>977</v>
       </c>
       <c r="C156" s="5">
         <v>123.85454545454546</v>
@@ -25637,10 +23590,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1410</v>
+        <v>1321</v>
       </c>
       <c r="B157" t="s">
-        <v>1067</v>
+        <v>978</v>
       </c>
       <c r="C157" s="5">
         <v>260.64516129032256</v>
@@ -25660,10 +23613,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1411</v>
+        <v>1322</v>
       </c>
       <c r="B158" t="s">
-        <v>1068</v>
+        <v>979</v>
       </c>
       <c r="C158" s="5">
         <v>243.0612244897959</v>
@@ -25683,10 +23636,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1412</v>
+        <v>1323</v>
       </c>
       <c r="B159" t="s">
-        <v>1069</v>
+        <v>980</v>
       </c>
       <c r="C159" s="5">
         <v>215.2066115702479</v>
@@ -25706,10 +23659,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1413</v>
+        <v>1324</v>
       </c>
       <c r="B160" t="s">
-        <v>1070</v>
+        <v>981</v>
       </c>
       <c r="C160" s="5">
         <v>208</v>
@@ -25729,10 +23682,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1414</v>
+        <v>1325</v>
       </c>
       <c r="B161" t="s">
-        <v>1071</v>
+        <v>982</v>
       </c>
       <c r="C161" s="5">
         <v>87.066666666666663</v>
@@ -25752,10 +23705,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1415</v>
+        <v>1326</v>
       </c>
       <c r="B162" t="s">
-        <v>1072</v>
+        <v>983</v>
       </c>
       <c r="C162" s="5">
         <v>156</v>
@@ -25775,10 +23728,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1416</v>
+        <v>1327</v>
       </c>
       <c r="B163" t="s">
-        <v>1073</v>
+        <v>984</v>
       </c>
       <c r="C163" s="5">
         <v>82</v>
@@ -25798,10 +23751,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1417</v>
+        <v>1328</v>
       </c>
       <c r="B164" t="s">
-        <v>1074</v>
+        <v>985</v>
       </c>
       <c r="C164" s="5">
         <v>101</v>
@@ -25821,10 +23774,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1418</v>
+        <v>1329</v>
       </c>
       <c r="B165" t="s">
-        <v>1075</v>
+        <v>986</v>
       </c>
       <c r="C165" s="5">
         <v>74</v>
@@ -25844,10 +23797,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="B166" t="s">
-        <v>1087</v>
+        <v>998</v>
       </c>
       <c r="C166" s="5">
         <v>264.81481481481484</v>
@@ -25867,10 +23820,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1420</v>
+        <v>1331</v>
       </c>
       <c r="B167" t="s">
-        <v>1088</v>
+        <v>999</v>
       </c>
       <c r="C167" s="5">
         <v>36.019417475728154</v>
@@ -25890,10 +23843,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1421</v>
+        <v>1332</v>
       </c>
       <c r="B168" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="C168" s="5">
         <v>69.666666666666671</v>
@@ -25913,10 +23866,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1422</v>
+        <v>1333</v>
       </c>
       <c r="B169" t="s">
-        <v>1090</v>
+        <v>1001</v>
       </c>
       <c r="C169" s="5">
         <v>18.046875</v>
@@ -25936,10 +23889,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1423</v>
+        <v>1334</v>
       </c>
       <c r="B170" t="s">
-        <v>1091</v>
+        <v>1002</v>
       </c>
       <c r="C170" s="5">
         <v>65.508474576271183</v>
@@ -25959,10 +23912,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1424</v>
+        <v>1335</v>
       </c>
       <c r="B171" t="s">
-        <v>1094</v>
+        <v>1005</v>
       </c>
       <c r="C171" s="5">
         <v>214.35897435897436</v>
@@ -25982,10 +23935,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1425</v>
+        <v>1336</v>
       </c>
       <c r="B172" t="s">
-        <v>1095</v>
+        <v>1006</v>
       </c>
       <c r="C172" s="5">
         <v>153.92156862745097</v>
@@ -26005,10 +23958,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1426</v>
+        <v>1337</v>
       </c>
       <c r="B173" t="s">
-        <v>1096</v>
+        <v>1007</v>
       </c>
       <c r="C173" s="5">
         <v>231.40625</v>
@@ -26028,10 +23981,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1427</v>
+        <v>1338</v>
       </c>
       <c r="B174" t="s">
-        <v>1097</v>
+        <v>1008</v>
       </c>
       <c r="C174" s="5">
         <v>123.80952380952381</v>
@@ -26051,10 +24004,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1428</v>
+        <v>1339</v>
       </c>
       <c r="B175" t="s">
-        <v>1098</v>
+        <v>1009</v>
       </c>
       <c r="C175" s="5">
         <v>152.5</v>
@@ -26074,10 +24027,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1429</v>
+        <v>1340</v>
       </c>
       <c r="B176" t="s">
-        <v>1099</v>
+        <v>1010</v>
       </c>
       <c r="C176" s="5">
         <v>179.65517241379311</v>
@@ -26097,10 +24050,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1430</v>
+        <v>1341</v>
       </c>
       <c r="B177" t="s">
-        <v>1100</v>
+        <v>1011</v>
       </c>
       <c r="C177" s="5">
         <v>154.48275862068965</v>
@@ -26120,10 +24073,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1431</v>
+        <v>1342</v>
       </c>
       <c r="B178" t="s">
-        <v>1101</v>
+        <v>1012</v>
       </c>
       <c r="C178" s="5">
         <v>155.86206896551724</v>
@@ -26143,10 +24096,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1432</v>
+        <v>1343</v>
       </c>
       <c r="B179" t="s">
-        <v>1102</v>
+        <v>1013</v>
       </c>
       <c r="C179" s="5">
         <v>218.57142857142858</v>
@@ -26166,10 +24119,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1433</v>
+        <v>1344</v>
       </c>
       <c r="B180" t="s">
-        <v>1103</v>
+        <v>1014</v>
       </c>
       <c r="C180" s="5">
         <v>273.61702127659572</v>
@@ -26189,10 +24142,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1434</v>
+        <v>1345</v>
       </c>
       <c r="B181" t="s">
-        <v>1104</v>
+        <v>1015</v>
       </c>
       <c r="C181" s="5">
         <v>98.956521739130437</v>
@@ -26212,10 +24165,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1435</v>
+        <v>1346</v>
       </c>
       <c r="B182" t="s">
-        <v>1105</v>
+        <v>1016</v>
       </c>
       <c r="C182" s="5">
         <v>168.97196261682242</v>
@@ -26235,10 +24188,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1436</v>
+        <v>1347</v>
       </c>
       <c r="B183" t="s">
-        <v>1106</v>
+        <v>1017</v>
       </c>
       <c r="C183" s="5">
         <v>199</v>
@@ -26258,10 +24211,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1437</v>
+        <v>1348</v>
       </c>
       <c r="B184" t="s">
-        <v>1107</v>
+        <v>1018</v>
       </c>
       <c r="C184" s="5">
         <v>192.85714285714286</v>
@@ -26281,10 +24234,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1438</v>
+        <v>1349</v>
       </c>
       <c r="B185" t="s">
-        <v>1108</v>
+        <v>1019</v>
       </c>
       <c r="C185" s="5">
         <v>265.55555555555554</v>
@@ -26304,10 +24257,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1439</v>
+        <v>1350</v>
       </c>
       <c r="B186" t="s">
-        <v>1109</v>
+        <v>1020</v>
       </c>
       <c r="C186" s="5">
         <v>177.62711864406779</v>
@@ -26327,10 +24280,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1440</v>
+        <v>1351</v>
       </c>
       <c r="B187" t="s">
-        <v>1110</v>
+        <v>1021</v>
       </c>
       <c r="C187" s="5">
         <v>225</v>
@@ -26350,7 +24303,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1441</v>
+        <v>1352</v>
       </c>
       <c r="B188" t="s">
         <v>616</v>
@@ -26373,10 +24326,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1442</v>
+        <v>1353</v>
       </c>
       <c r="B189" t="s">
-        <v>1111</v>
+        <v>1022</v>
       </c>
       <c r="C189" s="5">
         <v>82.058823529411768</v>
@@ -26396,10 +24349,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1443</v>
+        <v>1354</v>
       </c>
       <c r="B190" t="s">
-        <v>1112</v>
+        <v>1023</v>
       </c>
       <c r="C190" s="5">
         <v>140.625</v>
@@ -26419,10 +24372,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1444</v>
+        <v>1355</v>
       </c>
       <c r="B191" t="s">
-        <v>1113</v>
+        <v>1024</v>
       </c>
       <c r="C191" s="5">
         <v>221.52941176470588</v>
@@ -26442,10 +24395,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1445</v>
+        <v>1356</v>
       </c>
       <c r="B192" t="s">
-        <v>1117</v>
+        <v>1028</v>
       </c>
       <c r="C192" s="5">
         <v>144.85714285714286</v>
@@ -26465,10 +24418,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1446</v>
+        <v>1357</v>
       </c>
       <c r="B193" t="s">
-        <v>1118</v>
+        <v>1029</v>
       </c>
       <c r="C193" s="5">
         <v>276.23376623376623</v>
@@ -26488,10 +24441,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1447</v>
+        <v>1358</v>
       </c>
       <c r="B194" t="s">
-        <v>1119</v>
+        <v>1030</v>
       </c>
       <c r="C194" s="5">
         <v>189.77941176470591</v>
@@ -26511,10 +24464,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1448</v>
+        <v>1359</v>
       </c>
       <c r="B195" t="s">
-        <v>1120</v>
+        <v>1031</v>
       </c>
       <c r="C195" s="5">
         <v>245.875</v>
@@ -26534,10 +24487,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1449</v>
+        <v>1360</v>
       </c>
       <c r="B196" t="s">
-        <v>1121</v>
+        <v>1032</v>
       </c>
       <c r="C196" s="5">
         <v>266.77777777777777</v>
@@ -26557,10 +24510,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1450</v>
+        <v>1361</v>
       </c>
       <c r="B197" t="s">
-        <v>1122</v>
+        <v>1033</v>
       </c>
       <c r="C197" s="5">
         <v>139.21568627450981</v>
@@ -26580,10 +24533,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1451</v>
+        <v>1362</v>
       </c>
       <c r="B198" t="s">
-        <v>1123</v>
+        <v>1034</v>
       </c>
       <c r="C198" s="5">
         <v>347.55555555555554</v>
@@ -26603,10 +24556,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1452</v>
+        <v>1363</v>
       </c>
       <c r="B199" t="s">
-        <v>1124</v>
+        <v>1035</v>
       </c>
       <c r="C199" s="5">
         <f>C198*100/126</f>
@@ -26630,10 +24583,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1453</v>
+        <v>1364</v>
       </c>
       <c r="B200" t="s">
-        <v>1125</v>
+        <v>1036</v>
       </c>
       <c r="C200" s="5">
         <v>222.99465240641712</v>
@@ -26653,7 +24606,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1454</v>
+        <v>1365</v>
       </c>
       <c r="B201" t="s">
         <v>618</v>
@@ -26676,10 +24629,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1455</v>
+        <v>1366</v>
       </c>
       <c r="B202" t="s">
-        <v>1126</v>
+        <v>1037</v>
       </c>
       <c r="C202" s="5">
         <v>264.33497536945811</v>
@@ -26699,10 +24652,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1456</v>
+        <v>1367</v>
       </c>
       <c r="B203" t="s">
-        <v>1127</v>
+        <v>1038</v>
       </c>
       <c r="C203" s="5">
         <v>369.90566037735852</v>
@@ -26722,7 +24675,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1457</v>
+        <v>1368</v>
       </c>
       <c r="B204" t="s">
         <v>574</v>
@@ -26745,7 +24698,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1458</v>
+        <v>1369</v>
       </c>
       <c r="B205" t="s">
         <v>587</v>
@@ -26768,7 +24721,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1459</v>
+        <v>1370</v>
       </c>
       <c r="B206" t="s">
         <v>592</v>
@@ -28258,6 +26211,2053 @@
         <v>50.900000000000006</v>
       </c>
       <c r="G270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B271" t="s">
+        <v>621</v>
+      </c>
+      <c r="C271" s="4">
+        <v>396</v>
+      </c>
+      <c r="D271" s="4">
+        <v>7</v>
+      </c>
+      <c r="E271" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F271" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B272" t="s">
+        <v>622</v>
+      </c>
+      <c r="C272" s="4">
+        <v>286</v>
+      </c>
+      <c r="D272" s="4">
+        <v>10</v>
+      </c>
+      <c r="E272" s="4">
+        <v>16</v>
+      </c>
+      <c r="F272" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B273" t="s">
+        <v>623</v>
+      </c>
+      <c r="C273" s="4">
+        <v>283</v>
+      </c>
+      <c r="D273" s="4">
+        <v>10</v>
+      </c>
+      <c r="E273" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="F273" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B274" t="s">
+        <v>624</v>
+      </c>
+      <c r="C274" s="4">
+        <v>420</v>
+      </c>
+      <c r="D274" s="4">
+        <v>6</v>
+      </c>
+      <c r="E274" s="4">
+        <v>15</v>
+      </c>
+      <c r="F274" s="4">
+        <v>66</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B275" t="s">
+        <v>558</v>
+      </c>
+      <c r="C275" s="4">
+        <v>250</v>
+      </c>
+      <c r="D275" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E275" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F275" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B276" t="s">
+        <v>625</v>
+      </c>
+      <c r="C276" s="4">
+        <v>91</v>
+      </c>
+      <c r="D276" s="4">
+        <v>7</v>
+      </c>
+      <c r="E276" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="F276" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B277" t="s">
+        <v>626</v>
+      </c>
+      <c r="C277" s="4">
+        <v>459</v>
+      </c>
+      <c r="D277" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E277" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="F277" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B278" t="s">
+        <v>421</v>
+      </c>
+      <c r="C278" s="4">
+        <v>420</v>
+      </c>
+      <c r="D278" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E278" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F278" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B279" t="s">
+        <v>627</v>
+      </c>
+      <c r="C279" s="4">
+        <v>423</v>
+      </c>
+      <c r="D279" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E279" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F279" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B280" t="s">
+        <v>628</v>
+      </c>
+      <c r="C280" s="4">
+        <v>463</v>
+      </c>
+      <c r="D280" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E280" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="F280" s="4">
+        <v>75</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B281" t="s">
+        <v>629</v>
+      </c>
+      <c r="C281" s="4">
+        <v>463</v>
+      </c>
+      <c r="D281" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E281" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="F281" s="4">
+        <v>71.2</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B282" t="s">
+        <v>630</v>
+      </c>
+      <c r="C282" s="4">
+        <v>543</v>
+      </c>
+      <c r="D282" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E282" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="F282" s="4">
+        <v>59.7</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B283" t="s">
+        <v>631</v>
+      </c>
+      <c r="C283" s="4">
+        <v>522</v>
+      </c>
+      <c r="D283" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E283" s="4">
+        <v>28.3</v>
+      </c>
+      <c r="F283" s="4">
+        <v>57</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B284" t="s">
+        <v>632</v>
+      </c>
+      <c r="C284" s="4">
+        <v>532</v>
+      </c>
+      <c r="D284" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E284" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="F284" s="4">
+        <v>55.6</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B285" t="s">
+        <v>633</v>
+      </c>
+      <c r="C285" s="4">
+        <v>530</v>
+      </c>
+      <c r="D285" s="4">
+        <v>6</v>
+      </c>
+      <c r="E285" s="4">
+        <v>27</v>
+      </c>
+      <c r="F285" s="4">
+        <v>65</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B286" t="s">
+        <v>634</v>
+      </c>
+      <c r="C286" s="4">
+        <v>418</v>
+      </c>
+      <c r="D286" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E286" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="F286" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B287" t="s">
+        <v>635</v>
+      </c>
+      <c r="C287" s="4">
+        <v>328</v>
+      </c>
+      <c r="D287" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="E287" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="F287" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B288" t="s">
+        <v>636</v>
+      </c>
+      <c r="C288" s="4">
+        <v>354</v>
+      </c>
+      <c r="D288" s="4">
+        <v>10</v>
+      </c>
+      <c r="E288" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="F288" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B289" t="s">
+        <v>637</v>
+      </c>
+      <c r="C289" s="4">
+        <v>374</v>
+      </c>
+      <c r="D289" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="E289" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="F289" s="4">
+        <v>54.3</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B290" t="s">
+        <v>638</v>
+      </c>
+      <c r="C290" s="4">
+        <v>320</v>
+      </c>
+      <c r="D290" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="E290" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F290" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B291" t="s">
+        <v>639</v>
+      </c>
+      <c r="C291" s="4">
+        <v>394.8</v>
+      </c>
+      <c r="D291" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E291" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="F291" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B292" t="s">
+        <v>640</v>
+      </c>
+      <c r="C292" s="4">
+        <v>361</v>
+      </c>
+      <c r="D292" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="E292" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="F292" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C293" s="4">
+        <v>387</v>
+      </c>
+      <c r="D293" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="E293" s="4">
+        <v>14</v>
+      </c>
+      <c r="F293" s="4">
+        <v>54</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B294" t="s">
+        <v>641</v>
+      </c>
+      <c r="C294" s="4">
+        <v>386</v>
+      </c>
+      <c r="D294" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E294" s="4">
+        <v>12</v>
+      </c>
+      <c r="F294" s="4">
+        <v>59</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B295" t="s">
+        <v>642</v>
+      </c>
+      <c r="C295" s="4">
+        <v>508</v>
+      </c>
+      <c r="D295" s="4">
+        <v>6</v>
+      </c>
+      <c r="E295" s="4">
+        <v>24</v>
+      </c>
+      <c r="F295" s="4">
+        <v>66</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B296" t="s">
+        <v>643</v>
+      </c>
+      <c r="C296" s="4">
+        <v>495</v>
+      </c>
+      <c r="D296" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="E296" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="F296" s="4">
+        <v>62.7</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B297" t="s">
+        <v>422</v>
+      </c>
+      <c r="C297" s="4">
+        <v>510</v>
+      </c>
+      <c r="D297" s="4">
+        <v>3</v>
+      </c>
+      <c r="E297" s="4">
+        <v>24</v>
+      </c>
+      <c r="F297" s="4">
+        <v>66</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B298" t="s">
+        <v>644</v>
+      </c>
+      <c r="C298" s="4">
+        <v>480</v>
+      </c>
+      <c r="D298" s="4">
+        <v>10</v>
+      </c>
+      <c r="E298" s="4">
+        <v>19</v>
+      </c>
+      <c r="F298" s="4">
+        <v>70</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B299" t="s">
+        <v>645</v>
+      </c>
+      <c r="C299" s="4">
+        <v>519</v>
+      </c>
+      <c r="D299" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E299" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="F299" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B300" t="s">
+        <v>646</v>
+      </c>
+      <c r="C300" s="4">
+        <v>363</v>
+      </c>
+      <c r="D300" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="E300" s="4">
+        <v>0</v>
+      </c>
+      <c r="F300" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B301" t="s">
+        <v>647</v>
+      </c>
+      <c r="C301" s="4">
+        <v>415</v>
+      </c>
+      <c r="D301" s="4">
+        <v>0</v>
+      </c>
+      <c r="E301" s="4">
+        <v>0</v>
+      </c>
+      <c r="F301" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B302" t="s">
+        <v>648</v>
+      </c>
+      <c r="C302" s="4">
+        <v>440</v>
+      </c>
+      <c r="D302" s="4">
+        <v>0</v>
+      </c>
+      <c r="E302" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F302" s="4">
+        <v>88</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B303" t="s">
+        <v>649</v>
+      </c>
+      <c r="C303" s="4">
+        <v>264</v>
+      </c>
+      <c r="D303" s="4">
+        <v>5</v>
+      </c>
+      <c r="E303" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F303" s="4">
+        <v>67</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B304" t="s">
+        <v>650</v>
+      </c>
+      <c r="C304" s="4">
+        <v>1119</v>
+      </c>
+      <c r="D304" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="E304" s="4">
+        <v>72</v>
+      </c>
+      <c r="F304" s="4">
+        <v>107</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B305" t="s">
+        <v>651</v>
+      </c>
+      <c r="C305" s="4">
+        <v>241</v>
+      </c>
+      <c r="D305" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="E305" s="4">
+        <v>0</v>
+      </c>
+      <c r="F305" s="4">
+        <v>58</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B306" t="s">
+        <v>652</v>
+      </c>
+      <c r="C306" s="4">
+        <v>48</v>
+      </c>
+      <c r="D306" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E306" s="4">
+        <v>1</v>
+      </c>
+      <c r="F306" s="4">
+        <v>9</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B307" t="s">
+        <v>653</v>
+      </c>
+      <c r="C307" s="4">
+        <v>508</v>
+      </c>
+      <c r="D307" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="E307" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="F307" s="4">
+        <v>65.3</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B308" t="s">
+        <v>654</v>
+      </c>
+      <c r="C308" s="4">
+        <v>468.6</v>
+      </c>
+      <c r="D308" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="E308" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="F308" s="4">
+        <v>62.7</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B309" t="s">
+        <v>655</v>
+      </c>
+      <c r="C309" s="4">
+        <v>550</v>
+      </c>
+      <c r="D309" s="4">
+        <v>6</v>
+      </c>
+      <c r="E309" s="4">
+        <v>34</v>
+      </c>
+      <c r="F309" s="4">
+        <v>56</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B310" t="s">
+        <v>656</v>
+      </c>
+      <c r="C310" s="4">
+        <v>549</v>
+      </c>
+      <c r="D310" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E310" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="F310" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B311" t="s">
+        <v>657</v>
+      </c>
+      <c r="C311" s="4">
+        <v>540</v>
+      </c>
+      <c r="D311" s="4">
+        <v>8</v>
+      </c>
+      <c r="E311" s="4">
+        <v>32</v>
+      </c>
+      <c r="F311" s="4">
+        <v>56</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B312" t="s">
+        <v>658</v>
+      </c>
+      <c r="C312" s="4">
+        <v>520</v>
+      </c>
+      <c r="D312" s="4">
+        <v>8</v>
+      </c>
+      <c r="E312" s="4">
+        <v>28</v>
+      </c>
+      <c r="F312" s="4">
+        <v>60</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B313" t="s">
+        <v>659</v>
+      </c>
+      <c r="C313" s="4">
+        <v>419.1</v>
+      </c>
+      <c r="D313" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="E313" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F313" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B314" t="s">
+        <v>660</v>
+      </c>
+      <c r="C314" s="4">
+        <v>500</v>
+      </c>
+      <c r="D314" s="4">
+        <v>10</v>
+      </c>
+      <c r="E314" s="4">
+        <v>26</v>
+      </c>
+      <c r="F314" s="4">
+        <v>60</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B315" t="s">
+        <v>661</v>
+      </c>
+      <c r="C315" s="4">
+        <v>480</v>
+      </c>
+      <c r="D315" s="4">
+        <v>4</v>
+      </c>
+      <c r="E315" s="4">
+        <v>20</v>
+      </c>
+      <c r="F315" s="4">
+        <v>668</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B316" t="s">
+        <v>662</v>
+      </c>
+      <c r="C316" s="4">
+        <v>392</v>
+      </c>
+      <c r="D316" s="4">
+        <v>0</v>
+      </c>
+      <c r="E316" s="4">
+        <v>0</v>
+      </c>
+      <c r="F316" s="4">
+        <v>100</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B317" t="s">
+        <v>663</v>
+      </c>
+      <c r="C317" s="4">
+        <v>357.5</v>
+      </c>
+      <c r="D317" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="E317" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="F317" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B318" t="s">
+        <v>664</v>
+      </c>
+      <c r="C318" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="D318" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E318" s="4">
+        <v>0</v>
+      </c>
+      <c r="F318" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B319" t="s">
+        <v>665</v>
+      </c>
+      <c r="C319" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="D319" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E319" s="4">
+        <v>0</v>
+      </c>
+      <c r="F319" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B320" t="s">
+        <v>666</v>
+      </c>
+      <c r="C320" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="D320" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E320" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F320" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B321" t="s">
+        <v>667</v>
+      </c>
+      <c r="C321" s="4">
+        <v>60.3</v>
+      </c>
+      <c r="D321" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E321" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F321" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B322" t="s">
+        <v>668</v>
+      </c>
+      <c r="C322" s="4">
+        <v>52.1</v>
+      </c>
+      <c r="D322" s="4">
+        <v>3</v>
+      </c>
+      <c r="E322" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F322" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B323" t="s">
+        <v>669</v>
+      </c>
+      <c r="C323" s="4">
+        <v>60.3</v>
+      </c>
+      <c r="D323" s="4">
+        <v>2</v>
+      </c>
+      <c r="E323" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F323" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B324" t="s">
+        <v>670</v>
+      </c>
+      <c r="C324" s="4">
+        <v>388.6</v>
+      </c>
+      <c r="D324" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E324" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="F324" s="4">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B325" t="s">
+        <v>671</v>
+      </c>
+      <c r="C325" s="4">
+        <v>453.7</v>
+      </c>
+      <c r="D325" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="E325" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="F325" s="4">
+        <v>60</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B326" t="s">
+        <v>672</v>
+      </c>
+      <c r="C326" s="4">
+        <v>444.4</v>
+      </c>
+      <c r="D326" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="E326" s="4">
+        <v>16</v>
+      </c>
+      <c r="F326" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B327" t="s">
+        <v>673</v>
+      </c>
+      <c r="C327" s="4">
+        <v>451.4</v>
+      </c>
+      <c r="D327" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E327" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="F327" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B328" t="s">
+        <v>674</v>
+      </c>
+      <c r="C328" s="4">
+        <v>451.4</v>
+      </c>
+      <c r="D328" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E328" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="F328" s="4">
+        <v>64.5</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B329" t="s">
+        <v>675</v>
+      </c>
+      <c r="C329" s="4">
+        <v>487.8</v>
+      </c>
+      <c r="D329" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="E329" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="F329" s="4">
+        <v>62.3</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B330" t="s">
+        <v>676</v>
+      </c>
+      <c r="C330" s="4">
+        <v>485.1</v>
+      </c>
+      <c r="D330" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E330" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F330" s="4">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B331" t="s">
+        <v>677</v>
+      </c>
+      <c r="C331" s="4">
+        <v>447.3</v>
+      </c>
+      <c r="D331" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="E331" s="4">
+        <v>17</v>
+      </c>
+      <c r="F331" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B332" t="s">
+        <v>678</v>
+      </c>
+      <c r="C332" s="4">
+        <v>456.6</v>
+      </c>
+      <c r="D332" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E332" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="F332" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B333" t="s">
+        <v>679</v>
+      </c>
+      <c r="C333" s="4">
+        <v>471.6</v>
+      </c>
+      <c r="D333" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E333" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="F333" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B334" t="s">
+        <v>680</v>
+      </c>
+      <c r="C334" s="4">
+        <v>439.2</v>
+      </c>
+      <c r="D334" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E334" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F334" s="4">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B335" t="s">
+        <v>681</v>
+      </c>
+      <c r="C335" s="4">
+        <v>428.8</v>
+      </c>
+      <c r="D335" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E335" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="F335" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B336" t="s">
+        <v>682</v>
+      </c>
+      <c r="C336" s="4">
+        <v>436</v>
+      </c>
+      <c r="D336" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E336" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="F336" s="4">
+        <v>61.1</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B337" t="s">
+        <v>683</v>
+      </c>
+      <c r="C337" s="4">
+        <v>381.3</v>
+      </c>
+      <c r="D337" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="E337" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="F337" s="4">
+        <v>66</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B338" t="s">
+        <v>684</v>
+      </c>
+      <c r="C338" s="4">
+        <v>441.9</v>
+      </c>
+      <c r="D338" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E338" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="F338" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B339" t="s">
+        <v>685</v>
+      </c>
+      <c r="C339" s="4">
+        <v>432.3</v>
+      </c>
+      <c r="D339" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="E339" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="F339" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B340" t="s">
+        <v>686</v>
+      </c>
+      <c r="C340" s="4">
+        <v>416.7</v>
+      </c>
+      <c r="D340" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E340" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F340" s="4">
+        <v>54.9</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B341" t="s">
+        <v>687</v>
+      </c>
+      <c r="C341" s="4">
+        <v>472.9</v>
+      </c>
+      <c r="D341" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E341" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="F341" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B342" t="s">
+        <v>688</v>
+      </c>
+      <c r="C342" s="4">
+        <v>351.7</v>
+      </c>
+      <c r="D342" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E342" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="F342" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B343" t="s">
+        <v>689</v>
+      </c>
+      <c r="C343" s="4">
+        <v>384.6</v>
+      </c>
+      <c r="D343" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E343" s="4">
+        <v>10</v>
+      </c>
+      <c r="F343" s="4">
+        <v>66.8</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B344" t="s">
+        <v>699</v>
+      </c>
+      <c r="C344" s="4">
+        <v>283</v>
+      </c>
+      <c r="D344" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E344" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="F344" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B345" t="s">
+        <v>700</v>
+      </c>
+      <c r="C345" s="4">
+        <v>273</v>
+      </c>
+      <c r="D345" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E345" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="F345" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B346" t="s">
+        <v>701</v>
+      </c>
+      <c r="C346" s="4">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="D346" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E346" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F346" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B347" t="s">
+        <v>702</v>
+      </c>
+      <c r="C347" s="4">
+        <v>166.7</v>
+      </c>
+      <c r="D347" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E347" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="F347" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B348" t="s">
+        <v>703</v>
+      </c>
+      <c r="C348" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="D348" s="4">
+        <v>2</v>
+      </c>
+      <c r="E348" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="F348" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B349" t="s">
+        <v>704</v>
+      </c>
+      <c r="C349" s="4">
+        <v>244.2</v>
+      </c>
+      <c r="D349" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E349" s="4">
+        <v>17</v>
+      </c>
+      <c r="F349" s="4">
+        <v>21</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B350" t="s">
+        <v>705</v>
+      </c>
+      <c r="C350" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="D350" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E350" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F350" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B351" t="s">
+        <v>706</v>
+      </c>
+      <c r="C351" s="4">
+        <v>169.8</v>
+      </c>
+      <c r="D351" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E351" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F351" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B352" t="s">
+        <v>707</v>
+      </c>
+      <c r="C352" s="4">
+        <v>284.10000000000002</v>
+      </c>
+      <c r="D352" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E352" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="F352" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B353" t="s">
+        <v>708</v>
+      </c>
+      <c r="C353" s="4">
+        <v>126.6</v>
+      </c>
+      <c r="D353" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="E353" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F353" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B354" t="s">
+        <v>709</v>
+      </c>
+      <c r="C354" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="D354" s="4">
+        <v>2</v>
+      </c>
+      <c r="E354" s="4">
+        <v>8</v>
+      </c>
+      <c r="F354" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B355" t="s">
+        <v>710</v>
+      </c>
+      <c r="C355" s="4">
+        <v>160.4</v>
+      </c>
+      <c r="D355" s="4">
+        <v>2</v>
+      </c>
+      <c r="E355" s="4">
+        <v>8</v>
+      </c>
+      <c r="F355" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B356" t="s">
+        <v>711</v>
+      </c>
+      <c r="C356" s="4">
+        <v>168</v>
+      </c>
+      <c r="D356" s="4">
+        <v>2</v>
+      </c>
+      <c r="E356" s="4">
+        <v>8</v>
+      </c>
+      <c r="F356" s="4">
+        <v>22</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B357" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" s="4">
+        <v>165.2</v>
+      </c>
+      <c r="D357" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E357" s="4">
+        <v>8</v>
+      </c>
+      <c r="F357" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B358" t="s">
+        <v>713</v>
+      </c>
+      <c r="C358" s="4">
+        <v>138</v>
+      </c>
+      <c r="D358" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E358" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F358" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B359" t="s">
+        <v>714</v>
+      </c>
+      <c r="C359" s="4">
+        <v>165.2</v>
+      </c>
+      <c r="D359" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E359" s="4">
+        <v>8</v>
+      </c>
+      <c r="F359" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="G359">
         <v>0</v>
       </c>
     </row>
@@ -28287,10 +28287,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1129</v>
+        <v>1040</v>
       </c>
       <c r="B1" t="s">
-        <v>804</v>
+        <v>715</v>
       </c>
       <c r="C1" s="5">
         <v>42</v>
@@ -28310,10 +28310,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1130</v>
+        <v>1041</v>
       </c>
       <c r="B2" t="s">
-        <v>805</v>
+        <v>716</v>
       </c>
       <c r="C2" s="5">
         <v>54</v>
@@ -28333,10 +28333,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1131</v>
+        <v>1042</v>
       </c>
       <c r="B3" t="s">
-        <v>806</v>
+        <v>717</v>
       </c>
       <c r="C3" s="5">
         <v>53</v>
@@ -28356,10 +28356,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1132</v>
+        <v>1043</v>
       </c>
       <c r="B4" t="s">
-        <v>807</v>
+        <v>718</v>
       </c>
       <c r="C4" s="5">
         <v>45</v>
@@ -28379,10 +28379,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="B5" t="s">
-        <v>808</v>
+        <v>719</v>
       </c>
       <c r="C5" s="5">
         <v>40.5</v>
@@ -28402,10 +28402,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1134</v>
+        <v>1045</v>
       </c>
       <c r="B6" t="s">
-        <v>809</v>
+        <v>720</v>
       </c>
       <c r="C6" s="5">
         <v>46</v>
@@ -28425,10 +28425,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1135</v>
+        <v>1046</v>
       </c>
       <c r="B7" t="s">
-        <v>810</v>
+        <v>721</v>
       </c>
       <c r="C7" s="5">
         <v>73.3</v>
@@ -28448,10 +28448,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1136</v>
+        <v>1047</v>
       </c>
       <c r="B8" t="s">
-        <v>811</v>
+        <v>722</v>
       </c>
       <c r="C8" s="5">
         <v>39.700000000000003</v>
@@ -28471,10 +28471,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1137</v>
+        <v>1048</v>
       </c>
       <c r="B9" t="s">
-        <v>812</v>
+        <v>723</v>
       </c>
       <c r="C9" s="5">
         <v>37.299999999999997</v>
@@ -28494,10 +28494,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1138</v>
+        <v>1049</v>
       </c>
       <c r="B10" t="s">
-        <v>813</v>
+        <v>724</v>
       </c>
       <c r="C10" s="5">
         <v>32.200000000000003</v>
@@ -28517,10 +28517,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1139</v>
+        <v>1050</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>725</v>
       </c>
       <c r="C11" s="5">
         <v>58.8</v>
@@ -28540,10 +28540,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1140</v>
+        <v>1051</v>
       </c>
       <c r="B12" t="s">
-        <v>815</v>
+        <v>726</v>
       </c>
       <c r="C12" s="5">
         <v>303</v>
@@ -28563,10 +28563,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1141</v>
+        <v>1052</v>
       </c>
       <c r="B13" t="s">
-        <v>816</v>
+        <v>727</v>
       </c>
       <c r="C13" s="5">
         <v>291.60000000000002</v>
@@ -28586,10 +28586,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1142</v>
+        <v>1053</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
+        <v>728</v>
       </c>
       <c r="C14" s="5">
         <v>95</v>
@@ -28609,10 +28609,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1143</v>
+        <v>1054</v>
       </c>
       <c r="B15" t="s">
-        <v>818</v>
+        <v>729</v>
       </c>
       <c r="C15" s="5">
         <v>100</v>
@@ -28632,10 +28632,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1144</v>
+        <v>1055</v>
       </c>
       <c r="B16" t="s">
-        <v>819</v>
+        <v>730</v>
       </c>
       <c r="C16" s="5">
         <v>95</v>
@@ -28655,10 +28655,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1145</v>
+        <v>1056</v>
       </c>
       <c r="B17" t="s">
-        <v>820</v>
+        <v>731</v>
       </c>
       <c r="C17" s="5">
         <v>95</v>
@@ -28678,10 +28678,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1146</v>
+        <v>1057</v>
       </c>
       <c r="B18" t="s">
-        <v>821</v>
+        <v>732</v>
       </c>
       <c r="C18" s="5">
         <v>105</v>
@@ -28701,10 +28701,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1147</v>
+        <v>1058</v>
       </c>
       <c r="B19" t="s">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="C19" s="5">
         <v>106.7</v>
@@ -28724,10 +28724,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1148</v>
+        <v>1059</v>
       </c>
       <c r="B20" t="s">
-        <v>823</v>
+        <v>734</v>
       </c>
       <c r="C20" s="5">
         <v>108.7</v>
@@ -28747,10 +28747,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1149</v>
+        <v>1060</v>
       </c>
       <c r="B21" t="s">
-        <v>824</v>
+        <v>735</v>
       </c>
       <c r="C21" s="5">
         <v>108.7</v>
@@ -28770,10 +28770,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1150</v>
+        <v>1061</v>
       </c>
       <c r="B22" t="s">
-        <v>825</v>
+        <v>736</v>
       </c>
       <c r="C22" s="5">
         <v>109.5</v>
@@ -28793,10 +28793,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1151</v>
+        <v>1062</v>
       </c>
       <c r="B23" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="C23" s="5">
         <v>114.7</v>
@@ -28816,10 +28816,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1152</v>
+        <v>1063</v>
       </c>
       <c r="B24" t="s">
-        <v>827</v>
+        <v>738</v>
       </c>
       <c r="C24" s="5">
         <v>112.8</v>
@@ -28839,10 +28839,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1153</v>
+        <v>1064</v>
       </c>
       <c r="B25" t="s">
-        <v>828</v>
+        <v>739</v>
       </c>
       <c r="C25" s="5">
         <v>98</v>
@@ -28862,10 +28862,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1154</v>
+        <v>1065</v>
       </c>
       <c r="B26" t="s">
-        <v>829</v>
+        <v>740</v>
       </c>
       <c r="C26" s="5">
         <v>60.5</v>
@@ -28885,10 +28885,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1155</v>
+        <v>1066</v>
       </c>
       <c r="B27" t="s">
-        <v>830</v>
+        <v>741</v>
       </c>
       <c r="C27" s="5">
         <v>100.4</v>
@@ -28908,10 +28908,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1156</v>
+        <v>1067</v>
       </c>
       <c r="B28" t="s">
-        <v>831</v>
+        <v>742</v>
       </c>
       <c r="C28" s="5">
         <v>102</v>
@@ -28931,10 +28931,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1157</v>
+        <v>1068</v>
       </c>
       <c r="B29" t="s">
-        <v>832</v>
+        <v>743</v>
       </c>
       <c r="C29" s="5">
         <v>105</v>
@@ -28954,10 +28954,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1158</v>
+        <v>1069</v>
       </c>
       <c r="B30" t="s">
-        <v>833</v>
+        <v>744</v>
       </c>
       <c r="C30" s="5">
         <v>105</v>
@@ -28977,10 +28977,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1159</v>
+        <v>1070</v>
       </c>
       <c r="B31" t="s">
-        <v>834</v>
+        <v>745</v>
       </c>
       <c r="C31" s="5">
         <v>100</v>
@@ -29000,10 +29000,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1160</v>
+        <v>1071</v>
       </c>
       <c r="B32" t="s">
-        <v>835</v>
+        <v>746</v>
       </c>
       <c r="C32" s="5">
         <v>104.8</v>
@@ -29023,10 +29023,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1161</v>
+        <v>1072</v>
       </c>
       <c r="B33" t="s">
-        <v>836</v>
+        <v>747</v>
       </c>
       <c r="C33" s="5">
         <v>95.3</v>
@@ -29046,10 +29046,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1162</v>
+        <v>1073</v>
       </c>
       <c r="B34" t="s">
-        <v>837</v>
+        <v>748</v>
       </c>
       <c r="C34" s="5">
         <v>105</v>
@@ -29069,10 +29069,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1163</v>
+        <v>1074</v>
       </c>
       <c r="B35" t="s">
-        <v>838</v>
+        <v>749</v>
       </c>
       <c r="C35" s="5">
         <v>85.3</v>
@@ -29092,10 +29092,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1164</v>
+        <v>1075</v>
       </c>
       <c r="B36" t="s">
-        <v>839</v>
+        <v>750</v>
       </c>
       <c r="C36" s="5">
         <v>61</v>
@@ -29115,10 +29115,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1165</v>
+        <v>1076</v>
       </c>
       <c r="B37" t="s">
-        <v>840</v>
+        <v>751</v>
       </c>
       <c r="C37" s="5">
         <v>98.6</v>
@@ -29138,10 +29138,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1166</v>
+        <v>1077</v>
       </c>
       <c r="B38" t="s">
-        <v>841</v>
+        <v>752</v>
       </c>
       <c r="C38" s="5">
         <v>106.3</v>
@@ -29161,10 +29161,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1167</v>
+        <v>1078</v>
       </c>
       <c r="B39" t="s">
-        <v>842</v>
+        <v>753</v>
       </c>
       <c r="C39" s="5">
         <v>105.8</v>
@@ -29184,10 +29184,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1168</v>
+        <v>1079</v>
       </c>
       <c r="B40" t="s">
-        <v>843</v>
+        <v>754</v>
       </c>
       <c r="C40" s="5">
         <v>110.8</v>
@@ -29207,10 +29207,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1169</v>
+        <v>1080</v>
       </c>
       <c r="B41" t="s">
-        <v>844</v>
+        <v>755</v>
       </c>
       <c r="C41" s="5">
         <v>110.8</v>
@@ -29230,10 +29230,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1170</v>
+        <v>1081</v>
       </c>
       <c r="B42" t="s">
-        <v>845</v>
+        <v>756</v>
       </c>
       <c r="C42" s="5">
         <v>97</v>
@@ -29253,10 +29253,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1171</v>
+        <v>1082</v>
       </c>
       <c r="B43" t="s">
-        <v>846</v>
+        <v>757</v>
       </c>
       <c r="C43" s="5">
         <v>101</v>
@@ -29276,10 +29276,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1172</v>
+        <v>1083</v>
       </c>
       <c r="B44" t="s">
-        <v>847</v>
+        <v>758</v>
       </c>
       <c r="C44" s="5">
         <v>195</v>
@@ -29299,10 +29299,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1173</v>
+        <v>1084</v>
       </c>
       <c r="B45" t="s">
-        <v>848</v>
+        <v>759</v>
       </c>
       <c r="C45" s="5">
         <v>75.8</v>
@@ -29322,10 +29322,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1174</v>
+        <v>1085</v>
       </c>
       <c r="B46" t="s">
-        <v>849</v>
+        <v>760</v>
       </c>
       <c r="C46" s="5">
         <v>72.5</v>
@@ -29345,10 +29345,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1175</v>
+        <v>1086</v>
       </c>
       <c r="B47" t="s">
-        <v>850</v>
+        <v>761</v>
       </c>
       <c r="C47" s="5">
         <v>72.5</v>
@@ -29368,10 +29368,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1176</v>
+        <v>1087</v>
       </c>
       <c r="B48" t="s">
-        <v>851</v>
+        <v>762</v>
       </c>
       <c r="C48" s="5">
         <v>72.5</v>
@@ -29391,10 +29391,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1177</v>
+        <v>1088</v>
       </c>
       <c r="B49" t="s">
-        <v>852</v>
+        <v>763</v>
       </c>
       <c r="C49" s="5">
         <v>72.5</v>
@@ -29414,10 +29414,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1178</v>
+        <v>1089</v>
       </c>
       <c r="B50" t="s">
-        <v>853</v>
+        <v>764</v>
       </c>
       <c r="C50" s="5">
         <v>65</v>
@@ -29437,10 +29437,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1179</v>
+        <v>1090</v>
       </c>
       <c r="B51" t="s">
-        <v>854</v>
+        <v>765</v>
       </c>
       <c r="C51" s="5">
         <v>86.1</v>
@@ -29460,10 +29460,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1180</v>
+        <v>1091</v>
       </c>
       <c r="B52" t="s">
-        <v>855</v>
+        <v>766</v>
       </c>
       <c r="C52" s="5">
         <v>85.2</v>
@@ -29483,10 +29483,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1181</v>
+        <v>1092</v>
       </c>
       <c r="B53" t="s">
-        <v>856</v>
+        <v>767</v>
       </c>
       <c r="C53" s="5">
         <v>63.6</v>
@@ -29506,10 +29506,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1182</v>
+        <v>1093</v>
       </c>
       <c r="B54" t="s">
-        <v>857</v>
+        <v>768</v>
       </c>
       <c r="C54" s="5">
         <v>67.2</v>
@@ -29529,10 +29529,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1183</v>
+        <v>1094</v>
       </c>
       <c r="B55" t="s">
-        <v>858</v>
+        <v>769</v>
       </c>
       <c r="C55" s="5">
         <v>43.2</v>
@@ -29552,10 +29552,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1184</v>
+        <v>1095</v>
       </c>
       <c r="B56" t="s">
-        <v>859</v>
+        <v>770</v>
       </c>
       <c r="C56" s="5">
         <v>67.2</v>
@@ -29575,10 +29575,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1185</v>
+        <v>1096</v>
       </c>
       <c r="B57" t="s">
-        <v>860</v>
+        <v>771</v>
       </c>
       <c r="C57" s="5">
         <v>63.9</v>
@@ -29598,10 +29598,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1186</v>
+        <v>1097</v>
       </c>
       <c r="B58" t="s">
-        <v>861</v>
+        <v>772</v>
       </c>
       <c r="C58" s="5">
         <v>64.8</v>
@@ -29621,10 +29621,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1187</v>
+        <v>1098</v>
       </c>
       <c r="B59" t="s">
-        <v>904</v>
+        <v>815</v>
       </c>
       <c r="C59" s="5">
         <v>70.400000000000006</v>
@@ -29644,10 +29644,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1188</v>
+        <v>1099</v>
       </c>
       <c r="B60" t="s">
-        <v>905</v>
+        <v>816</v>
       </c>
       <c r="C60" s="5">
         <v>70.400000000000006</v>
@@ -29667,10 +29667,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1189</v>
+        <v>1100</v>
       </c>
       <c r="B61" t="s">
-        <v>906</v>
+        <v>817</v>
       </c>
       <c r="C61" s="5">
         <v>70.400000000000006</v>
@@ -29690,10 +29690,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1190</v>
+        <v>1101</v>
       </c>
       <c r="B62" t="s">
-        <v>907</v>
+        <v>818</v>
       </c>
       <c r="C62" s="5">
         <v>76.5</v>
@@ -29713,10 +29713,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1191</v>
+        <v>1102</v>
       </c>
       <c r="B63" t="s">
-        <v>908</v>
+        <v>819</v>
       </c>
       <c r="C63" s="5">
         <v>76.599999999999994</v>
@@ -29736,10 +29736,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1192</v>
+        <v>1103</v>
       </c>
       <c r="B64" t="s">
-        <v>909</v>
+        <v>820</v>
       </c>
       <c r="C64" s="5">
         <v>64.8</v>
@@ -29759,10 +29759,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1193</v>
+        <v>1104</v>
       </c>
       <c r="B65" t="s">
-        <v>862</v>
+        <v>773</v>
       </c>
       <c r="C65" s="5">
         <v>70.8</v>
@@ -29782,10 +29782,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1194</v>
+        <v>1105</v>
       </c>
       <c r="B66" t="s">
-        <v>863</v>
+        <v>774</v>
       </c>
       <c r="C66" s="5">
         <v>70.8</v>
@@ -29805,10 +29805,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1195</v>
+        <v>1106</v>
       </c>
       <c r="B67" t="s">
-        <v>864</v>
+        <v>775</v>
       </c>
       <c r="C67" s="5">
         <v>84</v>
@@ -29828,10 +29828,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1196</v>
+        <v>1107</v>
       </c>
       <c r="B68" t="s">
-        <v>865</v>
+        <v>776</v>
       </c>
       <c r="C68" s="5">
         <v>64</v>
@@ -29851,10 +29851,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1197</v>
+        <v>1108</v>
       </c>
       <c r="B69" t="s">
-        <v>866</v>
+        <v>777</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -29874,10 +29874,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1198</v>
+        <v>1109</v>
       </c>
       <c r="B70" t="s">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="C70" s="5">
         <v>70</v>
@@ -29897,10 +29897,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1199</v>
+        <v>1110</v>
       </c>
       <c r="B71" t="s">
-        <v>868</v>
+        <v>779</v>
       </c>
       <c r="C71" s="5">
         <v>75</v>
@@ -29920,10 +29920,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="B72" t="s">
-        <v>869</v>
+        <v>780</v>
       </c>
       <c r="C72" s="5">
         <v>64</v>
@@ -29943,10 +29943,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1201</v>
+        <v>1112</v>
       </c>
       <c r="B73" t="s">
-        <v>870</v>
+        <v>781</v>
       </c>
       <c r="C73" s="5">
         <v>56.7</v>
@@ -29966,10 +29966,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1202</v>
+        <v>1113</v>
       </c>
       <c r="B74" t="s">
-        <v>871</v>
+        <v>782</v>
       </c>
       <c r="C74" s="5">
         <v>56.6</v>
@@ -29989,10 +29989,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1203</v>
+        <v>1114</v>
       </c>
       <c r="B75" t="s">
-        <v>872</v>
+        <v>783</v>
       </c>
       <c r="C75" s="5">
         <v>85</v>
@@ -30012,10 +30012,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1204</v>
+        <v>1115</v>
       </c>
       <c r="B76" t="s">
-        <v>873</v>
+        <v>784</v>
       </c>
       <c r="C76" s="5">
         <v>50.7</v>
@@ -30035,10 +30035,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1205</v>
+        <v>1116</v>
       </c>
       <c r="B77" t="s">
-        <v>874</v>
+        <v>785</v>
       </c>
       <c r="C77" s="5">
         <v>64</v>
@@ -30058,10 +30058,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1206</v>
+        <v>1117</v>
       </c>
       <c r="B78" t="s">
-        <v>875</v>
+        <v>786</v>
       </c>
       <c r="C78" s="5">
         <v>50</v>
@@ -30081,10 +30081,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1207</v>
+        <v>1118</v>
       </c>
       <c r="B79" t="s">
-        <v>876</v>
+        <v>787</v>
       </c>
       <c r="C79" s="5">
         <v>40</v>
@@ -30104,10 +30104,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1208</v>
+        <v>1119</v>
       </c>
       <c r="B80" t="s">
-        <v>877</v>
+        <v>788</v>
       </c>
       <c r="C80" s="5">
         <v>39.799999999999997</v>
@@ -30127,10 +30127,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1209</v>
+        <v>1120</v>
       </c>
       <c r="B81" t="s">
-        <v>878</v>
+        <v>789</v>
       </c>
       <c r="C81" s="5">
         <v>41.3</v>
@@ -30150,10 +30150,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1210</v>
+        <v>1121</v>
       </c>
       <c r="B82" t="s">
-        <v>879</v>
+        <v>790</v>
       </c>
       <c r="C82" s="5">
         <v>60</v>
@@ -30173,10 +30173,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1211</v>
+        <v>1122</v>
       </c>
       <c r="B83" t="s">
-        <v>880</v>
+        <v>791</v>
       </c>
       <c r="C83" s="5">
         <v>62.2</v>
@@ -30196,10 +30196,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1212</v>
+        <v>1123</v>
       </c>
       <c r="B84" t="s">
-        <v>881</v>
+        <v>792</v>
       </c>
       <c r="C84" s="5">
         <v>62.2</v>
@@ -30219,10 +30219,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1213</v>
+        <v>1124</v>
       </c>
       <c r="B85" t="s">
-        <v>882</v>
+        <v>793</v>
       </c>
       <c r="C85" s="5">
         <v>50</v>
@@ -30242,10 +30242,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1214</v>
+        <v>1125</v>
       </c>
       <c r="B86" t="s">
-        <v>883</v>
+        <v>794</v>
       </c>
       <c r="C86" s="5">
         <v>83.9</v>
@@ -30265,10 +30265,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1215</v>
+        <v>1126</v>
       </c>
       <c r="B87" t="s">
-        <v>884</v>
+        <v>795</v>
       </c>
       <c r="C87" s="5">
         <v>75.599999999999994</v>
@@ -30288,10 +30288,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1216</v>
+        <v>1127</v>
       </c>
       <c r="B88" t="s">
-        <v>885</v>
+        <v>796</v>
       </c>
       <c r="C88" s="5">
         <v>91.7</v>
@@ -30311,10 +30311,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1217</v>
+        <v>1128</v>
       </c>
       <c r="B89" t="s">
-        <v>886</v>
+        <v>797</v>
       </c>
       <c r="C89" s="5">
         <v>65.099999999999994</v>
@@ -30334,10 +30334,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1218</v>
+        <v>1129</v>
       </c>
       <c r="B90" t="s">
-        <v>887</v>
+        <v>798</v>
       </c>
       <c r="C90" s="5">
         <v>49.5</v>
@@ -30357,10 +30357,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1219</v>
+        <v>1130</v>
       </c>
       <c r="B91" t="s">
-        <v>888</v>
+        <v>799</v>
       </c>
       <c r="C91" s="5">
         <v>77.8</v>
@@ -30380,10 +30380,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1220</v>
+        <v>1131</v>
       </c>
       <c r="B92" t="s">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="C92" s="5">
         <v>83.7</v>
@@ -30403,10 +30403,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1221</v>
+        <v>1132</v>
       </c>
       <c r="B93" t="s">
-        <v>890</v>
+        <v>801</v>
       </c>
       <c r="C93" s="5">
         <v>82.2</v>
@@ -30426,10 +30426,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1222</v>
+        <v>1133</v>
       </c>
       <c r="B94" t="s">
-        <v>891</v>
+        <v>802</v>
       </c>
       <c r="C94" s="5">
         <v>73</v>
@@ -30449,10 +30449,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1223</v>
+        <v>1134</v>
       </c>
       <c r="B95" t="s">
-        <v>892</v>
+        <v>803</v>
       </c>
       <c r="C95" s="5">
         <v>62.7</v>
@@ -30472,10 +30472,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1224</v>
+        <v>1135</v>
       </c>
       <c r="B96" t="s">
-        <v>893</v>
+        <v>804</v>
       </c>
       <c r="C96" s="5">
         <v>72</v>
@@ -30495,10 +30495,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1225</v>
+        <v>1136</v>
       </c>
       <c r="B97" t="s">
-        <v>894</v>
+        <v>805</v>
       </c>
       <c r="C97" s="5">
         <v>80</v>
@@ -30518,10 +30518,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1226</v>
+        <v>1137</v>
       </c>
       <c r="B98" t="s">
-        <v>895</v>
+        <v>806</v>
       </c>
       <c r="C98" s="5">
         <v>70</v>
@@ -30541,10 +30541,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1227</v>
+        <v>1138</v>
       </c>
       <c r="B99" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C99" s="5">
         <v>60</v>
@@ -30564,10 +30564,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1228</v>
+        <v>1139</v>
       </c>
       <c r="B100" t="s">
-        <v>897</v>
+        <v>808</v>
       </c>
       <c r="C100" s="5">
         <v>80</v>
@@ -30587,10 +30587,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1229</v>
+        <v>1140</v>
       </c>
       <c r="B101" t="s">
-        <v>898</v>
+        <v>809</v>
       </c>
       <c r="C101" s="5">
         <v>75.099999999999994</v>
@@ -30610,10 +30610,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1230</v>
+        <v>1141</v>
       </c>
       <c r="B102" t="s">
-        <v>899</v>
+        <v>810</v>
       </c>
       <c r="C102" s="5">
         <v>83.1</v>
@@ -30633,10 +30633,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1231</v>
+        <v>1142</v>
       </c>
       <c r="B103" t="s">
-        <v>900</v>
+        <v>811</v>
       </c>
       <c r="C103" s="5">
         <v>75.900000000000006</v>
@@ -30656,10 +30656,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1232</v>
+        <v>1143</v>
       </c>
       <c r="B104" t="s">
-        <v>901</v>
+        <v>812</v>
       </c>
       <c r="C104" s="5">
         <v>64.599999999999994</v>
@@ -30679,10 +30679,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1233</v>
+        <v>1144</v>
       </c>
       <c r="B105" t="s">
-        <v>902</v>
+        <v>813</v>
       </c>
       <c r="C105" s="5">
         <v>83.9</v>
@@ -30702,10 +30702,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1234</v>
+        <v>1145</v>
       </c>
       <c r="B106" t="s">
-        <v>903</v>
+        <v>814</v>
       </c>
       <c r="C106" s="5">
         <v>53.9</v>
@@ -30725,10 +30725,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1235</v>
+        <v>1146</v>
       </c>
       <c r="B107" t="s">
-        <v>968</v>
+        <v>879</v>
       </c>
       <c r="C107" s="5">
         <v>336</v>
@@ -30748,10 +30748,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1236</v>
+        <v>1147</v>
       </c>
       <c r="B108" t="s">
-        <v>1020</v>
+        <v>931</v>
       </c>
       <c r="C108" s="5">
         <v>91</v>
@@ -30771,10 +30771,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1237</v>
+        <v>1148</v>
       </c>
       <c r="B109" t="s">
-        <v>1054</v>
+        <v>965</v>
       </c>
       <c r="C109" s="5">
         <v>64.759358288770059</v>
@@ -30794,10 +30794,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1238</v>
+        <v>1149</v>
       </c>
       <c r="B110" t="s">
-        <v>1076</v>
+        <v>987</v>
       </c>
       <c r="C110" s="5">
         <v>72.727272727272734</v>
@@ -30817,10 +30817,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1239</v>
+        <v>1150</v>
       </c>
       <c r="B111" t="s">
-        <v>1077</v>
+        <v>988</v>
       </c>
       <c r="C111" s="5">
         <v>47</v>
@@ -30840,10 +30840,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1240</v>
+        <v>1151</v>
       </c>
       <c r="B112" t="s">
-        <v>1078</v>
+        <v>989</v>
       </c>
       <c r="C112" s="5">
         <v>59.484848484848484</v>
@@ -30863,10 +30863,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1241</v>
+        <v>1152</v>
       </c>
       <c r="B113" t="s">
-        <v>1079</v>
+        <v>990</v>
       </c>
       <c r="C113" s="5">
         <v>35.757575757575758</v>
@@ -30886,10 +30886,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1242</v>
+        <v>1153</v>
       </c>
       <c r="B114" t="s">
-        <v>1080</v>
+        <v>991</v>
       </c>
       <c r="C114" s="5">
         <v>65.878787878787875</v>
@@ -30909,10 +30909,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1243</v>
+        <v>1154</v>
       </c>
       <c r="B115" t="s">
-        <v>1081</v>
+        <v>992</v>
       </c>
       <c r="C115" s="5">
         <v>71.666666666666671</v>
@@ -30932,10 +30932,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1244</v>
+        <v>1155</v>
       </c>
       <c r="B116" t="s">
-        <v>1082</v>
+        <v>993</v>
       </c>
       <c r="C116" s="5">
         <v>51.81818181818182</v>
@@ -30955,10 +30955,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1245</v>
+        <v>1156</v>
       </c>
       <c r="B117" t="s">
-        <v>1083</v>
+        <v>994</v>
       </c>
       <c r="C117" s="5">
         <v>60.060606060606062</v>
@@ -30978,10 +30978,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1246</v>
+        <v>1157</v>
       </c>
       <c r="B118" t="s">
-        <v>1084</v>
+        <v>995</v>
       </c>
       <c r="C118" s="5">
         <v>46.878787878787875</v>
@@ -31001,10 +31001,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1247</v>
+        <v>1158</v>
       </c>
       <c r="B119" t="s">
-        <v>1085</v>
+        <v>996</v>
       </c>
       <c r="C119" s="5">
         <v>70.515151515151516</v>
@@ -31024,10 +31024,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1248</v>
+        <v>1159</v>
       </c>
       <c r="B120" t="s">
-        <v>1086</v>
+        <v>997</v>
       </c>
       <c r="C120" s="5">
         <v>65.939393939393938</v>
@@ -31047,10 +31047,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1249</v>
+        <v>1160</v>
       </c>
       <c r="B121" t="s">
-        <v>1092</v>
+        <v>1003</v>
       </c>
       <c r="C121" s="5">
         <v>21.1</v>
@@ -31070,10 +31070,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1250</v>
+        <v>1161</v>
       </c>
       <c r="B122" t="s">
-        <v>1093</v>
+        <v>1004</v>
       </c>
       <c r="C122" s="5">
         <v>53.06</v>
@@ -31093,10 +31093,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1251</v>
+        <v>1162</v>
       </c>
       <c r="B123" t="s">
-        <v>1114</v>
+        <v>1025</v>
       </c>
       <c r="C123" s="5">
         <v>10.98</v>
@@ -31116,10 +31116,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1252</v>
+        <v>1163</v>
       </c>
       <c r="B124" t="s">
-        <v>1115</v>
+        <v>1026</v>
       </c>
       <c r="C124" s="5">
         <v>48.88</v>
@@ -31139,10 +31139,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1253</v>
+        <v>1164</v>
       </c>
       <c r="B125" t="s">
-        <v>1116</v>
+        <v>1027</v>
       </c>
       <c r="C125" s="5">
         <v>17.38</v>

--- a/app/src/main/assets/Diary.xlsx
+++ b/app/src/main/assets/Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB63E167-B94D-D446-A235-657D8F960417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F8F50-F28C-4D4C-A403-A2909C9FA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="460" windowWidth="22540" windowHeight="17540" activeTab="1" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
@@ -1902,9 +1902,147 @@
     <t>Xôi xéo</t>
   </si>
   <si>
+    <t>N1001</t>
+  </si>
+  <si>
     <t>Bánh bông lan cam Kinh Đô</t>
   </si>
   <si>
+    <t>N1002</t>
+  </si>
+  <si>
+    <t>N1003</t>
+  </si>
+  <si>
+    <t>N1004</t>
+  </si>
+  <si>
+    <t>N1005</t>
+  </si>
+  <si>
+    <t>N1006</t>
+  </si>
+  <si>
+    <t>N1007</t>
+  </si>
+  <si>
+    <t>N1008</t>
+  </si>
+  <si>
+    <t>N1009</t>
+  </si>
+  <si>
+    <t>N1010</t>
+  </si>
+  <si>
+    <t>N1011</t>
+  </si>
+  <si>
+    <t>N1012</t>
+  </si>
+  <si>
+    <t>N1013</t>
+  </si>
+  <si>
+    <t>N1014</t>
+  </si>
+  <si>
+    <t>N1015</t>
+  </si>
+  <si>
+    <t>N1016</t>
+  </si>
+  <si>
+    <t>N1017</t>
+  </si>
+  <si>
+    <t>N1018</t>
+  </si>
+  <si>
+    <t>N1019</t>
+  </si>
+  <si>
+    <t>N1020</t>
+  </si>
+  <si>
+    <t>N1021</t>
+  </si>
+  <si>
+    <t>N1022</t>
+  </si>
+  <si>
+    <t>N1023</t>
+  </si>
+  <si>
+    <t>N1024</t>
+  </si>
+  <si>
+    <t>N1025</t>
+  </si>
+  <si>
+    <t>N1026</t>
+  </si>
+  <si>
+    <t>N1027</t>
+  </si>
+  <si>
+    <t>N1028</t>
+  </si>
+  <si>
+    <t>N1029</t>
+  </si>
+  <si>
+    <t>N1030</t>
+  </si>
+  <si>
+    <t>N1031</t>
+  </si>
+  <si>
+    <t>N1032</t>
+  </si>
+  <si>
+    <t>N1033</t>
+  </si>
+  <si>
+    <t>N1034</t>
+  </si>
+  <si>
+    <t>N1035</t>
+  </si>
+  <si>
+    <t>N1036</t>
+  </si>
+  <si>
+    <t>N1037</t>
+  </si>
+  <si>
+    <t>N1038</t>
+  </si>
+  <si>
+    <t>N1039</t>
+  </si>
+  <si>
+    <t>N1040</t>
+  </si>
+  <si>
+    <t>N1041</t>
+  </si>
+  <si>
+    <t>N1042</t>
+  </si>
+  <si>
+    <t>N1043</t>
+  </si>
+  <si>
+    <t>N1044</t>
+  </si>
+  <si>
+    <t>N1045</t>
+  </si>
+  <si>
+    <t>N1046</t>
+  </si>
+  <si>
     <t>Bánh chấm phô mai vị pizza</t>
   </si>
   <si>
@@ -2028,6 +2166,87 @@
     <t>Trà chanh Lipton</t>
   </si>
   <si>
+    <t>N2001</t>
+  </si>
+  <si>
+    <t>N2002</t>
+  </si>
+  <si>
+    <t>N2003</t>
+  </si>
+  <si>
+    <t>N2004</t>
+  </si>
+  <si>
+    <t>N2005</t>
+  </si>
+  <si>
+    <t>N2006</t>
+  </si>
+  <si>
+    <t>N2007</t>
+  </si>
+  <si>
+    <t>N2008</t>
+  </si>
+  <si>
+    <t>N2009</t>
+  </si>
+  <si>
+    <t>N2010</t>
+  </si>
+  <si>
+    <t>N2011</t>
+  </si>
+  <si>
+    <t>N2012</t>
+  </si>
+  <si>
+    <t>N2013</t>
+  </si>
+  <si>
+    <t>N2014</t>
+  </si>
+  <si>
+    <t>N2015</t>
+  </si>
+  <si>
+    <t>N2016</t>
+  </si>
+  <si>
+    <t>N2017</t>
+  </si>
+  <si>
+    <t>N2018</t>
+  </si>
+  <si>
+    <t>N2019</t>
+  </si>
+  <si>
+    <t>N2020</t>
+  </si>
+  <si>
+    <t>N2021</t>
+  </si>
+  <si>
+    <t>N2022</t>
+  </si>
+  <si>
+    <t>N2023</t>
+  </si>
+  <si>
+    <t>N2024</t>
+  </si>
+  <si>
+    <t>N2025</t>
+  </si>
+  <si>
+    <t>N2026</t>
+  </si>
+  <si>
+    <t>N2027</t>
+  </si>
+  <si>
     <t>Bún bò Huế gói Hằng Nga</t>
   </si>
   <si>
@@ -2136,6 +2355,54 @@
     <t>Hạt óc chó</t>
   </si>
   <si>
+    <t>N3001</t>
+  </si>
+  <si>
+    <t>N3002</t>
+  </si>
+  <si>
+    <t>N3003</t>
+  </si>
+  <si>
+    <t>N3004</t>
+  </si>
+  <si>
+    <t>N3005</t>
+  </si>
+  <si>
+    <t>N3006</t>
+  </si>
+  <si>
+    <t>N3007</t>
+  </si>
+  <si>
+    <t>N3008</t>
+  </si>
+  <si>
+    <t>N3009</t>
+  </si>
+  <si>
+    <t>N3010</t>
+  </si>
+  <si>
+    <t>N3011</t>
+  </si>
+  <si>
+    <t>N3012</t>
+  </si>
+  <si>
+    <t>N3013</t>
+  </si>
+  <si>
+    <t>N3014</t>
+  </si>
+  <si>
+    <t>N3015</t>
+  </si>
+  <si>
+    <t>N3016</t>
+  </si>
+  <si>
     <t>Kem delight cà phê hạnh nhân</t>
   </si>
   <si>
@@ -4150,273 +4417,6 @@
   </si>
   <si>
     <t>n5206</t>
-  </si>
-  <si>
-    <t>n1001</t>
-  </si>
-  <si>
-    <t>n1002</t>
-  </si>
-  <si>
-    <t>n1003</t>
-  </si>
-  <si>
-    <t>n1004</t>
-  </si>
-  <si>
-    <t>n1005</t>
-  </si>
-  <si>
-    <t>n1006</t>
-  </si>
-  <si>
-    <t>n1007</t>
-  </si>
-  <si>
-    <t>n1008</t>
-  </si>
-  <si>
-    <t>n1009</t>
-  </si>
-  <si>
-    <t>n1010</t>
-  </si>
-  <si>
-    <t>n1011</t>
-  </si>
-  <si>
-    <t>n1012</t>
-  </si>
-  <si>
-    <t>n1013</t>
-  </si>
-  <si>
-    <t>n1014</t>
-  </si>
-  <si>
-    <t>n1015</t>
-  </si>
-  <si>
-    <t>n1016</t>
-  </si>
-  <si>
-    <t>n1017</t>
-  </si>
-  <si>
-    <t>n1018</t>
-  </si>
-  <si>
-    <t>n1019</t>
-  </si>
-  <si>
-    <t>n1020</t>
-  </si>
-  <si>
-    <t>n1021</t>
-  </si>
-  <si>
-    <t>n1022</t>
-  </si>
-  <si>
-    <t>n1023</t>
-  </si>
-  <si>
-    <t>n1024</t>
-  </si>
-  <si>
-    <t>n1025</t>
-  </si>
-  <si>
-    <t>n1026</t>
-  </si>
-  <si>
-    <t>n1027</t>
-  </si>
-  <si>
-    <t>n1028</t>
-  </si>
-  <si>
-    <t>n1029</t>
-  </si>
-  <si>
-    <t>n1030</t>
-  </si>
-  <si>
-    <t>n1031</t>
-  </si>
-  <si>
-    <t>n1032</t>
-  </si>
-  <si>
-    <t>n1033</t>
-  </si>
-  <si>
-    <t>n1034</t>
-  </si>
-  <si>
-    <t>n1035</t>
-  </si>
-  <si>
-    <t>n1036</t>
-  </si>
-  <si>
-    <t>n1037</t>
-  </si>
-  <si>
-    <t>n1038</t>
-  </si>
-  <si>
-    <t>n1039</t>
-  </si>
-  <si>
-    <t>n1040</t>
-  </si>
-  <si>
-    <t>n1041</t>
-  </si>
-  <si>
-    <t>n1042</t>
-  </si>
-  <si>
-    <t>n1043</t>
-  </si>
-  <si>
-    <t>n1044</t>
-  </si>
-  <si>
-    <t>n1045</t>
-  </si>
-  <si>
-    <t>n1046</t>
-  </si>
-  <si>
-    <t>n1047</t>
-  </si>
-  <si>
-    <t>n1048</t>
-  </si>
-  <si>
-    <t>n1049</t>
-  </si>
-  <si>
-    <t>n1050</t>
-  </si>
-  <si>
-    <t>n1051</t>
-  </si>
-  <si>
-    <t>n1052</t>
-  </si>
-  <si>
-    <t>n1053</t>
-  </si>
-  <si>
-    <t>n1054</t>
-  </si>
-  <si>
-    <t>n1055</t>
-  </si>
-  <si>
-    <t>n1056</t>
-  </si>
-  <si>
-    <t>n1057</t>
-  </si>
-  <si>
-    <t>n1058</t>
-  </si>
-  <si>
-    <t>n1059</t>
-  </si>
-  <si>
-    <t>n1060</t>
-  </si>
-  <si>
-    <t>n1061</t>
-  </si>
-  <si>
-    <t>n1062</t>
-  </si>
-  <si>
-    <t>n1063</t>
-  </si>
-  <si>
-    <t>n1064</t>
-  </si>
-  <si>
-    <t>n1065</t>
-  </si>
-  <si>
-    <t>n1066</t>
-  </si>
-  <si>
-    <t>n1067</t>
-  </si>
-  <si>
-    <t>n1068</t>
-  </si>
-  <si>
-    <t>n1069</t>
-  </si>
-  <si>
-    <t>n1070</t>
-  </si>
-  <si>
-    <t>n1071</t>
-  </si>
-  <si>
-    <t>n1072</t>
-  </si>
-  <si>
-    <t>n1073</t>
-  </si>
-  <si>
-    <t>n1074</t>
-  </si>
-  <si>
-    <t>n1075</t>
-  </si>
-  <si>
-    <t>n1076</t>
-  </si>
-  <si>
-    <t>n1077</t>
-  </si>
-  <si>
-    <t>n1078</t>
-  </si>
-  <si>
-    <t>n1079</t>
-  </si>
-  <si>
-    <t>n1080</t>
-  </si>
-  <si>
-    <t>n1081</t>
-  </si>
-  <si>
-    <t>n1082</t>
-  </si>
-  <si>
-    <t>n1083</t>
-  </si>
-  <si>
-    <t>n1084</t>
-  </si>
-  <si>
-    <t>n1085</t>
-  </si>
-  <si>
-    <t>n1086</t>
-  </si>
-  <si>
-    <t>n1087</t>
-  </si>
-  <si>
-    <t>n1088</t>
-  </si>
-  <si>
-    <t>n1089</t>
   </si>
 </sst>
 </file>
@@ -9012,7 +9012,7 @@
         <v>3034</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>693</v>
+        <v>766</v>
       </c>
       <c r="C83" s="1">
         <v>584</v>
@@ -9035,7 +9035,7 @@
         <v>3035</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>694</v>
+        <v>767</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -9058,7 +9058,7 @@
         <v>3036</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>695</v>
+        <v>768</v>
       </c>
       <c r="C85" s="1">
         <v>364</v>
@@ -9081,7 +9081,7 @@
         <v>3037</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>696</v>
+        <v>769</v>
       </c>
       <c r="C86" s="1">
         <v>616</v>
@@ -9104,7 +9104,7 @@
         <v>3038</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="C87" s="1">
         <v>611</v>
@@ -9127,7 +9127,7 @@
         <v>3039</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>698</v>
+        <v>771</v>
       </c>
       <c r="C88" s="1">
         <v>654</v>
@@ -13773,7 +13773,7 @@
         <v>6015</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>690</v>
+        <v>763</v>
       </c>
       <c r="C290" s="1">
         <v>728.5</v>
@@ -13796,7 +13796,7 @@
         <v>6016</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>691</v>
+        <v>764</v>
       </c>
       <c r="C291" s="1">
         <v>896</v>
@@ -13819,7 +13819,7 @@
         <v>6017</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="C292" s="1">
         <v>935</v>
@@ -19987,8 +19987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52B376-B4BF-CF4C-B4B6-CFDB45A364D3}">
   <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B357" sqref="B357"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20002,7 +20002,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1165</v>
+        <v>1254</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -20025,10 +20025,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1255</v>
       </c>
       <c r="B2" t="s">
-        <v>821</v>
+        <v>910</v>
       </c>
       <c r="C2" s="5">
         <v>158.91304347826085</v>
@@ -20048,10 +20048,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1256</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>911</v>
       </c>
       <c r="C3" s="5">
         <v>303.64705882352945</v>
@@ -20071,10 +20071,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1257</v>
       </c>
       <c r="B4" t="s">
-        <v>823</v>
+        <v>912</v>
       </c>
       <c r="C4" s="5">
         <v>238.00000000000003</v>
@@ -20094,10 +20094,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1258</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>913</v>
       </c>
       <c r="C5" s="5">
         <v>143.08868501529051</v>
@@ -20117,10 +20117,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1259</v>
       </c>
       <c r="B6" t="s">
-        <v>825</v>
+        <v>914</v>
       </c>
       <c r="C6" s="5">
         <v>139.16666666666666</v>
@@ -20140,10 +20140,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1260</v>
       </c>
       <c r="B7" t="s">
-        <v>826</v>
+        <v>915</v>
       </c>
       <c r="C7" s="5">
         <v>353.15789473684208</v>
@@ -20163,10 +20163,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1172</v>
+        <v>1261</v>
       </c>
       <c r="B8" t="s">
-        <v>827</v>
+        <v>916</v>
       </c>
       <c r="C8" s="5">
         <v>218.9940828402367</v>
@@ -20186,10 +20186,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1173</v>
+        <v>1262</v>
       </c>
       <c r="B9" t="s">
-        <v>828</v>
+        <v>917</v>
       </c>
       <c r="C9" s="5">
         <v>182.81150159744411</v>
@@ -20209,10 +20209,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1174</v>
+        <v>1263</v>
       </c>
       <c r="B10" t="s">
-        <v>829</v>
+        <v>918</v>
       </c>
       <c r="C10" s="5">
         <v>374.69135802469134</v>
@@ -20232,10 +20232,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1175</v>
+        <v>1264</v>
       </c>
       <c r="B11" t="s">
-        <v>830</v>
+        <v>919</v>
       </c>
       <c r="C11" s="5">
         <v>198.31858407079645</v>
@@ -20255,10 +20255,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1176</v>
+        <v>1265</v>
       </c>
       <c r="B12" t="s">
-        <v>831</v>
+        <v>920</v>
       </c>
       <c r="C12" s="5">
         <v>358.76404494382024</v>
@@ -20278,10 +20278,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1177</v>
+        <v>1266</v>
       </c>
       <c r="B13" t="s">
-        <v>832</v>
+        <v>921</v>
       </c>
       <c r="C13" s="5">
         <v>293.18181818181819</v>
@@ -20301,10 +20301,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1178</v>
+        <v>1267</v>
       </c>
       <c r="B14" t="s">
-        <v>833</v>
+        <v>922</v>
       </c>
       <c r="C14" s="5">
         <v>380.68181818181819</v>
@@ -20324,10 +20324,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1179</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="s">
-        <v>834</v>
+        <v>923</v>
       </c>
       <c r="C15" s="5">
         <v>411.53061224489795</v>
@@ -20347,10 +20347,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1180</v>
+        <v>1269</v>
       </c>
       <c r="B16" t="s">
-        <v>835</v>
+        <v>924</v>
       </c>
       <c r="C16" s="5">
         <v>261.48936170212767</v>
@@ -20370,10 +20370,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1181</v>
+        <v>1270</v>
       </c>
       <c r="B17" t="s">
-        <v>836</v>
+        <v>925</v>
       </c>
       <c r="C17" s="5">
         <v>218.1512605042017</v>
@@ -20393,10 +20393,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1182</v>
+        <v>1271</v>
       </c>
       <c r="B18" t="s">
-        <v>837</v>
+        <v>926</v>
       </c>
       <c r="C18" s="5">
         <v>355</v>
@@ -20416,10 +20416,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1183</v>
+        <v>1272</v>
       </c>
       <c r="B19" t="s">
-        <v>838</v>
+        <v>927</v>
       </c>
       <c r="C19" s="5">
         <v>194.07407407407408</v>
@@ -20439,10 +20439,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1184</v>
+        <v>1273</v>
       </c>
       <c r="B20" t="s">
-        <v>839</v>
+        <v>928</v>
       </c>
       <c r="C20" s="5">
         <v>330</v>
@@ -20462,10 +20462,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1185</v>
+        <v>1274</v>
       </c>
       <c r="B21" t="s">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="C21" s="5">
         <v>226.53333333333333</v>
@@ -20485,10 +20485,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1186</v>
+        <v>1275</v>
       </c>
       <c r="B22" t="s">
-        <v>841</v>
+        <v>930</v>
       </c>
       <c r="C22" s="5">
         <v>269.91228070175441</v>
@@ -20508,10 +20508,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1187</v>
+        <v>1276</v>
       </c>
       <c r="B23" t="s">
-        <v>842</v>
+        <v>931</v>
       </c>
       <c r="C23" s="5">
         <v>341.11111111111109</v>
@@ -20531,10 +20531,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1188</v>
+        <v>1277</v>
       </c>
       <c r="B24" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="C24" s="5">
         <v>307.86982248520707</v>
@@ -20554,10 +20554,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1189</v>
+        <v>1278</v>
       </c>
       <c r="B25" t="s">
-        <v>844</v>
+        <v>933</v>
       </c>
       <c r="C25" s="5">
         <v>244</v>
@@ -20577,10 +20577,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1190</v>
+        <v>1279</v>
       </c>
       <c r="B26" t="s">
-        <v>845</v>
+        <v>934</v>
       </c>
       <c r="C26" s="5">
         <v>315.23809523809524</v>
@@ -20600,10 +20600,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1191</v>
+        <v>1280</v>
       </c>
       <c r="B27" t="s">
-        <v>846</v>
+        <v>935</v>
       </c>
       <c r="C27" s="5">
         <v>321.16279069767444</v>
@@ -20623,10 +20623,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1192</v>
+        <v>1281</v>
       </c>
       <c r="B28" t="s">
-        <v>847</v>
+        <v>936</v>
       </c>
       <c r="C28" s="5">
         <v>446.45833333333331</v>
@@ -20646,10 +20646,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1193</v>
+        <v>1282</v>
       </c>
       <c r="B29" t="s">
-        <v>848</v>
+        <v>937</v>
       </c>
       <c r="C29" s="5">
         <v>301.59292035398232</v>
@@ -20669,10 +20669,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1194</v>
+        <v>1283</v>
       </c>
       <c r="B30" t="s">
-        <v>849</v>
+        <v>938</v>
       </c>
       <c r="C30" s="5">
         <v>381.85185185185185</v>
@@ -20692,10 +20692,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1195</v>
+        <v>1284</v>
       </c>
       <c r="B31" t="s">
-        <v>850</v>
+        <v>939</v>
       </c>
       <c r="C31" s="5">
         <v>373.52941176470586</v>
@@ -20715,10 +20715,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1196</v>
+        <v>1285</v>
       </c>
       <c r="B32" t="s">
-        <v>851</v>
+        <v>940</v>
       </c>
       <c r="C32" s="5">
         <v>310.875</v>
@@ -20738,10 +20738,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1197</v>
+        <v>1286</v>
       </c>
       <c r="B33" t="s">
-        <v>852</v>
+        <v>941</v>
       </c>
       <c r="C33" s="5">
         <v>420</v>
@@ -20761,10 +20761,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1198</v>
+        <v>1287</v>
       </c>
       <c r="B34" t="s">
-        <v>853</v>
+        <v>942</v>
       </c>
       <c r="C34" s="5">
         <v>407.3170731707317</v>
@@ -20784,10 +20784,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1199</v>
+        <v>1288</v>
       </c>
       <c r="B35" t="s">
-        <v>854</v>
+        <v>943</v>
       </c>
       <c r="C35" s="5">
         <v>332.94117647058823</v>
@@ -20807,10 +20807,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1200</v>
+        <v>1289</v>
       </c>
       <c r="B36" t="s">
-        <v>855</v>
+        <v>944</v>
       </c>
       <c r="C36" s="5">
         <v>290.73170731707319</v>
@@ -20830,10 +20830,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1201</v>
+        <v>1290</v>
       </c>
       <c r="B37" t="s">
-        <v>856</v>
+        <v>945</v>
       </c>
       <c r="C37" s="5">
         <v>176.62835249042146</v>
@@ -20853,10 +20853,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1202</v>
+        <v>1291</v>
       </c>
       <c r="B38" t="s">
-        <v>857</v>
+        <v>946</v>
       </c>
       <c r="C38" s="5">
         <v>199.77987421383645</v>
@@ -20876,10 +20876,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1203</v>
+        <v>1292</v>
       </c>
       <c r="B39" t="s">
-        <v>858</v>
+        <v>947</v>
       </c>
       <c r="C39" s="5">
         <v>151.73020527859236</v>
@@ -20899,10 +20899,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1204</v>
+        <v>1293</v>
       </c>
       <c r="B40" t="s">
-        <v>859</v>
+        <v>948</v>
       </c>
       <c r="C40" s="5">
         <v>196</v>
@@ -20922,10 +20922,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1205</v>
+        <v>1294</v>
       </c>
       <c r="B41" t="s">
-        <v>860</v>
+        <v>949</v>
       </c>
       <c r="C41" s="5">
         <v>140.56603773584905</v>
@@ -20945,10 +20945,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1206</v>
+        <v>1295</v>
       </c>
       <c r="B42" t="s">
-        <v>861</v>
+        <v>950</v>
       </c>
       <c r="C42" s="5">
         <v>148.81355932203391</v>
@@ -20968,10 +20968,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1207</v>
+        <v>1296</v>
       </c>
       <c r="B43" t="s">
-        <v>862</v>
+        <v>951</v>
       </c>
       <c r="C43" s="5">
         <v>120.31578947368421</v>
@@ -20991,10 +20991,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1208</v>
+        <v>1297</v>
       </c>
       <c r="B44" t="s">
-        <v>863</v>
+        <v>952</v>
       </c>
       <c r="C44" s="5">
         <v>61.160714285714285</v>
@@ -21014,10 +21014,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1209</v>
+        <v>1298</v>
       </c>
       <c r="B45" t="s">
-        <v>864</v>
+        <v>953</v>
       </c>
       <c r="C45" s="5">
         <v>136.82215743440233</v>
@@ -21037,10 +21037,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1210</v>
+        <v>1299</v>
       </c>
       <c r="B46" t="s">
-        <v>865</v>
+        <v>954</v>
       </c>
       <c r="C46" s="5">
         <v>127.55813953488372</v>
@@ -21060,10 +21060,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1211</v>
+        <v>1300</v>
       </c>
       <c r="B47" t="s">
-        <v>866</v>
+        <v>955</v>
       </c>
       <c r="C47" s="5">
         <v>115.17509727626459</v>
@@ -21083,10 +21083,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1212</v>
+        <v>1301</v>
       </c>
       <c r="B48" t="s">
-        <v>867</v>
+        <v>956</v>
       </c>
       <c r="C48" s="5">
         <v>115.42682926829268</v>
@@ -21106,10 +21106,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1213</v>
+        <v>1302</v>
       </c>
       <c r="B49" t="s">
-        <v>868</v>
+        <v>957</v>
       </c>
       <c r="C49" s="5">
         <v>96.006006006006004</v>
@@ -21129,10 +21129,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1214</v>
+        <v>1303</v>
       </c>
       <c r="B50" t="s">
-        <v>869</v>
+        <v>958</v>
       </c>
       <c r="C50" s="5">
         <v>111.95928753180661</v>
@@ -21152,10 +21152,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1215</v>
+        <v>1304</v>
       </c>
       <c r="B51" t="s">
-        <v>870</v>
+        <v>959</v>
       </c>
       <c r="C51" s="5">
         <v>115.90909090909091</v>
@@ -21175,10 +21175,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1216</v>
+        <v>1305</v>
       </c>
       <c r="B52" t="s">
-        <v>871</v>
+        <v>960</v>
       </c>
       <c r="C52" s="5">
         <v>386.27906976744185</v>
@@ -21198,10 +21198,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1217</v>
+        <v>1306</v>
       </c>
       <c r="B53" t="s">
-        <v>872</v>
+        <v>961</v>
       </c>
       <c r="C53" s="5">
         <v>115.59139784946237</v>
@@ -21221,10 +21221,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1218</v>
+        <v>1307</v>
       </c>
       <c r="B54" t="s">
-        <v>873</v>
+        <v>962</v>
       </c>
       <c r="C54" s="5">
         <v>113.03448275862068</v>
@@ -21244,10 +21244,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1219</v>
+        <v>1308</v>
       </c>
       <c r="B55" t="s">
-        <v>874</v>
+        <v>963</v>
       </c>
       <c r="C55" s="5">
         <v>110.99999999999999</v>
@@ -21267,10 +21267,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1220</v>
+        <v>1309</v>
       </c>
       <c r="B56" t="s">
-        <v>875</v>
+        <v>964</v>
       </c>
       <c r="C56" s="5">
         <v>208.0952380952381</v>
@@ -21290,10 +21290,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1221</v>
+        <v>1310</v>
       </c>
       <c r="B57" t="s">
-        <v>876</v>
+        <v>965</v>
       </c>
       <c r="C57" s="5">
         <v>147.11442786069651</v>
@@ -21313,10 +21313,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1222</v>
+        <v>1311</v>
       </c>
       <c r="B58" t="s">
-        <v>877</v>
+        <v>966</v>
       </c>
       <c r="C58" s="5">
         <v>109.16666666666667</v>
@@ -21336,10 +21336,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1223</v>
+        <v>1312</v>
       </c>
       <c r="B59" t="s">
-        <v>878</v>
+        <v>967</v>
       </c>
       <c r="C59" s="5">
         <v>124.16666666666667</v>
@@ -21359,10 +21359,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1224</v>
+        <v>1313</v>
       </c>
       <c r="B60" t="s">
-        <v>880</v>
+        <v>969</v>
       </c>
       <c r="C60" s="5">
         <v>137.65151515151516</v>
@@ -21382,10 +21382,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1225</v>
+        <v>1314</v>
       </c>
       <c r="B61" t="s">
-        <v>881</v>
+        <v>970</v>
       </c>
       <c r="C61" s="5">
         <v>175.65789473684211</v>
@@ -21405,10 +21405,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1226</v>
+        <v>1315</v>
       </c>
       <c r="B62" t="s">
-        <v>882</v>
+        <v>971</v>
       </c>
       <c r="C62" s="5">
         <v>55.653846153846146</v>
@@ -21428,10 +21428,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1227</v>
+        <v>1316</v>
       </c>
       <c r="B63" t="s">
-        <v>883</v>
+        <v>972</v>
       </c>
       <c r="C63" s="5">
         <v>70.592592592592595</v>
@@ -21451,10 +21451,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1228</v>
+        <v>1317</v>
       </c>
       <c r="B64" t="s">
-        <v>884</v>
+        <v>973</v>
       </c>
       <c r="C64" s="5">
         <v>37.833333333333336</v>
@@ -21474,10 +21474,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1229</v>
+        <v>1318</v>
       </c>
       <c r="B65" t="s">
-        <v>885</v>
+        <v>974</v>
       </c>
       <c r="C65" s="5">
         <v>45.108695652173914</v>
@@ -21497,10 +21497,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1230</v>
+        <v>1319</v>
       </c>
       <c r="B66" t="s">
-        <v>886</v>
+        <v>975</v>
       </c>
       <c r="C66" s="5">
         <v>16</v>
@@ -21520,10 +21520,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1231</v>
+        <v>1320</v>
       </c>
       <c r="B67" t="s">
-        <v>887</v>
+        <v>976</v>
       </c>
       <c r="C67" s="5">
         <v>78.409090909090907</v>
@@ -21543,10 +21543,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1232</v>
+        <v>1321</v>
       </c>
       <c r="B68" t="s">
-        <v>888</v>
+        <v>977</v>
       </c>
       <c r="C68" s="5">
         <v>67.31343283582089</v>
@@ -21566,10 +21566,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1233</v>
+        <v>1322</v>
       </c>
       <c r="B69" t="s">
-        <v>889</v>
+        <v>978</v>
       </c>
       <c r="C69" s="5">
         <v>102.73972602739725</v>
@@ -21589,10 +21589,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1234</v>
+        <v>1323</v>
       </c>
       <c r="B70" t="s">
-        <v>890</v>
+        <v>979</v>
       </c>
       <c r="C70" s="5">
         <v>54.639175257731956</v>
@@ -21612,10 +21612,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1235</v>
+        <v>1324</v>
       </c>
       <c r="B71" t="s">
-        <v>891</v>
+        <v>980</v>
       </c>
       <c r="C71" s="5">
         <v>25.555555555555557</v>
@@ -21635,10 +21635,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1236</v>
+        <v>1325</v>
       </c>
       <c r="B72" t="s">
-        <v>892</v>
+        <v>981</v>
       </c>
       <c r="C72" s="5">
         <v>58.669950738916256</v>
@@ -21658,10 +21658,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1237</v>
+        <v>1326</v>
       </c>
       <c r="B73" t="s">
-        <v>893</v>
+        <v>982</v>
       </c>
       <c r="C73" s="5">
         <v>75.25</v>
@@ -21681,10 +21681,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1238</v>
+        <v>1327</v>
       </c>
       <c r="B74" t="s">
-        <v>894</v>
+        <v>983</v>
       </c>
       <c r="C74" s="5">
         <v>261.61111111111109</v>
@@ -21704,10 +21704,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1239</v>
+        <v>1328</v>
       </c>
       <c r="B75" t="s">
-        <v>895</v>
+        <v>984</v>
       </c>
       <c r="C75" s="5">
         <v>34.92307692307692</v>
@@ -21727,10 +21727,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1240</v>
+        <v>1329</v>
       </c>
       <c r="B76" t="s">
-        <v>896</v>
+        <v>985</v>
       </c>
       <c r="C76" s="5">
         <v>97.12121212121211</v>
@@ -21750,10 +21750,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1241</v>
+        <v>1330</v>
       </c>
       <c r="B77" t="s">
-        <v>897</v>
+        <v>986</v>
       </c>
       <c r="C77" s="5">
         <v>101.4</v>
@@ -21773,10 +21773,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1242</v>
+        <v>1331</v>
       </c>
       <c r="B78" t="s">
-        <v>898</v>
+        <v>987</v>
       </c>
       <c r="C78" s="5">
         <v>94.764705882352942</v>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1243</v>
+        <v>1332</v>
       </c>
       <c r="B79" t="s">
-        <v>899</v>
+        <v>988</v>
       </c>
       <c r="C79" s="5">
         <v>36</v>
@@ -21819,10 +21819,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1244</v>
+        <v>1333</v>
       </c>
       <c r="B80" t="s">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="C80" s="5">
         <v>46.444444444444443</v>
@@ -21842,10 +21842,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1245</v>
+        <v>1334</v>
       </c>
       <c r="B81" t="s">
-        <v>901</v>
+        <v>990</v>
       </c>
       <c r="C81" s="5">
         <v>45.813953488372093</v>
@@ -21865,10 +21865,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1246</v>
+        <v>1335</v>
       </c>
       <c r="B82" t="s">
-        <v>902</v>
+        <v>991</v>
       </c>
       <c r="C82" s="5">
         <v>109.72972972972973</v>
@@ -21888,10 +21888,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1247</v>
+        <v>1336</v>
       </c>
       <c r="B83" t="s">
-        <v>903</v>
+        <v>992</v>
       </c>
       <c r="C83" s="5">
         <v>61.058823529411768</v>
@@ -21911,10 +21911,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1248</v>
+        <v>1337</v>
       </c>
       <c r="B84" t="s">
-        <v>904</v>
+        <v>993</v>
       </c>
       <c r="C84" s="5">
         <v>272.54901960784315</v>
@@ -21934,10 +21934,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1249</v>
+        <v>1338</v>
       </c>
       <c r="B85" t="s">
-        <v>905</v>
+        <v>994</v>
       </c>
       <c r="C85" s="5">
         <v>113.72469635627529</v>
@@ -21957,10 +21957,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1250</v>
+        <v>1339</v>
       </c>
       <c r="B86" t="s">
-        <v>907</v>
+        <v>996</v>
       </c>
       <c r="C86" s="5">
         <v>104.04858299595142</v>
@@ -21980,10 +21980,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1251</v>
+        <v>1340</v>
       </c>
       <c r="B87" t="s">
-        <v>906</v>
+        <v>995</v>
       </c>
       <c r="C87" s="5">
         <v>103.23529411764706</v>
@@ -22003,10 +22003,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1252</v>
+        <v>1341</v>
       </c>
       <c r="B88" t="s">
-        <v>908</v>
+        <v>997</v>
       </c>
       <c r="C88" s="5">
         <v>103.64372469635627</v>
@@ -22026,10 +22026,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1253</v>
+        <v>1342</v>
       </c>
       <c r="B89" t="s">
-        <v>909</v>
+        <v>998</v>
       </c>
       <c r="C89" s="5">
         <v>107.36842105263158</v>
@@ -22049,10 +22049,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1254</v>
+        <v>1343</v>
       </c>
       <c r="B90" t="s">
-        <v>910</v>
+        <v>999</v>
       </c>
       <c r="C90" s="5">
         <v>206.79611650485438</v>
@@ -22072,10 +22072,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1255</v>
+        <v>1344</v>
       </c>
       <c r="B91" t="s">
-        <v>911</v>
+        <v>1000</v>
       </c>
       <c r="C91" s="5">
         <v>106.07287449392713</v>
@@ -22095,10 +22095,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1256</v>
+        <v>1345</v>
       </c>
       <c r="B92" t="s">
-        <v>912</v>
+        <v>1001</v>
       </c>
       <c r="C92" s="5">
         <v>111.417004048583</v>
@@ -22118,10 +22118,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1257</v>
+        <v>1346</v>
       </c>
       <c r="B93" t="s">
-        <v>913</v>
+        <v>1002</v>
       </c>
       <c r="C93" s="5">
         <v>105.74898785425101</v>
@@ -22141,10 +22141,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1258</v>
+        <v>1347</v>
       </c>
       <c r="B94" t="s">
-        <v>974</v>
+        <v>1063</v>
       </c>
       <c r="C94" s="5">
         <v>108.25910931174087</v>
@@ -22164,10 +22164,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1259</v>
+        <v>1348</v>
       </c>
       <c r="B95" t="s">
-        <v>914</v>
+        <v>1003</v>
       </c>
       <c r="C95" s="5">
         <v>105.66801619433198</v>
@@ -22187,10 +22187,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1260</v>
+        <v>1349</v>
       </c>
       <c r="B96" t="s">
-        <v>915</v>
+        <v>1004</v>
       </c>
       <c r="C96" s="5">
         <v>130.79096045197741</v>
@@ -22210,10 +22210,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1261</v>
+        <v>1350</v>
       </c>
       <c r="B97" t="s">
-        <v>916</v>
+        <v>1005</v>
       </c>
       <c r="C97" s="5">
         <v>172.44094488188978</v>
@@ -22233,10 +22233,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1262</v>
+        <v>1351</v>
       </c>
       <c r="B98" t="s">
-        <v>917</v>
+        <v>1006</v>
       </c>
       <c r="C98" s="5">
         <v>158.93333333333334</v>
@@ -22256,10 +22256,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1263</v>
+        <v>1352</v>
       </c>
       <c r="B99" t="s">
-        <v>918</v>
+        <v>1007</v>
       </c>
       <c r="C99" s="5">
         <v>190.71566731141201</v>
@@ -22279,10 +22279,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1264</v>
+        <v>1353</v>
       </c>
       <c r="B100" t="s">
-        <v>919</v>
+        <v>1008</v>
       </c>
       <c r="C100" s="5">
         <v>160.36111111111109</v>
@@ -22302,10 +22302,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1265</v>
+        <v>1354</v>
       </c>
       <c r="B101" t="s">
-        <v>920</v>
+        <v>1009</v>
       </c>
       <c r="C101" s="5">
         <v>161.14058355437666</v>
@@ -22325,10 +22325,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1266</v>
+        <v>1355</v>
       </c>
       <c r="B102" t="s">
-        <v>921</v>
+        <v>1010</v>
       </c>
       <c r="C102" s="5">
         <v>151.44766146993319</v>
@@ -22348,10 +22348,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1267</v>
+        <v>1356</v>
       </c>
       <c r="B103" t="s">
-        <v>922</v>
+        <v>1011</v>
       </c>
       <c r="C103" s="5">
         <v>307.83505154639181</v>
@@ -22371,10 +22371,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1268</v>
+        <v>1357</v>
       </c>
       <c r="B104" t="s">
-        <v>923</v>
+        <v>1012</v>
       </c>
       <c r="C104" s="5">
         <v>151.04</v>
@@ -22394,10 +22394,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1269</v>
+        <v>1358</v>
       </c>
       <c r="B105" t="s">
-        <v>924</v>
+        <v>1013</v>
       </c>
       <c r="C105" s="5">
         <v>103</v>
@@ -22417,10 +22417,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1270</v>
+        <v>1359</v>
       </c>
       <c r="B106" t="s">
-        <v>925</v>
+        <v>1014</v>
       </c>
       <c r="C106" s="5">
         <v>73</v>
@@ -22440,10 +22440,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1271</v>
+        <v>1360</v>
       </c>
       <c r="B107" t="s">
-        <v>926</v>
+        <v>1015</v>
       </c>
       <c r="C107" s="5">
         <v>99.629629629629633</v>
@@ -22463,10 +22463,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1272</v>
+        <v>1361</v>
       </c>
       <c r="B108" t="s">
-        <v>927</v>
+        <v>1016</v>
       </c>
       <c r="C108" s="5">
         <v>94.901960784313729</v>
@@ -22486,10 +22486,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1273</v>
+        <v>1362</v>
       </c>
       <c r="B109" t="s">
-        <v>928</v>
+        <v>1017</v>
       </c>
       <c r="C109" s="5">
         <v>92.881355932203391</v>
@@ -22509,10 +22509,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1274</v>
+        <v>1363</v>
       </c>
       <c r="B110" t="s">
-        <v>929</v>
+        <v>1018</v>
       </c>
       <c r="C110" s="5">
         <v>110</v>
@@ -22532,10 +22532,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1275</v>
+        <v>1364</v>
       </c>
       <c r="B111" t="s">
-        <v>930</v>
+        <v>1019</v>
       </c>
       <c r="C111" s="5">
         <v>128</v>
@@ -22555,10 +22555,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1276</v>
+        <v>1365</v>
       </c>
       <c r="B112" t="s">
-        <v>932</v>
+        <v>1021</v>
       </c>
       <c r="C112" s="5">
         <v>210.65573770491804</v>
@@ -22578,10 +22578,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1277</v>
+        <v>1366</v>
       </c>
       <c r="B113" t="s">
-        <v>933</v>
+        <v>1022</v>
       </c>
       <c r="C113" s="5">
         <v>252.80373831775702</v>
@@ -22601,10 +22601,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1278</v>
+        <v>1367</v>
       </c>
       <c r="B114" t="s">
-        <v>934</v>
+        <v>1023</v>
       </c>
       <c r="C114" s="5">
         <v>295.2238805970149</v>
@@ -22624,10 +22624,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1279</v>
+        <v>1368</v>
       </c>
       <c r="B115" t="s">
-        <v>935</v>
+        <v>1024</v>
       </c>
       <c r="C115" s="5">
         <v>224.33734939759037</v>
@@ -22647,10 +22647,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1280</v>
+        <v>1369</v>
       </c>
       <c r="B116" t="s">
-        <v>936</v>
+        <v>1025</v>
       </c>
       <c r="C116" s="5">
         <v>70.722891566265062</v>
@@ -22670,10 +22670,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1281</v>
+        <v>1370</v>
       </c>
       <c r="B117" t="s">
-        <v>937</v>
+        <v>1026</v>
       </c>
       <c r="C117" s="5">
         <v>115</v>
@@ -22693,10 +22693,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1282</v>
+        <v>1371</v>
       </c>
       <c r="B118" t="s">
-        <v>938</v>
+        <v>1027</v>
       </c>
       <c r="C118" s="5">
         <v>145</v>
@@ -22716,10 +22716,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1283</v>
+        <v>1372</v>
       </c>
       <c r="B119" t="s">
-        <v>939</v>
+        <v>1028</v>
       </c>
       <c r="C119" s="5">
         <v>319.74358974358972</v>
@@ -22739,10 +22739,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1284</v>
+        <v>1373</v>
       </c>
       <c r="B120" t="s">
-        <v>940</v>
+        <v>1029</v>
       </c>
       <c r="C120" s="5">
         <v>163.32116788321167</v>
@@ -22762,10 +22762,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1285</v>
+        <v>1374</v>
       </c>
       <c r="B121" t="s">
-        <v>941</v>
+        <v>1030</v>
       </c>
       <c r="C121" s="5">
         <v>123.05263157894737</v>
@@ -22785,10 +22785,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1286</v>
+        <v>1375</v>
       </c>
       <c r="B122" t="s">
-        <v>942</v>
+        <v>1031</v>
       </c>
       <c r="C122" s="5">
         <v>130.85626911314984</v>
@@ -22808,10 +22808,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1287</v>
+        <v>1376</v>
       </c>
       <c r="B123" t="s">
-        <v>943</v>
+        <v>1032</v>
       </c>
       <c r="C123" s="5">
         <v>135.52529182879377</v>
@@ -22831,10 +22831,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1288</v>
+        <v>1377</v>
       </c>
       <c r="B124" t="s">
-        <v>944</v>
+        <v>1033</v>
       </c>
       <c r="C124" s="5">
         <v>121.53203342618384</v>
@@ -22854,10 +22854,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1289</v>
+        <v>1378</v>
       </c>
       <c r="B125" t="s">
-        <v>945</v>
+        <v>1034</v>
       </c>
       <c r="C125" s="5">
         <v>75.18518518518519</v>
@@ -22877,10 +22877,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1290</v>
+        <v>1379</v>
       </c>
       <c r="B126" t="s">
-        <v>946</v>
+        <v>1035</v>
       </c>
       <c r="C126" s="5">
         <v>162.28571428571428</v>
@@ -22900,10 +22900,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1291</v>
+        <v>1380</v>
       </c>
       <c r="B127" t="s">
-        <v>947</v>
+        <v>1036</v>
       </c>
       <c r="C127" s="5">
         <v>185.55555555555554</v>
@@ -22923,10 +22923,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1292</v>
+        <v>1381</v>
       </c>
       <c r="B128" t="s">
-        <v>948</v>
+        <v>1037</v>
       </c>
       <c r="C128" s="5">
         <v>109.06666666666666</v>
@@ -22946,10 +22946,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1293</v>
+        <v>1382</v>
       </c>
       <c r="B129" t="s">
-        <v>949</v>
+        <v>1038</v>
       </c>
       <c r="C129" s="5">
         <v>369.91379310344826</v>
@@ -22969,10 +22969,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1294</v>
+        <v>1383</v>
       </c>
       <c r="B130" t="s">
-        <v>950</v>
+        <v>1039</v>
       </c>
       <c r="C130" s="5">
         <v>154.09266409266408</v>
@@ -22992,10 +22992,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1295</v>
+        <v>1384</v>
       </c>
       <c r="B131" t="s">
-        <v>951</v>
+        <v>1040</v>
       </c>
       <c r="C131" s="5">
         <v>157.80000000000001</v>
@@ -23015,10 +23015,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1296</v>
+        <v>1385</v>
       </c>
       <c r="B132" t="s">
-        <v>952</v>
+        <v>1041</v>
       </c>
       <c r="C132" s="5">
         <v>120.3</v>
@@ -23038,10 +23038,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1297</v>
+        <v>1386</v>
       </c>
       <c r="B133" t="s">
-        <v>953</v>
+        <v>1042</v>
       </c>
       <c r="C133" s="5">
         <v>204.90250696378831</v>
@@ -23061,10 +23061,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1298</v>
+        <v>1387</v>
       </c>
       <c r="B134" t="s">
-        <v>954</v>
+        <v>1043</v>
       </c>
       <c r="C134" s="5">
         <v>157.10526315789474</v>
@@ -23084,10 +23084,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1299</v>
+        <v>1388</v>
       </c>
       <c r="B135" t="s">
-        <v>955</v>
+        <v>1044</v>
       </c>
       <c r="C135" s="5">
         <v>86.4</v>
@@ -23107,10 +23107,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1300</v>
+        <v>1389</v>
       </c>
       <c r="B136" t="s">
-        <v>956</v>
+        <v>1045</v>
       </c>
       <c r="C136" s="5">
         <v>61.743119266055047</v>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1301</v>
+        <v>1390</v>
       </c>
       <c r="B137" t="s">
-        <v>957</v>
+        <v>1046</v>
       </c>
       <c r="C137" s="5">
         <v>572.22222222222217</v>
@@ -23153,10 +23153,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1302</v>
+        <v>1391</v>
       </c>
       <c r="B138" t="s">
-        <v>958</v>
+        <v>1047</v>
       </c>
       <c r="C138" s="5">
         <v>71.333333333333329</v>
@@ -23176,10 +23176,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1303</v>
+        <v>1392</v>
       </c>
       <c r="B139" t="s">
-        <v>959</v>
+        <v>1048</v>
       </c>
       <c r="C139" s="5">
         <v>89.42307692307692</v>
@@ -23199,10 +23199,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1304</v>
+        <v>1393</v>
       </c>
       <c r="B140" t="s">
-        <v>960</v>
+        <v>1049</v>
       </c>
       <c r="C140" s="5">
         <v>86.111111111111114</v>
@@ -23222,10 +23222,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1305</v>
+        <v>1394</v>
       </c>
       <c r="B141" t="s">
-        <v>961</v>
+        <v>1050</v>
       </c>
       <c r="C141" s="5">
         <v>170.63432835820896</v>
@@ -23245,10 +23245,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1306</v>
+        <v>1395</v>
       </c>
       <c r="B142" t="s">
-        <v>962</v>
+        <v>1051</v>
       </c>
       <c r="C142" s="5">
         <v>153.0612244897959</v>
@@ -23268,10 +23268,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1307</v>
+        <v>1396</v>
       </c>
       <c r="B143" t="s">
-        <v>963</v>
+        <v>1052</v>
       </c>
       <c r="C143" s="5">
         <v>125.03311258278146</v>
@@ -23291,10 +23291,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1308</v>
+        <v>1397</v>
       </c>
       <c r="B144" t="s">
-        <v>964</v>
+        <v>1053</v>
       </c>
       <c r="C144" s="5">
         <v>137.21774193548387</v>
@@ -23314,10 +23314,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1309</v>
+        <v>1398</v>
       </c>
       <c r="B145" t="s">
-        <v>966</v>
+        <v>1055</v>
       </c>
       <c r="C145" s="5">
         <v>84</v>
@@ -23337,10 +23337,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1310</v>
+        <v>1399</v>
       </c>
       <c r="B146" t="s">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="C146" s="5">
         <v>254.375</v>
@@ -23360,10 +23360,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1311</v>
+        <v>1400</v>
       </c>
       <c r="B147" t="s">
-        <v>968</v>
+        <v>1057</v>
       </c>
       <c r="C147" s="5">
         <v>150.09259259259258</v>
@@ -23383,10 +23383,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1312</v>
+        <v>1401</v>
       </c>
       <c r="B148" t="s">
-        <v>969</v>
+        <v>1058</v>
       </c>
       <c r="C148" s="5">
         <v>136.19999999999999</v>
@@ -23406,7 +23406,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1313</v>
+        <v>1402</v>
       </c>
       <c r="B149" t="s">
         <v>615</v>
@@ -23429,10 +23429,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1314</v>
+        <v>1403</v>
       </c>
       <c r="B150" t="s">
-        <v>970</v>
+        <v>1059</v>
       </c>
       <c r="C150" s="5">
         <v>128.25806451612902</v>
@@ -23452,10 +23452,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1315</v>
+        <v>1404</v>
       </c>
       <c r="B151" t="s">
-        <v>971</v>
+        <v>1060</v>
       </c>
       <c r="C151" s="5">
         <v>128.42622950819671</v>
@@ -23475,10 +23475,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1316</v>
+        <v>1405</v>
       </c>
       <c r="B152" t="s">
-        <v>972</v>
+        <v>1061</v>
       </c>
       <c r="C152" s="5">
         <v>22.035398230088497</v>
@@ -23498,10 +23498,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1317</v>
+        <v>1406</v>
       </c>
       <c r="B153" t="s">
-        <v>973</v>
+        <v>1062</v>
       </c>
       <c r="C153" s="5">
         <v>23.055555555555557</v>
@@ -23521,10 +23521,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1318</v>
+        <v>1407</v>
       </c>
       <c r="B154" t="s">
-        <v>975</v>
+        <v>1064</v>
       </c>
       <c r="C154" s="5">
         <v>124.52173913043477</v>
@@ -23544,10 +23544,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1319</v>
+        <v>1408</v>
       </c>
       <c r="B155" t="s">
-        <v>976</v>
+        <v>1065</v>
       </c>
       <c r="C155" s="5">
         <v>35.070422535211264</v>
@@ -23567,10 +23567,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1320</v>
+        <v>1409</v>
       </c>
       <c r="B156" t="s">
-        <v>977</v>
+        <v>1066</v>
       </c>
       <c r="C156" s="5">
         <v>123.85454545454546</v>
@@ -23590,10 +23590,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1321</v>
+        <v>1410</v>
       </c>
       <c r="B157" t="s">
-        <v>978</v>
+        <v>1067</v>
       </c>
       <c r="C157" s="5">
         <v>260.64516129032256</v>
@@ -23613,10 +23613,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1322</v>
+        <v>1411</v>
       </c>
       <c r="B158" t="s">
-        <v>979</v>
+        <v>1068</v>
       </c>
       <c r="C158" s="5">
         <v>243.0612244897959</v>
@@ -23636,10 +23636,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1323</v>
+        <v>1412</v>
       </c>
       <c r="B159" t="s">
-        <v>980</v>
+        <v>1069</v>
       </c>
       <c r="C159" s="5">
         <v>215.2066115702479</v>
@@ -23659,10 +23659,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1324</v>
+        <v>1413</v>
       </c>
       <c r="B160" t="s">
-        <v>981</v>
+        <v>1070</v>
       </c>
       <c r="C160" s="5">
         <v>208</v>
@@ -23682,10 +23682,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1325</v>
+        <v>1414</v>
       </c>
       <c r="B161" t="s">
-        <v>982</v>
+        <v>1071</v>
       </c>
       <c r="C161" s="5">
         <v>87.066666666666663</v>
@@ -23705,10 +23705,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1326</v>
+        <v>1415</v>
       </c>
       <c r="B162" t="s">
-        <v>983</v>
+        <v>1072</v>
       </c>
       <c r="C162" s="5">
         <v>156</v>
@@ -23728,10 +23728,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1327</v>
+        <v>1416</v>
       </c>
       <c r="B163" t="s">
-        <v>984</v>
+        <v>1073</v>
       </c>
       <c r="C163" s="5">
         <v>82</v>
@@ -23751,10 +23751,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1328</v>
+        <v>1417</v>
       </c>
       <c r="B164" t="s">
-        <v>985</v>
+        <v>1074</v>
       </c>
       <c r="C164" s="5">
         <v>101</v>
@@ -23774,10 +23774,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1329</v>
+        <v>1418</v>
       </c>
       <c r="B165" t="s">
-        <v>986</v>
+        <v>1075</v>
       </c>
       <c r="C165" s="5">
         <v>74</v>
@@ -23797,10 +23797,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1330</v>
+        <v>1419</v>
       </c>
       <c r="B166" t="s">
-        <v>998</v>
+        <v>1087</v>
       </c>
       <c r="C166" s="5">
         <v>264.81481481481484</v>
@@ -23820,10 +23820,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1331</v>
+        <v>1420</v>
       </c>
       <c r="B167" t="s">
-        <v>999</v>
+        <v>1088</v>
       </c>
       <c r="C167" s="5">
         <v>36.019417475728154</v>
@@ -23843,10 +23843,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1332</v>
+        <v>1421</v>
       </c>
       <c r="B168" t="s">
-        <v>1000</v>
+        <v>1089</v>
       </c>
       <c r="C168" s="5">
         <v>69.666666666666671</v>
@@ -23866,10 +23866,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1333</v>
+        <v>1422</v>
       </c>
       <c r="B169" t="s">
-        <v>1001</v>
+        <v>1090</v>
       </c>
       <c r="C169" s="5">
         <v>18.046875</v>
@@ -23889,10 +23889,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1334</v>
+        <v>1423</v>
       </c>
       <c r="B170" t="s">
-        <v>1002</v>
+        <v>1091</v>
       </c>
       <c r="C170" s="5">
         <v>65.508474576271183</v>
@@ -23912,10 +23912,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1335</v>
+        <v>1424</v>
       </c>
       <c r="B171" t="s">
-        <v>1005</v>
+        <v>1094</v>
       </c>
       <c r="C171" s="5">
         <v>214.35897435897436</v>
@@ -23935,10 +23935,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1336</v>
+        <v>1425</v>
       </c>
       <c r="B172" t="s">
-        <v>1006</v>
+        <v>1095</v>
       </c>
       <c r="C172" s="5">
         <v>153.92156862745097</v>
@@ -23958,10 +23958,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1337</v>
+        <v>1426</v>
       </c>
       <c r="B173" t="s">
-        <v>1007</v>
+        <v>1096</v>
       </c>
       <c r="C173" s="5">
         <v>231.40625</v>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1338</v>
+        <v>1427</v>
       </c>
       <c r="B174" t="s">
-        <v>1008</v>
+        <v>1097</v>
       </c>
       <c r="C174" s="5">
         <v>123.80952380952381</v>
@@ -24004,10 +24004,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1339</v>
+        <v>1428</v>
       </c>
       <c r="B175" t="s">
-        <v>1009</v>
+        <v>1098</v>
       </c>
       <c r="C175" s="5">
         <v>152.5</v>
@@ -24027,10 +24027,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1340</v>
+        <v>1429</v>
       </c>
       <c r="B176" t="s">
-        <v>1010</v>
+        <v>1099</v>
       </c>
       <c r="C176" s="5">
         <v>179.65517241379311</v>
@@ -24050,10 +24050,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1341</v>
+        <v>1430</v>
       </c>
       <c r="B177" t="s">
-        <v>1011</v>
+        <v>1100</v>
       </c>
       <c r="C177" s="5">
         <v>154.48275862068965</v>
@@ -24073,10 +24073,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1342</v>
+        <v>1431</v>
       </c>
       <c r="B178" t="s">
-        <v>1012</v>
+        <v>1101</v>
       </c>
       <c r="C178" s="5">
         <v>155.86206896551724</v>
@@ -24096,10 +24096,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1343</v>
+        <v>1432</v>
       </c>
       <c r="B179" t="s">
-        <v>1013</v>
+        <v>1102</v>
       </c>
       <c r="C179" s="5">
         <v>218.57142857142858</v>
@@ -24119,10 +24119,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1344</v>
+        <v>1433</v>
       </c>
       <c r="B180" t="s">
-        <v>1014</v>
+        <v>1103</v>
       </c>
       <c r="C180" s="5">
         <v>273.61702127659572</v>
@@ -24142,10 +24142,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1345</v>
+        <v>1434</v>
       </c>
       <c r="B181" t="s">
-        <v>1015</v>
+        <v>1104</v>
       </c>
       <c r="C181" s="5">
         <v>98.956521739130437</v>
@@ -24165,10 +24165,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1346</v>
+        <v>1435</v>
       </c>
       <c r="B182" t="s">
-        <v>1016</v>
+        <v>1105</v>
       </c>
       <c r="C182" s="5">
         <v>168.97196261682242</v>
@@ -24188,10 +24188,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1347</v>
+        <v>1436</v>
       </c>
       <c r="B183" t="s">
-        <v>1017</v>
+        <v>1106</v>
       </c>
       <c r="C183" s="5">
         <v>199</v>
@@ -24211,10 +24211,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1348</v>
+        <v>1437</v>
       </c>
       <c r="B184" t="s">
-        <v>1018</v>
+        <v>1107</v>
       </c>
       <c r="C184" s="5">
         <v>192.85714285714286</v>
@@ -24234,10 +24234,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1349</v>
+        <v>1438</v>
       </c>
       <c r="B185" t="s">
-        <v>1019</v>
+        <v>1108</v>
       </c>
       <c r="C185" s="5">
         <v>265.55555555555554</v>
@@ -24257,10 +24257,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1350</v>
+        <v>1439</v>
       </c>
       <c r="B186" t="s">
-        <v>1020</v>
+        <v>1109</v>
       </c>
       <c r="C186" s="5">
         <v>177.62711864406779</v>
@@ -24280,10 +24280,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1351</v>
+        <v>1440</v>
       </c>
       <c r="B187" t="s">
-        <v>1021</v>
+        <v>1110</v>
       </c>
       <c r="C187" s="5">
         <v>225</v>
@@ -24303,7 +24303,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1352</v>
+        <v>1441</v>
       </c>
       <c r="B188" t="s">
         <v>616</v>
@@ -24326,10 +24326,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1353</v>
+        <v>1442</v>
       </c>
       <c r="B189" t="s">
-        <v>1022</v>
+        <v>1111</v>
       </c>
       <c r="C189" s="5">
         <v>82.058823529411768</v>
@@ -24349,10 +24349,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1354</v>
+        <v>1443</v>
       </c>
       <c r="B190" t="s">
-        <v>1023</v>
+        <v>1112</v>
       </c>
       <c r="C190" s="5">
         <v>140.625</v>
@@ -24372,10 +24372,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1355</v>
+        <v>1444</v>
       </c>
       <c r="B191" t="s">
-        <v>1024</v>
+        <v>1113</v>
       </c>
       <c r="C191" s="5">
         <v>221.52941176470588</v>
@@ -24395,10 +24395,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1356</v>
+        <v>1445</v>
       </c>
       <c r="B192" t="s">
-        <v>1028</v>
+        <v>1117</v>
       </c>
       <c r="C192" s="5">
         <v>144.85714285714286</v>
@@ -24418,10 +24418,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1357</v>
+        <v>1446</v>
       </c>
       <c r="B193" t="s">
-        <v>1029</v>
+        <v>1118</v>
       </c>
       <c r="C193" s="5">
         <v>276.23376623376623</v>
@@ -24441,10 +24441,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1358</v>
+        <v>1447</v>
       </c>
       <c r="B194" t="s">
-        <v>1030</v>
+        <v>1119</v>
       </c>
       <c r="C194" s="5">
         <v>189.77941176470591</v>
@@ -24464,10 +24464,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1359</v>
+        <v>1448</v>
       </c>
       <c r="B195" t="s">
-        <v>1031</v>
+        <v>1120</v>
       </c>
       <c r="C195" s="5">
         <v>245.875</v>
@@ -24487,10 +24487,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1360</v>
+        <v>1449</v>
       </c>
       <c r="B196" t="s">
-        <v>1032</v>
+        <v>1121</v>
       </c>
       <c r="C196" s="5">
         <v>266.77777777777777</v>
@@ -24510,10 +24510,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1361</v>
+        <v>1450</v>
       </c>
       <c r="B197" t="s">
-        <v>1033</v>
+        <v>1122</v>
       </c>
       <c r="C197" s="5">
         <v>139.21568627450981</v>
@@ -24533,10 +24533,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1362</v>
+        <v>1451</v>
       </c>
       <c r="B198" t="s">
-        <v>1034</v>
+        <v>1123</v>
       </c>
       <c r="C198" s="5">
         <v>347.55555555555554</v>
@@ -24556,10 +24556,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1363</v>
+        <v>1452</v>
       </c>
       <c r="B199" t="s">
-        <v>1035</v>
+        <v>1124</v>
       </c>
       <c r="C199" s="5">
         <f>C198*100/126</f>
@@ -24583,10 +24583,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1364</v>
+        <v>1453</v>
       </c>
       <c r="B200" t="s">
-        <v>1036</v>
+        <v>1125</v>
       </c>
       <c r="C200" s="5">
         <v>222.99465240641712</v>
@@ -24606,7 +24606,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1365</v>
+        <v>1454</v>
       </c>
       <c r="B201" t="s">
         <v>618</v>
@@ -24629,10 +24629,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1366</v>
+        <v>1455</v>
       </c>
       <c r="B202" t="s">
-        <v>1037</v>
+        <v>1126</v>
       </c>
       <c r="C202" s="5">
         <v>264.33497536945811</v>
@@ -24652,10 +24652,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1367</v>
+        <v>1456</v>
       </c>
       <c r="B203" t="s">
-        <v>1038</v>
+        <v>1127</v>
       </c>
       <c r="C203" s="5">
         <v>369.90566037735852</v>
@@ -24675,7 +24675,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1368</v>
+        <v>1457</v>
       </c>
       <c r="B204" t="s">
         <v>574</v>
@@ -24698,7 +24698,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1369</v>
+        <v>1458</v>
       </c>
       <c r="B205" t="s">
         <v>587</v>
@@ -24721,7 +24721,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1370</v>
+        <v>1459</v>
       </c>
       <c r="B206" t="s">
         <v>592</v>
@@ -26216,10 +26216,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1371</v>
+        <v>621</v>
       </c>
       <c r="B271" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C271" s="4">
         <v>396</v>
@@ -26239,10 +26239,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1372</v>
+        <v>623</v>
       </c>
       <c r="B272" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="C272" s="4">
         <v>286</v>
@@ -26262,10 +26262,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1373</v>
+        <v>624</v>
       </c>
       <c r="B273" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="C273" s="4">
         <v>283</v>
@@ -26285,10 +26285,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1374</v>
+        <v>625</v>
       </c>
       <c r="B274" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="C274" s="4">
         <v>420</v>
@@ -26308,7 +26308,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1375</v>
+        <v>626</v>
       </c>
       <c r="B275" t="s">
         <v>558</v>
@@ -26331,10 +26331,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1376</v>
+        <v>627</v>
       </c>
       <c r="B276" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="C276" s="4">
         <v>91</v>
@@ -26354,10 +26354,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1377</v>
+        <v>628</v>
       </c>
       <c r="B277" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="C277" s="4">
         <v>459</v>
@@ -26377,7 +26377,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1378</v>
+        <v>629</v>
       </c>
       <c r="B278" t="s">
         <v>421</v>
@@ -26400,10 +26400,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1379</v>
+        <v>630</v>
       </c>
       <c r="B279" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="C279" s="4">
         <v>423</v>
@@ -26423,10 +26423,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1380</v>
+        <v>631</v>
       </c>
       <c r="B280" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
       <c r="C280" s="4">
         <v>463</v>
@@ -26446,10 +26446,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1381</v>
+        <v>632</v>
       </c>
       <c r="B281" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="C281" s="4">
         <v>463</v>
@@ -26469,10 +26469,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1382</v>
+        <v>633</v>
       </c>
       <c r="B282" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="C282" s="4">
         <v>543</v>
@@ -26492,10 +26492,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1383</v>
+        <v>634</v>
       </c>
       <c r="B283" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="C283" s="4">
         <v>522</v>
@@ -26515,10 +26515,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1384</v>
+        <v>635</v>
       </c>
       <c r="B284" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="C284" s="4">
         <v>532</v>
@@ -26538,10 +26538,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1385</v>
+        <v>636</v>
       </c>
       <c r="B285" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="C285" s="4">
         <v>530</v>
@@ -26561,10 +26561,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1386</v>
+        <v>637</v>
       </c>
       <c r="B286" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="C286" s="4">
         <v>418</v>
@@ -26584,10 +26584,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1387</v>
+        <v>638</v>
       </c>
       <c r="B287" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="C287" s="4">
         <v>328</v>
@@ -26607,10 +26607,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1388</v>
+        <v>639</v>
       </c>
       <c r="B288" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="C288" s="4">
         <v>354</v>
@@ -26630,10 +26630,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1389</v>
+        <v>640</v>
       </c>
       <c r="B289" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="C289" s="4">
         <v>374</v>
@@ -26653,10 +26653,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1390</v>
+        <v>641</v>
       </c>
       <c r="B290" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="C290" s="4">
         <v>320</v>
@@ -26676,10 +26676,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1391</v>
+        <v>642</v>
       </c>
       <c r="B291" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="C291" s="4">
         <v>394.8</v>
@@ -26699,10 +26699,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1392</v>
+        <v>643</v>
       </c>
       <c r="B292" t="s">
-        <v>640</v>
+        <v>686</v>
       </c>
       <c r="C292" s="4">
         <v>361</v>
@@ -26722,10 +26722,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1393</v>
+        <v>644</v>
       </c>
       <c r="B293" t="s">
-        <v>1039</v>
+        <v>1128</v>
       </c>
       <c r="C293" s="4">
         <v>387</v>
@@ -26745,10 +26745,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1394</v>
+        <v>645</v>
       </c>
       <c r="B294" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="C294" s="4">
         <v>386</v>
@@ -26768,10 +26768,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1395</v>
+        <v>646</v>
       </c>
       <c r="B295" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="C295" s="4">
         <v>508</v>
@@ -26791,10 +26791,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1396</v>
+        <v>647</v>
       </c>
       <c r="B296" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
       <c r="C296" s="4">
         <v>495</v>
@@ -26814,7 +26814,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1397</v>
+        <v>648</v>
       </c>
       <c r="B297" t="s">
         <v>422</v>
@@ -26837,10 +26837,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1398</v>
+        <v>649</v>
       </c>
       <c r="B298" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="C298" s="4">
         <v>480</v>
@@ -26860,10 +26860,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1399</v>
+        <v>650</v>
       </c>
       <c r="B299" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="C299" s="4">
         <v>519</v>
@@ -26883,10 +26883,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1400</v>
+        <v>651</v>
       </c>
       <c r="B300" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
       <c r="C300" s="4">
         <v>363</v>
@@ -26906,10 +26906,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1401</v>
+        <v>652</v>
       </c>
       <c r="B301" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="C301" s="4">
         <v>415</v>
@@ -26929,10 +26929,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1402</v>
+        <v>653</v>
       </c>
       <c r="B302" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="C302" s="4">
         <v>440</v>
@@ -26952,10 +26952,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1403</v>
+        <v>654</v>
       </c>
       <c r="B303" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="C303" s="4">
         <v>264</v>
@@ -26975,10 +26975,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1404</v>
+        <v>655</v>
       </c>
       <c r="B304" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="C304" s="4">
         <v>1119</v>
@@ -26998,10 +26998,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1405</v>
+        <v>656</v>
       </c>
       <c r="B305" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="C305" s="4">
         <v>241</v>
@@ -27021,10 +27021,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1406</v>
+        <v>657</v>
       </c>
       <c r="B306" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="C306" s="4">
         <v>48</v>
@@ -27044,10 +27044,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1407</v>
+        <v>658</v>
       </c>
       <c r="B307" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="C307" s="4">
         <v>508</v>
@@ -27067,10 +27067,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1408</v>
+        <v>659</v>
       </c>
       <c r="B308" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="C308" s="4">
         <v>468.6</v>
@@ -27090,10 +27090,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1409</v>
+        <v>660</v>
       </c>
       <c r="B309" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="C309" s="4">
         <v>550</v>
@@ -27113,10 +27113,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1410</v>
+        <v>661</v>
       </c>
       <c r="B310" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="C310" s="4">
         <v>549</v>
@@ -27136,10 +27136,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1411</v>
+        <v>662</v>
       </c>
       <c r="B311" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="C311" s="4">
         <v>540</v>
@@ -27159,10 +27159,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1412</v>
+        <v>663</v>
       </c>
       <c r="B312" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="C312" s="4">
         <v>520</v>
@@ -27182,10 +27182,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1413</v>
+        <v>664</v>
       </c>
       <c r="B313" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="C313" s="4">
         <v>419.1</v>
@@ -27205,10 +27205,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1414</v>
+        <v>665</v>
       </c>
       <c r="B314" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="C314" s="4">
         <v>500</v>
@@ -27228,10 +27228,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1415</v>
+        <v>666</v>
       </c>
       <c r="B315" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="C315" s="4">
         <v>480</v>
@@ -27251,10 +27251,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1416</v>
+        <v>667</v>
       </c>
       <c r="B316" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="C316" s="4">
         <v>392</v>
@@ -27274,10 +27274,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1417</v>
+        <v>709</v>
       </c>
       <c r="B317" t="s">
-        <v>663</v>
+        <v>736</v>
       </c>
       <c r="C317" s="4">
         <v>357.5</v>
@@ -27297,10 +27297,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1418</v>
+        <v>710</v>
       </c>
       <c r="B318" t="s">
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="C318" s="4">
         <v>68.5</v>
@@ -27320,10 +27320,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1419</v>
+        <v>711</v>
       </c>
       <c r="B319" t="s">
-        <v>665</v>
+        <v>738</v>
       </c>
       <c r="C319" s="4">
         <v>54.8</v>
@@ -27343,10 +27343,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1420</v>
+        <v>712</v>
       </c>
       <c r="B320" t="s">
-        <v>666</v>
+        <v>739</v>
       </c>
       <c r="C320" s="4">
         <v>68.5</v>
@@ -27366,10 +27366,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1421</v>
+        <v>713</v>
       </c>
       <c r="B321" t="s">
-        <v>667</v>
+        <v>740</v>
       </c>
       <c r="C321" s="4">
         <v>60.3</v>
@@ -27389,10 +27389,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1422</v>
+        <v>714</v>
       </c>
       <c r="B322" t="s">
-        <v>668</v>
+        <v>741</v>
       </c>
       <c r="C322" s="4">
         <v>52.1</v>
@@ -27412,10 +27412,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1423</v>
+        <v>715</v>
       </c>
       <c r="B323" t="s">
-        <v>669</v>
+        <v>742</v>
       </c>
       <c r="C323" s="4">
         <v>60.3</v>
@@ -27435,10 +27435,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1424</v>
+        <v>716</v>
       </c>
       <c r="B324" t="s">
-        <v>670</v>
+        <v>743</v>
       </c>
       <c r="C324" s="4">
         <v>388.6</v>
@@ -27458,10 +27458,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1425</v>
+        <v>717</v>
       </c>
       <c r="B325" t="s">
-        <v>671</v>
+        <v>744</v>
       </c>
       <c r="C325" s="4">
         <v>453.7</v>
@@ -27481,10 +27481,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1426</v>
+        <v>718</v>
       </c>
       <c r="B326" t="s">
-        <v>672</v>
+        <v>745</v>
       </c>
       <c r="C326" s="4">
         <v>444.4</v>
@@ -27504,10 +27504,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1427</v>
+        <v>719</v>
       </c>
       <c r="B327" t="s">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="C327" s="4">
         <v>451.4</v>
@@ -27527,10 +27527,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1428</v>
+        <v>720</v>
       </c>
       <c r="B328" t="s">
-        <v>674</v>
+        <v>747</v>
       </c>
       <c r="C328" s="4">
         <v>451.4</v>
@@ -27550,10 +27550,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1429</v>
+        <v>721</v>
       </c>
       <c r="B329" t="s">
-        <v>675</v>
+        <v>748</v>
       </c>
       <c r="C329" s="4">
         <v>487.8</v>
@@ -27573,10 +27573,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1430</v>
+        <v>722</v>
       </c>
       <c r="B330" t="s">
-        <v>676</v>
+        <v>749</v>
       </c>
       <c r="C330" s="4">
         <v>485.1</v>
@@ -27596,10 +27596,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1431</v>
+        <v>723</v>
       </c>
       <c r="B331" t="s">
-        <v>677</v>
+        <v>750</v>
       </c>
       <c r="C331" s="4">
         <v>447.3</v>
@@ -27619,10 +27619,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1432</v>
+        <v>724</v>
       </c>
       <c r="B332" t="s">
-        <v>678</v>
+        <v>751</v>
       </c>
       <c r="C332" s="4">
         <v>456.6</v>
@@ -27642,10 +27642,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1433</v>
+        <v>725</v>
       </c>
       <c r="B333" t="s">
-        <v>679</v>
+        <v>752</v>
       </c>
       <c r="C333" s="4">
         <v>471.6</v>
@@ -27665,10 +27665,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1434</v>
+        <v>726</v>
       </c>
       <c r="B334" t="s">
-        <v>680</v>
+        <v>753</v>
       </c>
       <c r="C334" s="4">
         <v>439.2</v>
@@ -27688,10 +27688,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1435</v>
+        <v>727</v>
       </c>
       <c r="B335" t="s">
-        <v>681</v>
+        <v>754</v>
       </c>
       <c r="C335" s="4">
         <v>428.8</v>
@@ -27711,10 +27711,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1436</v>
+        <v>728</v>
       </c>
       <c r="B336" t="s">
-        <v>682</v>
+        <v>755</v>
       </c>
       <c r="C336" s="4">
         <v>436</v>
@@ -27734,10 +27734,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1437</v>
+        <v>729</v>
       </c>
       <c r="B337" t="s">
-        <v>683</v>
+        <v>756</v>
       </c>
       <c r="C337" s="4">
         <v>381.3</v>
@@ -27757,10 +27757,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1438</v>
+        <v>730</v>
       </c>
       <c r="B338" t="s">
-        <v>684</v>
+        <v>757</v>
       </c>
       <c r="C338" s="4">
         <v>441.9</v>
@@ -27780,10 +27780,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1439</v>
+        <v>731</v>
       </c>
       <c r="B339" t="s">
-        <v>685</v>
+        <v>758</v>
       </c>
       <c r="C339" s="4">
         <v>432.3</v>
@@ -27803,10 +27803,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1440</v>
+        <v>732</v>
       </c>
       <c r="B340" t="s">
-        <v>686</v>
+        <v>759</v>
       </c>
       <c r="C340" s="4">
         <v>416.7</v>
@@ -27826,10 +27826,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1441</v>
+        <v>733</v>
       </c>
       <c r="B341" t="s">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="C341" s="4">
         <v>472.9</v>
@@ -27849,10 +27849,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1442</v>
+        <v>734</v>
       </c>
       <c r="B342" t="s">
-        <v>688</v>
+        <v>761</v>
       </c>
       <c r="C342" s="4">
         <v>351.7</v>
@@ -27872,10 +27872,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1443</v>
+        <v>735</v>
       </c>
       <c r="B343" t="s">
-        <v>689</v>
+        <v>762</v>
       </c>
       <c r="C343" s="4">
         <v>384.6</v>
@@ -27895,10 +27895,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1444</v>
+        <v>772</v>
       </c>
       <c r="B344" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="C344" s="4">
         <v>283</v>
@@ -27918,10 +27918,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1445</v>
+        <v>773</v>
       </c>
       <c r="B345" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="C345" s="4">
         <v>273</v>
@@ -27941,10 +27941,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1446</v>
+        <v>774</v>
       </c>
       <c r="B346" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="C346" s="4">
         <v>280.39999999999998</v>
@@ -27964,10 +27964,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1447</v>
+        <v>775</v>
       </c>
       <c r="B347" t="s">
-        <v>702</v>
+        <v>791</v>
       </c>
       <c r="C347" s="4">
         <v>166.7</v>
@@ -27987,10 +27987,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1448</v>
+        <v>776</v>
       </c>
       <c r="B348" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="C348" s="4">
         <v>166.5</v>
@@ -28010,10 +28010,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1449</v>
+        <v>777</v>
       </c>
       <c r="B349" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="C349" s="4">
         <v>244.2</v>
@@ -28033,10 +28033,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1450</v>
+        <v>778</v>
       </c>
       <c r="B350" t="s">
-        <v>705</v>
+        <v>794</v>
       </c>
       <c r="C350" s="4">
         <v>163.4</v>
@@ -28056,10 +28056,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1451</v>
+        <v>779</v>
       </c>
       <c r="B351" t="s">
-        <v>706</v>
+        <v>795</v>
       </c>
       <c r="C351" s="4">
         <v>169.8</v>
@@ -28079,10 +28079,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1452</v>
+        <v>780</v>
       </c>
       <c r="B352" t="s">
-        <v>707</v>
+        <v>796</v>
       </c>
       <c r="C352" s="4">
         <v>284.10000000000002</v>
@@ -28102,10 +28102,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1453</v>
+        <v>781</v>
       </c>
       <c r="B353" t="s">
-        <v>708</v>
+        <v>797</v>
       </c>
       <c r="C353" s="4">
         <v>126.6</v>
@@ -28125,10 +28125,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1454</v>
+        <v>782</v>
       </c>
       <c r="B354" t="s">
-        <v>709</v>
+        <v>798</v>
       </c>
       <c r="C354" s="4">
         <v>166.5</v>
@@ -28148,10 +28148,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1455</v>
+        <v>783</v>
       </c>
       <c r="B355" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="C355" s="4">
         <v>160.4</v>
@@ -28171,10 +28171,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1456</v>
+        <v>784</v>
       </c>
       <c r="B356" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="C356" s="4">
         <v>168</v>
@@ -28194,10 +28194,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1457</v>
+        <v>785</v>
       </c>
       <c r="B357" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="C357" s="4">
         <v>165.2</v>
@@ -28217,10 +28217,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1458</v>
+        <v>786</v>
       </c>
       <c r="B358" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="C358" s="4">
         <v>138</v>
@@ -28240,10 +28240,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1459</v>
+        <v>787</v>
       </c>
       <c r="B359" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="C359" s="4">
         <v>165.2</v>
@@ -28287,10 +28287,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1040</v>
+        <v>1129</v>
       </c>
       <c r="B1" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="C1" s="5">
         <v>42</v>
@@ -28310,10 +28310,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1041</v>
+        <v>1130</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>805</v>
       </c>
       <c r="C2" s="5">
         <v>54</v>
@@ -28333,10 +28333,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1042</v>
+        <v>1131</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="C3" s="5">
         <v>53</v>
@@ -28356,10 +28356,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1043</v>
+        <v>1132</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="C4" s="5">
         <v>45</v>
@@ -28379,10 +28379,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="C5" s="5">
         <v>40.5</v>
@@ -28402,10 +28402,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1045</v>
+        <v>1134</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="C6" s="5">
         <v>46</v>
@@ -28425,10 +28425,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1046</v>
+        <v>1135</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="C7" s="5">
         <v>73.3</v>
@@ -28448,10 +28448,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1047</v>
+        <v>1136</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="C8" s="5">
         <v>39.700000000000003</v>
@@ -28471,10 +28471,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1048</v>
+        <v>1137</v>
       </c>
       <c r="B9" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="C9" s="5">
         <v>37.299999999999997</v>
@@ -28494,10 +28494,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1049</v>
+        <v>1138</v>
       </c>
       <c r="B10" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="C10" s="5">
         <v>32.200000000000003</v>
@@ -28517,10 +28517,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1050</v>
+        <v>1139</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="C11" s="5">
         <v>58.8</v>
@@ -28540,10 +28540,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1051</v>
+        <v>1140</v>
       </c>
       <c r="B12" t="s">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="C12" s="5">
         <v>303</v>
@@ -28563,10 +28563,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1052</v>
+        <v>1141</v>
       </c>
       <c r="B13" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="C13" s="5">
         <v>291.60000000000002</v>
@@ -28586,10 +28586,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1053</v>
+        <v>1142</v>
       </c>
       <c r="B14" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="C14" s="5">
         <v>95</v>
@@ -28609,10 +28609,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1054</v>
+        <v>1143</v>
       </c>
       <c r="B15" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="C15" s="5">
         <v>100</v>
@@ -28632,10 +28632,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1055</v>
+        <v>1144</v>
       </c>
       <c r="B16" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="C16" s="5">
         <v>95</v>
@@ -28655,10 +28655,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1056</v>
+        <v>1145</v>
       </c>
       <c r="B17" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="C17" s="5">
         <v>95</v>
@@ -28678,10 +28678,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1057</v>
+        <v>1146</v>
       </c>
       <c r="B18" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="C18" s="5">
         <v>105</v>
@@ -28701,10 +28701,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1058</v>
+        <v>1147</v>
       </c>
       <c r="B19" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="C19" s="5">
         <v>106.7</v>
@@ -28724,10 +28724,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1059</v>
+        <v>1148</v>
       </c>
       <c r="B20" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="C20" s="5">
         <v>108.7</v>
@@ -28747,10 +28747,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1060</v>
+        <v>1149</v>
       </c>
       <c r="B21" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="C21" s="5">
         <v>108.7</v>
@@ -28770,10 +28770,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1061</v>
+        <v>1150</v>
       </c>
       <c r="B22" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="C22" s="5">
         <v>109.5</v>
@@ -28793,10 +28793,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1062</v>
+        <v>1151</v>
       </c>
       <c r="B23" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="C23" s="5">
         <v>114.7</v>
@@ -28816,10 +28816,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1063</v>
+        <v>1152</v>
       </c>
       <c r="B24" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="C24" s="5">
         <v>112.8</v>
@@ -28839,10 +28839,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1064</v>
+        <v>1153</v>
       </c>
       <c r="B25" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="C25" s="5">
         <v>98</v>
@@ -28862,10 +28862,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1065</v>
+        <v>1154</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="C26" s="5">
         <v>60.5</v>
@@ -28885,10 +28885,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1066</v>
+        <v>1155</v>
       </c>
       <c r="B27" t="s">
-        <v>741</v>
+        <v>830</v>
       </c>
       <c r="C27" s="5">
         <v>100.4</v>
@@ -28908,10 +28908,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1067</v>
+        <v>1156</v>
       </c>
       <c r="B28" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
       <c r="C28" s="5">
         <v>102</v>
@@ -28931,10 +28931,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1068</v>
+        <v>1157</v>
       </c>
       <c r="B29" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
       <c r="C29" s="5">
         <v>105</v>
@@ -28954,10 +28954,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1069</v>
+        <v>1158</v>
       </c>
       <c r="B30" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="C30" s="5">
         <v>105</v>
@@ -28977,10 +28977,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1070</v>
+        <v>1159</v>
       </c>
       <c r="B31" t="s">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="C31" s="5">
         <v>100</v>
@@ -29000,10 +29000,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1071</v>
+        <v>1160</v>
       </c>
       <c r="B32" t="s">
-        <v>746</v>
+        <v>835</v>
       </c>
       <c r="C32" s="5">
         <v>104.8</v>
@@ -29023,10 +29023,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1072</v>
+        <v>1161</v>
       </c>
       <c r="B33" t="s">
-        <v>747</v>
+        <v>836</v>
       </c>
       <c r="C33" s="5">
         <v>95.3</v>
@@ -29046,10 +29046,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1073</v>
+        <v>1162</v>
       </c>
       <c r="B34" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
       <c r="C34" s="5">
         <v>105</v>
@@ -29069,10 +29069,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1074</v>
+        <v>1163</v>
       </c>
       <c r="B35" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
       <c r="C35" s="5">
         <v>85.3</v>
@@ -29092,10 +29092,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1075</v>
+        <v>1164</v>
       </c>
       <c r="B36" t="s">
-        <v>750</v>
+        <v>839</v>
       </c>
       <c r="C36" s="5">
         <v>61</v>
@@ -29115,10 +29115,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1076</v>
+        <v>1165</v>
       </c>
       <c r="B37" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="C37" s="5">
         <v>98.6</v>
@@ -29138,10 +29138,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1077</v>
+        <v>1166</v>
       </c>
       <c r="B38" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
       <c r="C38" s="5">
         <v>106.3</v>
@@ -29161,10 +29161,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1078</v>
+        <v>1167</v>
       </c>
       <c r="B39" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="C39" s="5">
         <v>105.8</v>
@@ -29184,10 +29184,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1079</v>
+        <v>1168</v>
       </c>
       <c r="B40" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="C40" s="5">
         <v>110.8</v>
@@ -29207,10 +29207,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1080</v>
+        <v>1169</v>
       </c>
       <c r="B41" t="s">
-        <v>755</v>
+        <v>844</v>
       </c>
       <c r="C41" s="5">
         <v>110.8</v>
@@ -29230,10 +29230,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1081</v>
+        <v>1170</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>845</v>
       </c>
       <c r="C42" s="5">
         <v>97</v>
@@ -29253,10 +29253,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1082</v>
+        <v>1171</v>
       </c>
       <c r="B43" t="s">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="C43" s="5">
         <v>101</v>
@@ -29276,10 +29276,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1083</v>
+        <v>1172</v>
       </c>
       <c r="B44" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
       <c r="C44" s="5">
         <v>195</v>
@@ -29299,10 +29299,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1084</v>
+        <v>1173</v>
       </c>
       <c r="B45" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="C45" s="5">
         <v>75.8</v>
@@ -29322,10 +29322,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1085</v>
+        <v>1174</v>
       </c>
       <c r="B46" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="C46" s="5">
         <v>72.5</v>
@@ -29345,10 +29345,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1086</v>
+        <v>1175</v>
       </c>
       <c r="B47" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="C47" s="5">
         <v>72.5</v>
@@ -29368,10 +29368,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1087</v>
+        <v>1176</v>
       </c>
       <c r="B48" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="C48" s="5">
         <v>72.5</v>
@@ -29391,10 +29391,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1088</v>
+        <v>1177</v>
       </c>
       <c r="B49" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="C49" s="5">
         <v>72.5</v>
@@ -29414,10 +29414,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1089</v>
+        <v>1178</v>
       </c>
       <c r="B50" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
       <c r="C50" s="5">
         <v>65</v>
@@ -29437,10 +29437,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1090</v>
+        <v>1179</v>
       </c>
       <c r="B51" t="s">
-        <v>765</v>
+        <v>854</v>
       </c>
       <c r="C51" s="5">
         <v>86.1</v>
@@ -29460,10 +29460,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1091</v>
+        <v>1180</v>
       </c>
       <c r="B52" t="s">
-        <v>766</v>
+        <v>855</v>
       </c>
       <c r="C52" s="5">
         <v>85.2</v>
@@ -29483,10 +29483,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1092</v>
+        <v>1181</v>
       </c>
       <c r="B53" t="s">
-        <v>767</v>
+        <v>856</v>
       </c>
       <c r="C53" s="5">
         <v>63.6</v>
@@ -29506,10 +29506,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1093</v>
+        <v>1182</v>
       </c>
       <c r="B54" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="C54" s="5">
         <v>67.2</v>
@@ -29529,10 +29529,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1094</v>
+        <v>1183</v>
       </c>
       <c r="B55" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="C55" s="5">
         <v>43.2</v>
@@ -29552,10 +29552,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1095</v>
+        <v>1184</v>
       </c>
       <c r="B56" t="s">
-        <v>770</v>
+        <v>859</v>
       </c>
       <c r="C56" s="5">
         <v>67.2</v>
@@ -29575,10 +29575,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1096</v>
+        <v>1185</v>
       </c>
       <c r="B57" t="s">
-        <v>771</v>
+        <v>860</v>
       </c>
       <c r="C57" s="5">
         <v>63.9</v>
@@ -29598,10 +29598,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1097</v>
+        <v>1186</v>
       </c>
       <c r="B58" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="C58" s="5">
         <v>64.8</v>
@@ -29621,10 +29621,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1098</v>
+        <v>1187</v>
       </c>
       <c r="B59" t="s">
-        <v>815</v>
+        <v>904</v>
       </c>
       <c r="C59" s="5">
         <v>70.400000000000006</v>
@@ -29644,10 +29644,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1099</v>
+        <v>1188</v>
       </c>
       <c r="B60" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="C60" s="5">
         <v>70.400000000000006</v>
@@ -29667,10 +29667,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1100</v>
+        <v>1189</v>
       </c>
       <c r="B61" t="s">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="C61" s="5">
         <v>70.400000000000006</v>
@@ -29690,10 +29690,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1101</v>
+        <v>1190</v>
       </c>
       <c r="B62" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="C62" s="5">
         <v>76.5</v>
@@ -29713,10 +29713,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1102</v>
+        <v>1191</v>
       </c>
       <c r="B63" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="C63" s="5">
         <v>76.599999999999994</v>
@@ -29736,10 +29736,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1103</v>
+        <v>1192</v>
       </c>
       <c r="B64" t="s">
-        <v>820</v>
+        <v>909</v>
       </c>
       <c r="C64" s="5">
         <v>64.8</v>
@@ -29759,10 +29759,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1104</v>
+        <v>1193</v>
       </c>
       <c r="B65" t="s">
-        <v>773</v>
+        <v>862</v>
       </c>
       <c r="C65" s="5">
         <v>70.8</v>
@@ -29782,10 +29782,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1105</v>
+        <v>1194</v>
       </c>
       <c r="B66" t="s">
-        <v>774</v>
+        <v>863</v>
       </c>
       <c r="C66" s="5">
         <v>70.8</v>
@@ -29805,10 +29805,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1106</v>
+        <v>1195</v>
       </c>
       <c r="B67" t="s">
-        <v>775</v>
+        <v>864</v>
       </c>
       <c r="C67" s="5">
         <v>84</v>
@@ -29828,10 +29828,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1107</v>
+        <v>1196</v>
       </c>
       <c r="B68" t="s">
-        <v>776</v>
+        <v>865</v>
       </c>
       <c r="C68" s="5">
         <v>64</v>
@@ -29851,10 +29851,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1108</v>
+        <v>1197</v>
       </c>
       <c r="B69" t="s">
-        <v>777</v>
+        <v>866</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -29874,10 +29874,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1109</v>
+        <v>1198</v>
       </c>
       <c r="B70" t="s">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="C70" s="5">
         <v>70</v>
@@ -29897,10 +29897,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1110</v>
+        <v>1199</v>
       </c>
       <c r="B71" t="s">
-        <v>779</v>
+        <v>868</v>
       </c>
       <c r="C71" s="5">
         <v>75</v>
@@ -29920,10 +29920,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1111</v>
+        <v>1200</v>
       </c>
       <c r="B72" t="s">
-        <v>780</v>
+        <v>869</v>
       </c>
       <c r="C72" s="5">
         <v>64</v>
@@ -29943,10 +29943,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1112</v>
+        <v>1201</v>
       </c>
       <c r="B73" t="s">
-        <v>781</v>
+        <v>870</v>
       </c>
       <c r="C73" s="5">
         <v>56.7</v>
@@ -29966,10 +29966,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1113</v>
+        <v>1202</v>
       </c>
       <c r="B74" t="s">
-        <v>782</v>
+        <v>871</v>
       </c>
       <c r="C74" s="5">
         <v>56.6</v>
@@ -29989,10 +29989,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1114</v>
+        <v>1203</v>
       </c>
       <c r="B75" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="C75" s="5">
         <v>85</v>
@@ -30012,10 +30012,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1115</v>
+        <v>1204</v>
       </c>
       <c r="B76" t="s">
-        <v>784</v>
+        <v>873</v>
       </c>
       <c r="C76" s="5">
         <v>50.7</v>
@@ -30035,10 +30035,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1116</v>
+        <v>1205</v>
       </c>
       <c r="B77" t="s">
-        <v>785</v>
+        <v>874</v>
       </c>
       <c r="C77" s="5">
         <v>64</v>
@@ -30058,10 +30058,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1117</v>
+        <v>1206</v>
       </c>
       <c r="B78" t="s">
-        <v>786</v>
+        <v>875</v>
       </c>
       <c r="C78" s="5">
         <v>50</v>
@@ -30081,10 +30081,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1118</v>
+        <v>1207</v>
       </c>
       <c r="B79" t="s">
-        <v>787</v>
+        <v>876</v>
       </c>
       <c r="C79" s="5">
         <v>40</v>
@@ -30104,10 +30104,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1119</v>
+        <v>1208</v>
       </c>
       <c r="B80" t="s">
-        <v>788</v>
+        <v>877</v>
       </c>
       <c r="C80" s="5">
         <v>39.799999999999997</v>
@@ -30127,10 +30127,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1120</v>
+        <v>1209</v>
       </c>
       <c r="B81" t="s">
-        <v>789</v>
+        <v>878</v>
       </c>
       <c r="C81" s="5">
         <v>41.3</v>
@@ -30150,10 +30150,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1121</v>
+        <v>1210</v>
       </c>
       <c r="B82" t="s">
-        <v>790</v>
+        <v>879</v>
       </c>
       <c r="C82" s="5">
         <v>60</v>
@@ -30173,10 +30173,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1122</v>
+        <v>1211</v>
       </c>
       <c r="B83" t="s">
-        <v>791</v>
+        <v>880</v>
       </c>
       <c r="C83" s="5">
         <v>62.2</v>
@@ -30196,10 +30196,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1123</v>
+        <v>1212</v>
       </c>
       <c r="B84" t="s">
-        <v>792</v>
+        <v>881</v>
       </c>
       <c r="C84" s="5">
         <v>62.2</v>
@@ -30219,10 +30219,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1124</v>
+        <v>1213</v>
       </c>
       <c r="B85" t="s">
-        <v>793</v>
+        <v>882</v>
       </c>
       <c r="C85" s="5">
         <v>50</v>
@@ -30242,10 +30242,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1125</v>
+        <v>1214</v>
       </c>
       <c r="B86" t="s">
-        <v>794</v>
+        <v>883</v>
       </c>
       <c r="C86" s="5">
         <v>83.9</v>
@@ -30265,10 +30265,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1126</v>
+        <v>1215</v>
       </c>
       <c r="B87" t="s">
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="C87" s="5">
         <v>75.599999999999994</v>
@@ -30288,10 +30288,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1127</v>
+        <v>1216</v>
       </c>
       <c r="B88" t="s">
-        <v>796</v>
+        <v>885</v>
       </c>
       <c r="C88" s="5">
         <v>91.7</v>
@@ -30311,10 +30311,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1128</v>
+        <v>1217</v>
       </c>
       <c r="B89" t="s">
-        <v>797</v>
+        <v>886</v>
       </c>
       <c r="C89" s="5">
         <v>65.099999999999994</v>
@@ -30334,10 +30334,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1129</v>
+        <v>1218</v>
       </c>
       <c r="B90" t="s">
-        <v>798</v>
+        <v>887</v>
       </c>
       <c r="C90" s="5">
         <v>49.5</v>
@@ -30357,10 +30357,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1130</v>
+        <v>1219</v>
       </c>
       <c r="B91" t="s">
-        <v>799</v>
+        <v>888</v>
       </c>
       <c r="C91" s="5">
         <v>77.8</v>
@@ -30380,10 +30380,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1131</v>
+        <v>1220</v>
       </c>
       <c r="B92" t="s">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="C92" s="5">
         <v>83.7</v>
@@ -30403,10 +30403,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1132</v>
+        <v>1221</v>
       </c>
       <c r="B93" t="s">
-        <v>801</v>
+        <v>890</v>
       </c>
       <c r="C93" s="5">
         <v>82.2</v>
@@ -30426,10 +30426,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1133</v>
+        <v>1222</v>
       </c>
       <c r="B94" t="s">
-        <v>802</v>
+        <v>891</v>
       </c>
       <c r="C94" s="5">
         <v>73</v>
@@ -30449,10 +30449,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1134</v>
+        <v>1223</v>
       </c>
       <c r="B95" t="s">
-        <v>803</v>
+        <v>892</v>
       </c>
       <c r="C95" s="5">
         <v>62.7</v>
@@ -30472,10 +30472,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1135</v>
+        <v>1224</v>
       </c>
       <c r="B96" t="s">
-        <v>804</v>
+        <v>893</v>
       </c>
       <c r="C96" s="5">
         <v>72</v>
@@ -30495,10 +30495,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1136</v>
+        <v>1225</v>
       </c>
       <c r="B97" t="s">
-        <v>805</v>
+        <v>894</v>
       </c>
       <c r="C97" s="5">
         <v>80</v>
@@ -30518,10 +30518,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1137</v>
+        <v>1226</v>
       </c>
       <c r="B98" t="s">
-        <v>806</v>
+        <v>895</v>
       </c>
       <c r="C98" s="5">
         <v>70</v>
@@ -30541,10 +30541,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1138</v>
+        <v>1227</v>
       </c>
       <c r="B99" t="s">
-        <v>807</v>
+        <v>896</v>
       </c>
       <c r="C99" s="5">
         <v>60</v>
@@ -30564,10 +30564,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1139</v>
+        <v>1228</v>
       </c>
       <c r="B100" t="s">
-        <v>808</v>
+        <v>897</v>
       </c>
       <c r="C100" s="5">
         <v>80</v>
@@ -30587,10 +30587,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1140</v>
+        <v>1229</v>
       </c>
       <c r="B101" t="s">
-        <v>809</v>
+        <v>898</v>
       </c>
       <c r="C101" s="5">
         <v>75.099999999999994</v>
@@ -30610,10 +30610,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1141</v>
+        <v>1230</v>
       </c>
       <c r="B102" t="s">
-        <v>810</v>
+        <v>899</v>
       </c>
       <c r="C102" s="5">
         <v>83.1</v>
@@ -30633,10 +30633,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1142</v>
+        <v>1231</v>
       </c>
       <c r="B103" t="s">
-        <v>811</v>
+        <v>900</v>
       </c>
       <c r="C103" s="5">
         <v>75.900000000000006</v>
@@ -30656,10 +30656,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1143</v>
+        <v>1232</v>
       </c>
       <c r="B104" t="s">
-        <v>812</v>
+        <v>901</v>
       </c>
       <c r="C104" s="5">
         <v>64.599999999999994</v>
@@ -30679,10 +30679,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1144</v>
+        <v>1233</v>
       </c>
       <c r="B105" t="s">
-        <v>813</v>
+        <v>902</v>
       </c>
       <c r="C105" s="5">
         <v>83.9</v>
@@ -30702,10 +30702,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1145</v>
+        <v>1234</v>
       </c>
       <c r="B106" t="s">
-        <v>814</v>
+        <v>903</v>
       </c>
       <c r="C106" s="5">
         <v>53.9</v>
@@ -30725,10 +30725,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1146</v>
+        <v>1235</v>
       </c>
       <c r="B107" t="s">
-        <v>879</v>
+        <v>968</v>
       </c>
       <c r="C107" s="5">
         <v>336</v>
@@ -30748,10 +30748,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1147</v>
+        <v>1236</v>
       </c>
       <c r="B108" t="s">
-        <v>931</v>
+        <v>1020</v>
       </c>
       <c r="C108" s="5">
         <v>91</v>
@@ -30771,10 +30771,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1148</v>
+        <v>1237</v>
       </c>
       <c r="B109" t="s">
-        <v>965</v>
+        <v>1054</v>
       </c>
       <c r="C109" s="5">
         <v>64.759358288770059</v>
@@ -30794,10 +30794,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1149</v>
+        <v>1238</v>
       </c>
       <c r="B110" t="s">
-        <v>987</v>
+        <v>1076</v>
       </c>
       <c r="C110" s="5">
         <v>72.727272727272734</v>
@@ -30817,10 +30817,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1150</v>
+        <v>1239</v>
       </c>
       <c r="B111" t="s">
-        <v>988</v>
+        <v>1077</v>
       </c>
       <c r="C111" s="5">
         <v>47</v>
@@ -30840,10 +30840,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1151</v>
+        <v>1240</v>
       </c>
       <c r="B112" t="s">
-        <v>989</v>
+        <v>1078</v>
       </c>
       <c r="C112" s="5">
         <v>59.484848484848484</v>
@@ -30863,10 +30863,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1152</v>
+        <v>1241</v>
       </c>
       <c r="B113" t="s">
-        <v>990</v>
+        <v>1079</v>
       </c>
       <c r="C113" s="5">
         <v>35.757575757575758</v>
@@ -30886,10 +30886,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1153</v>
+        <v>1242</v>
       </c>
       <c r="B114" t="s">
-        <v>991</v>
+        <v>1080</v>
       </c>
       <c r="C114" s="5">
         <v>65.878787878787875</v>
@@ -30909,10 +30909,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1154</v>
+        <v>1243</v>
       </c>
       <c r="B115" t="s">
-        <v>992</v>
+        <v>1081</v>
       </c>
       <c r="C115" s="5">
         <v>71.666666666666671</v>
@@ -30932,10 +30932,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1155</v>
+        <v>1244</v>
       </c>
       <c r="B116" t="s">
-        <v>993</v>
+        <v>1082</v>
       </c>
       <c r="C116" s="5">
         <v>51.81818181818182</v>
@@ -30955,10 +30955,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1156</v>
+        <v>1245</v>
       </c>
       <c r="B117" t="s">
-        <v>994</v>
+        <v>1083</v>
       </c>
       <c r="C117" s="5">
         <v>60.060606060606062</v>
@@ -30978,10 +30978,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1157</v>
+        <v>1246</v>
       </c>
       <c r="B118" t="s">
-        <v>995</v>
+        <v>1084</v>
       </c>
       <c r="C118" s="5">
         <v>46.878787878787875</v>
@@ -31001,10 +31001,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1158</v>
+        <v>1247</v>
       </c>
       <c r="B119" t="s">
-        <v>996</v>
+        <v>1085</v>
       </c>
       <c r="C119" s="5">
         <v>70.515151515151516</v>
@@ -31024,10 +31024,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1159</v>
+        <v>1248</v>
       </c>
       <c r="B120" t="s">
-        <v>997</v>
+        <v>1086</v>
       </c>
       <c r="C120" s="5">
         <v>65.939393939393938</v>
@@ -31047,10 +31047,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1160</v>
+        <v>1249</v>
       </c>
       <c r="B121" t="s">
-        <v>1003</v>
+        <v>1092</v>
       </c>
       <c r="C121" s="5">
         <v>21.1</v>
@@ -31070,10 +31070,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1161</v>
+        <v>1250</v>
       </c>
       <c r="B122" t="s">
-        <v>1004</v>
+        <v>1093</v>
       </c>
       <c r="C122" s="5">
         <v>53.06</v>
@@ -31093,10 +31093,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1162</v>
+        <v>1251</v>
       </c>
       <c r="B123" t="s">
-        <v>1025</v>
+        <v>1114</v>
       </c>
       <c r="C123" s="5">
         <v>10.98</v>
@@ -31116,10 +31116,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1163</v>
+        <v>1252</v>
       </c>
       <c r="B124" t="s">
-        <v>1026</v>
+        <v>1115</v>
       </c>
       <c r="C124" s="5">
         <v>48.88</v>
@@ -31139,10 +31139,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1164</v>
+        <v>1253</v>
       </c>
       <c r="B125" t="s">
-        <v>1027</v>
+        <v>1116</v>
       </c>
       <c r="C125" s="5">
         <v>17.38</v>
